--- a/AAII_Financials/Quarterly/SELF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SELF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>SELF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,10 +747,10 @@
         <v>2200</v>
       </c>
       <c r="E8" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F8" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="G8" s="3">
         <v>2100</v>
@@ -752,31 +759,37 @@
         <v>2100</v>
       </c>
       <c r="I8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K8" s="3">
         <v>2000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -790,10 +803,10 @@
         <v>900</v>
       </c>
       <c r="G9" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H9" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I9" s="3">
         <v>800</v>
@@ -802,25 +815,31 @@
         <v>800</v>
       </c>
       <c r="K9" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L9" s="3">
         <v>800</v>
       </c>
       <c r="M9" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="N9" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O9" s="3">
         <v>700</v>
       </c>
       <c r="P9" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>700</v>
+      </c>
+      <c r="R9" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,43 +847,49 @@
         <v>1300</v>
       </c>
       <c r="E10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G10" s="3">
         <v>1200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,29 +1002,35 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1008,18 +1047,24 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>100</v>
+      </c>
+      <c r="R14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E15" s="3">
         <v>400</v>
@@ -1031,34 +1076,40 @@
         <v>400</v>
       </c>
       <c r="H15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J15" s="3">
         <v>300</v>
       </c>
       <c r="K15" s="3">
+        <v>300</v>
+      </c>
+      <c r="L15" s="3">
+        <v>300</v>
+      </c>
+      <c r="M15" s="3">
         <v>400</v>
-      </c>
-      <c r="L15" s="3">
-        <v>400</v>
-      </c>
-      <c r="M15" s="3">
-        <v>500</v>
       </c>
       <c r="N15" s="3">
         <v>400</v>
       </c>
       <c r="O15" s="3">
+        <v>500</v>
+      </c>
+      <c r="P15" s="3">
         <v>400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
+        <v>400</v>
+      </c>
+      <c r="R15" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,13 +1123,15 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="E17" s="3">
         <v>1800</v>
@@ -1090,78 +1143,90 @@
         <v>1800</v>
       </c>
       <c r="H17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>400</v>
       </c>
-      <c r="E18" s="3">
-        <v>300</v>
-      </c>
       <c r="F18" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G18" s="3">
         <v>300</v>
       </c>
       <c r="H18" s="3">
+        <v>300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>300</v>
+      </c>
+      <c r="J18" s="3">
         <v>500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>200</v>
       </c>
       <c r="P18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>200</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,37 +1243,39 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-200</v>
       </c>
       <c r="M20" s="3">
         <v>-200</v>
@@ -1217,57 +1284,69 @@
         <v>-200</v>
       </c>
       <c r="O20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="E21" s="3">
         <v>700</v>
       </c>
       <c r="F21" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G21" s="3">
         <v>700</v>
       </c>
       <c r="H21" s="3">
+        <v>800</v>
+      </c>
+      <c r="I21" s="3">
         <v>700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>700</v>
+      </c>
+      <c r="K21" s="3">
         <v>1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>500</v>
-      </c>
-      <c r="N21" s="3">
-        <v>400</v>
-      </c>
-      <c r="O21" s="3">
-        <v>900</v>
       </c>
       <c r="P21" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>900</v>
+      </c>
+      <c r="R21" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1281,10 +1360,10 @@
         <v>300</v>
       </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
@@ -1292,11 +1371,11 @@
       <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3">
+        <v>200</v>
+      </c>
+      <c r="L22" s="3">
+        <v>200</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1310,16 +1389,22 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>200</v>
+        <v>-400</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>200</v>
@@ -1328,34 +1413,40 @@
         <v>100</v>
       </c>
       <c r="H23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,16 +1539,22 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>200</v>
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>200</v>
@@ -1460,42 +1563,48 @@
         <v>100</v>
       </c>
       <c r="H26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>200</v>
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>200</v>
@@ -1504,34 +1613,40 @@
         <v>100</v>
       </c>
       <c r="H27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,37 +1839,43 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
-        <v>100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>200</v>
-      </c>
       <c r="L32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>200</v>
@@ -1745,21 +1884,27 @@
         <v>200</v>
       </c>
       <c r="O32" s="3">
+        <v>200</v>
+      </c>
+      <c r="P32" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>200</v>
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>200</v>
@@ -1768,34 +1913,40 @@
         <v>100</v>
       </c>
       <c r="H33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,16 +1989,22 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>200</v>
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>200</v>
@@ -1856,83 +2013,95 @@
         <v>100</v>
       </c>
       <c r="H35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2064,7 +2249,7 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -2094,13 +2279,19 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,34 +2334,40 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
       </c>
       <c r="F45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
       </c>
       <c r="H45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I45" s="3">
         <v>300</v>
       </c>
       <c r="J45" s="3">
+        <v>400</v>
+      </c>
+      <c r="K45" s="3">
         <v>300</v>
-      </c>
-      <c r="K45" s="3">
-        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>300</v>
@@ -2179,16 +2376,22 @@
         <v>200</v>
       </c>
       <c r="N45" s="3">
+        <v>300</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
-      </c>
-      <c r="O45" s="3">
-        <v>300</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>300</v>
+      </c>
+      <c r="R45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,104 +2434,122 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="E47" s="3">
         <v>1800</v>
       </c>
       <c r="F47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H47" s="3">
         <v>1700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1600</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1700</v>
       </c>
       <c r="J47" s="3">
         <v>1500</v>
       </c>
       <c r="K47" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="L47" s="3">
         <v>1500</v>
       </c>
       <c r="M47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O47" s="3">
         <v>1400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>59800</v>
+      </c>
+      <c r="F48" s="3">
         <v>53200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>53400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>53500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>53800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>54100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>54400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>54700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>55000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>55000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>55300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>55500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>55800</v>
       </c>
-      <c r="P48" s="3" t="s">
+      <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="E49" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F49" s="3">
         <v>700</v>
@@ -2352,19 +2573,25 @@
         <v>700</v>
       </c>
       <c r="M49" s="3">
+        <v>700</v>
+      </c>
+      <c r="N49" s="3">
+        <v>700</v>
+      </c>
+      <c r="O49" s="3">
         <v>800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2466,17 +2705,17 @@
         <v>600</v>
       </c>
       <c r="G52" s="3">
+        <v>600</v>
+      </c>
+      <c r="H52" s="3">
+        <v>600</v>
+      </c>
+      <c r="I52" s="3">
         <v>700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3">
-        <v>100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>100</v>
-      </c>
       <c r="K52" s="3">
         <v>100</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+      <c r="R52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>66800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>67700</v>
+      </c>
+      <c r="F54" s="3">
         <v>58100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>58000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>58400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>58600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>58900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>59600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>59600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>59900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>60200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>60700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>61200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>61600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>60600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2878,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1900</v>
       </c>
       <c r="I57" s="3">
         <v>2100</v>
       </c>
       <c r="J57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,8 +2974,14 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2718,20 +2991,20 @@
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="F59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2751,8 +3024,14 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,28 +3074,34 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>23800</v>
+      </c>
+      <c r="F61" s="3">
         <v>19300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>19100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>19200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>19300</v>
-      </c>
-      <c r="H61" s="3">
-        <v>19400</v>
-      </c>
-      <c r="I61" s="3">
-        <v>19400</v>
       </c>
       <c r="J61" s="3">
         <v>19400</v>
@@ -2839,8 +3124,14 @@
       <c r="P61" s="3">
         <v>19400</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>19400</v>
+      </c>
+      <c r="R61" s="3">
+        <v>19400</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>25600</v>
+      </c>
+      <c r="F66" s="3">
         <v>21700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>21300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>21400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>21400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>21300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>21600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>21500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>21400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>21300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>21200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>21200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>21100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>20300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F72" s="3">
         <v>2200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>2500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>2900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>3200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>3600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>4000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>4100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>3700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>4300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>4900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>5400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>5900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>42100</v>
+      </c>
+      <c r="F76" s="3">
         <v>36400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>36600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>36900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>37200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>37600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>38000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>38100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>38500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>38900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>39500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>40000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>40600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,65 +3894,77 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>200</v>
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>200</v>
@@ -3584,34 +3973,40 @@
         <v>100</v>
       </c>
       <c r="H81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,13 +4023,15 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
         <v>400</v>
@@ -3646,34 +4043,40 @@
         <v>400</v>
       </c>
       <c r="H83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J83" s="3">
         <v>300</v>
       </c>
       <c r="K83" s="3">
+        <v>300</v>
+      </c>
+      <c r="L83" s="3">
+        <v>300</v>
+      </c>
+      <c r="M83" s="3">
         <v>400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>400</v>
-      </c>
-      <c r="M83" s="3">
-        <v>500</v>
       </c>
       <c r="N83" s="3">
         <v>400</v>
       </c>
       <c r="O83" s="3">
+        <v>500</v>
+      </c>
+      <c r="P83" s="3">
         <v>400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
+        <v>400</v>
+      </c>
+      <c r="R83" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,13 +4393,15 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3981,25 +4422,31 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
-        <v>100</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
+        <v>100</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-3800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,16 +4613,18 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E96" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="F96" s="3">
         <v>-500</v>
@@ -4190,10 +4657,16 @@
         <v>-500</v>
       </c>
       <c r="P96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,31 +4809,37 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-600</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-600</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-1100</v>
       </c>
       <c r="H100" s="3">
         <v>-600</v>
       </c>
       <c r="I100" s="3">
-        <v>-500</v>
+        <v>-1100</v>
       </c>
       <c r="J100" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="K100" s="3">
         <v>-500</v>
@@ -4366,10 +4857,16 @@
         <v>-500</v>
       </c>
       <c r="P100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R100" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E102" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-4100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>7000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SELF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SELF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>SELF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -753,7 +757,7 @@
         <v>2200</v>
       </c>
       <c r="G8" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H8" s="3">
         <v>2100</v>
@@ -765,31 +769,34 @@
         <v>2100</v>
       </c>
       <c r="K8" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="L8" s="3">
         <v>2000</v>
       </c>
       <c r="M8" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="N8" s="3">
         <v>1900</v>
       </c>
       <c r="O8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P8" s="3">
         <v>1800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -809,7 +816,7 @@
         <v>900</v>
       </c>
       <c r="I9" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J9" s="3">
         <v>800</v>
@@ -821,13 +828,13 @@
         <v>800</v>
       </c>
       <c r="M9" s="3">
+        <v>800</v>
+      </c>
+      <c r="N9" s="3">
         <v>1000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>800</v>
-      </c>
-      <c r="O9" s="3">
-        <v>700</v>
       </c>
       <c r="P9" s="3">
         <v>700</v>
@@ -836,10 +843,13 @@
         <v>700</v>
       </c>
       <c r="R9" s="3">
+        <v>700</v>
+      </c>
+      <c r="S9" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -853,43 +863,46 @@
         <v>1300</v>
       </c>
       <c r="G10" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H10" s="3">
         <v>1200</v>
       </c>
       <c r="I10" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J10" s="3">
         <v>1300</v>
       </c>
       <c r="K10" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="L10" s="3">
         <v>1200</v>
       </c>
       <c r="M10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N10" s="3">
         <v>900</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1100</v>
       </c>
       <c r="O10" s="3">
         <v>1100</v>
       </c>
       <c r="P10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1020,20 +1040,20 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1053,13 +1073,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>100</v>
+      </c>
+      <c r="S14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1067,7 +1090,7 @@
         <v>500</v>
       </c>
       <c r="E15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F15" s="3">
         <v>400</v>
@@ -1082,7 +1105,7 @@
         <v>400</v>
       </c>
       <c r="J15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K15" s="3">
         <v>300</v>
@@ -1091,25 +1114,28 @@
         <v>300</v>
       </c>
       <c r="M15" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N15" s="3">
         <v>400</v>
       </c>
       <c r="O15" s="3">
+        <v>400</v>
+      </c>
+      <c r="P15" s="3">
         <v>500</v>
-      </c>
-      <c r="P15" s="3">
-        <v>400</v>
       </c>
       <c r="Q15" s="3">
         <v>400</v>
       </c>
       <c r="R15" s="3">
+        <v>400</v>
+      </c>
+      <c r="S15" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,16 +1151,17 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2100</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1800</v>
       </c>
       <c r="F17" s="3">
         <v>1800</v>
@@ -1149,48 +1176,51 @@
         <v>1800</v>
       </c>
       <c r="J17" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K17" s="3">
         <v>1600</v>
       </c>
       <c r="L17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M17" s="3">
         <v>1700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1600</v>
       </c>
       <c r="P17" s="3">
         <v>1600</v>
       </c>
       <c r="Q17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R17" s="3">
         <v>1400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E18" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
         <v>400</v>
       </c>
       <c r="G18" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H18" s="3">
         <v>300</v>
@@ -1199,34 +1229,37 @@
         <v>300</v>
       </c>
       <c r="J18" s="3">
+        <v>300</v>
+      </c>
+      <c r="K18" s="3">
         <v>500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="P18" s="3">
-        <v>100</v>
-      </c>
       <c r="Q18" s="3">
+        <v>100</v>
+      </c>
+      <c r="R18" s="3">
         <v>200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,40 +1278,41 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>-100</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-200</v>
       </c>
       <c r="N20" s="3">
         <v>-200</v>
@@ -1290,63 +1324,69 @@
         <v>-200</v>
       </c>
       <c r="Q20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>800</v>
+      </c>
+      <c r="E21" s="3">
         <v>500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>800</v>
-      </c>
-      <c r="I21" s="3">
-        <v>700</v>
       </c>
       <c r="J21" s="3">
         <v>700</v>
       </c>
       <c r="K21" s="3">
+        <v>700</v>
+      </c>
+      <c r="L21" s="3">
         <v>1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>600</v>
-      </c>
-      <c r="M21" s="3">
-        <v>300</v>
       </c>
       <c r="N21" s="3">
         <v>300</v>
       </c>
       <c r="O21" s="3">
+        <v>300</v>
+      </c>
+      <c r="P21" s="3">
         <v>500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1366,7 +1406,7 @@
         <v>300</v>
       </c>
       <c r="I22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
@@ -1377,8 +1417,8 @@
       <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
+      <c r="M22" s="3">
+        <v>200</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
@@ -1395,58 +1435,64 @@
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
       <c r="J23" s="3">
         <v>100</v>
       </c>
       <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
       <c r="J26" s="3">
         <v>100</v>
       </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
       <c r="J27" s="3">
         <v>100</v>
       </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,40 +1912,43 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>100</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
-        <v>100</v>
-      </c>
       <c r="M32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>200</v>
@@ -1890,63 +1960,69 @@
         <v>200</v>
       </c>
       <c r="Q32" s="3">
+        <v>200</v>
+      </c>
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
       <c r="J33" s="3">
         <v>100</v>
       </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
       <c r="J35" s="3">
         <v>100</v>
       </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E41" s="3">
         <v>3100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4000</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1100</v>
       </c>
       <c r="G41" s="3">
         <v>1100</v>
       </c>
       <c r="H41" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="I41" s="3">
         <v>1500</v>
       </c>
       <c r="J41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>2100</v>
       </c>
       <c r="M41" s="3">
         <v>2100</v>
       </c>
       <c r="N41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O41" s="3">
         <v>2500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2800</v>
-      </c>
-      <c r="P41" s="3">
-        <v>2900</v>
       </c>
       <c r="Q41" s="3">
         <v>2900</v>
       </c>
       <c r="R41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="S41" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2249,11 +2342,11 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
@@ -2285,13 +2378,16 @@
         <v>100</v>
       </c>
       <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2349,13 +2448,13 @@
         <v>400</v>
       </c>
       <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>300</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
@@ -2364,34 +2463,37 @@
         <v>300</v>
       </c>
       <c r="J45" s="3">
+        <v>300</v>
+      </c>
+      <c r="K45" s="3">
         <v>400</v>
-      </c>
-      <c r="K45" s="3">
-        <v>300</v>
       </c>
       <c r="L45" s="3">
         <v>300</v>
       </c>
       <c r="M45" s="3">
+        <v>300</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
-      </c>
-      <c r="O45" s="3">
-        <v>200</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
       </c>
       <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,119 +2542,128 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E47" s="3">
         <v>1600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1500</v>
-      </c>
-      <c r="O47" s="3">
-        <v>1400</v>
       </c>
       <c r="P47" s="3">
         <v>1400</v>
       </c>
       <c r="Q47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R47" s="3">
         <v>1500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>60100</v>
+      </c>
+      <c r="E48" s="3">
         <v>60200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>59800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>53200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>53400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>53500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>53800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>54100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>54400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>54700</v>
-      </c>
-      <c r="M48" s="3">
-        <v>55000</v>
       </c>
       <c r="N48" s="3">
         <v>55000</v>
       </c>
       <c r="O48" s="3">
+        <v>55000</v>
+      </c>
+      <c r="P48" s="3">
         <v>55300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>55500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>55800</v>
       </c>
-      <c r="R48" s="3" t="s">
+      <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>900</v>
+      </c>
+      <c r="E49" s="3">
         <v>1000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1100</v>
-      </c>
-      <c r="F49" s="3">
-        <v>700</v>
       </c>
       <c r="G49" s="3">
         <v>700</v>
@@ -2579,19 +2690,22 @@
         <v>700</v>
       </c>
       <c r="O49" s="3">
+        <v>700</v>
+      </c>
+      <c r="P49" s="3">
         <v>800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,13 +2807,16 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E52" s="3">
         <v>600</v>
@@ -2711,14 +2831,14 @@
         <v>600</v>
       </c>
       <c r="I52" s="3">
+        <v>600</v>
+      </c>
+      <c r="J52" s="3">
         <v>700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3">
-        <v>100</v>
-      </c>
       <c r="L52" s="3">
         <v>100</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E54" s="3">
         <v>66800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>67700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>58100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>58000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>58400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>58600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>58900</v>
-      </c>
-      <c r="K54" s="3">
-        <v>59600</v>
       </c>
       <c r="L54" s="3">
         <v>59600</v>
       </c>
       <c r="M54" s="3">
+        <v>59600</v>
+      </c>
+      <c r="N54" s="3">
         <v>59900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>60200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>60700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>61200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>61600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>60600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2300</v>
       </c>
       <c r="H57" s="3">
         <v>2300</v>
       </c>
       <c r="I57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J57" s="3">
         <v>2100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1900</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2100</v>
       </c>
       <c r="L57" s="3">
         <v>2100</v>
       </c>
       <c r="M57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N57" s="3">
         <v>2000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1900</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1800</v>
       </c>
       <c r="P57" s="3">
         <v>1800</v>
       </c>
       <c r="Q57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R57" s="3">
         <v>1700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2991,8 +3128,8 @@
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
+      <c r="F59" s="3">
+        <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>8</v>
@@ -3006,8 +3143,8 @@
       <c r="J59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,31 +3220,34 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E61" s="3">
         <v>23600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>23800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>19300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>19100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>19200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>19300</v>
-      </c>
-      <c r="J61" s="3">
-        <v>19400</v>
       </c>
       <c r="K61" s="3">
         <v>19400</v>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>19400</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>19400</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E66" s="3">
         <v>25700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>25600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>21400</v>
       </c>
       <c r="I66" s="3">
         <v>21400</v>
       </c>
       <c r="J66" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K66" s="3">
         <v>21300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21300</v>
-      </c>
-      <c r="O66" s="3">
-        <v>21200</v>
       </c>
       <c r="P66" s="3">
         <v>21200</v>
       </c>
       <c r="Q66" s="3">
+        <v>21200</v>
+      </c>
+      <c r="R66" s="3">
         <v>21100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
         <v>700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E76" s="3">
         <v>41100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>42100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>36400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>36600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>36900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>37200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>37600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>38000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>38100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>38500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>38900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>39500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>40000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>40600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
       <c r="J81" s="3">
         <v>100</v>
       </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4034,7 +4233,7 @@
         <v>500</v>
       </c>
       <c r="E83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F83" s="3">
         <v>400</v>
@@ -4049,7 +4248,7 @@
         <v>400</v>
       </c>
       <c r="J83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K83" s="3">
         <v>300</v>
@@ -4058,25 +4257,28 @@
         <v>300</v>
       </c>
       <c r="M83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>400</v>
       </c>
       <c r="O83" s="3">
+        <v>400</v>
+      </c>
+      <c r="P83" s="3">
         <v>500</v>
-      </c>
-      <c r="P83" s="3">
-        <v>400</v>
       </c>
       <c r="Q83" s="3">
         <v>400</v>
       </c>
       <c r="R83" s="3">
+        <v>400</v>
+      </c>
+      <c r="S83" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400</v>
+      </c>
+      <c r="E89" s="3">
         <v>600</v>
       </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
       <c r="F89" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G89" s="3">
         <v>500</v>
       </c>
       <c r="H89" s="3">
+        <v>500</v>
+      </c>
+      <c r="I89" s="3">
         <v>600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>600</v>
       </c>
       <c r="L89" s="3">
         <v>600</v>
       </c>
       <c r="M89" s="3">
+        <v>600</v>
+      </c>
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,17 +4615,18 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -4428,25 +4649,28 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
-        <v>100</v>
-      </c>
       <c r="O91" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,43 +4772,46 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7300</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-200</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-100</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
@@ -4590,13 +4820,16 @@
         <v>-100</v>
       </c>
       <c r="Q94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R94" s="3">
         <v>-3800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4627,7 +4861,7 @@
         <v>-600</v>
       </c>
       <c r="F96" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="G96" s="3">
         <v>-500</v>
@@ -4663,10 +4897,13 @@
         <v>-500</v>
       </c>
       <c r="R96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4824,25 +5070,25 @@
         <v>-700</v>
       </c>
       <c r="E100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F100" s="3">
         <v>10100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-600</v>
       </c>
       <c r="H100" s="3">
         <v>-600</v>
       </c>
       <c r="I100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J100" s="3">
         <v>-1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-600</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-500</v>
       </c>
       <c r="L100" s="3">
         <v>-500</v>
@@ -4863,10 +5109,13 @@
         <v>-500</v>
       </c>
       <c r="R100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S100" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2900</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
         <v>-300</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-4100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>7000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SELF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SELF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>SELF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,94 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E8" s="3">
         <v>2200</v>
@@ -760,7 +764,7 @@
         <v>2200</v>
       </c>
       <c r="H8" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I8" s="3">
         <v>2100</v>
@@ -772,31 +776,34 @@
         <v>2100</v>
       </c>
       <c r="L8" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="M8" s="3">
         <v>2000</v>
       </c>
       <c r="N8" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="O8" s="3">
         <v>1900</v>
       </c>
       <c r="P8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,7 +826,7 @@
         <v>900</v>
       </c>
       <c r="J9" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K9" s="3">
         <v>800</v>
@@ -831,13 +838,13 @@
         <v>800</v>
       </c>
       <c r="N9" s="3">
+        <v>800</v>
+      </c>
+      <c r="O9" s="3">
         <v>1000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>800</v>
-      </c>
-      <c r="P9" s="3">
-        <v>700</v>
       </c>
       <c r="Q9" s="3">
         <v>700</v>
@@ -846,15 +853,18 @@
         <v>700</v>
       </c>
       <c r="S9" s="3">
+        <v>700</v>
+      </c>
+      <c r="T9" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E10" s="3">
         <v>1300</v>
@@ -866,43 +876,46 @@
         <v>1300</v>
       </c>
       <c r="H10" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="I10" s="3">
         <v>1200</v>
       </c>
       <c r="J10" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K10" s="3">
         <v>1300</v>
       </c>
       <c r="L10" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="M10" s="3">
         <v>1200</v>
       </c>
       <c r="N10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O10" s="3">
         <v>900</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1100</v>
       </c>
       <c r="P10" s="3">
         <v>1100</v>
       </c>
       <c r="Q10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R10" s="3">
         <v>1000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1043,20 +1063,20 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1076,13 +1096,16 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>100</v>
+      </c>
+      <c r="T14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1093,7 +1116,7 @@
         <v>500</v>
       </c>
       <c r="F15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G15" s="3">
         <v>400</v>
@@ -1108,7 +1131,7 @@
         <v>400</v>
       </c>
       <c r="K15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L15" s="3">
         <v>300</v>
@@ -1117,25 +1140,28 @@
         <v>300</v>
       </c>
       <c r="N15" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O15" s="3">
         <v>400</v>
       </c>
       <c r="P15" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q15" s="3">
         <v>500</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>400</v>
       </c>
       <c r="R15" s="3">
         <v>400</v>
       </c>
       <c r="S15" s="3">
+        <v>400</v>
+      </c>
+      <c r="T15" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1161,10 +1188,10 @@
         <v>2000</v>
       </c>
       <c r="E17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F17" s="3">
         <v>2100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1800</v>
       </c>
       <c r="G17" s="3">
         <v>1800</v>
@@ -1179,51 +1206,54 @@
         <v>1800</v>
       </c>
       <c r="K17" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="L17" s="3">
         <v>1600</v>
       </c>
       <c r="M17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N17" s="3">
         <v>1700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1900</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1600</v>
       </c>
       <c r="Q17" s="3">
         <v>1600</v>
       </c>
       <c r="R17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S17" s="3">
         <v>1400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>300</v>
+      </c>
+      <c r="E18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
       <c r="F18" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
         <v>400</v>
       </c>
       <c r="H18" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I18" s="3">
         <v>300</v>
@@ -1232,34 +1262,37 @@
         <v>300</v>
       </c>
       <c r="K18" s="3">
+        <v>300</v>
+      </c>
+      <c r="L18" s="3">
         <v>500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
-        <v>100</v>
-      </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>100</v>
-      </c>
       <c r="R18" s="3">
+        <v>100</v>
+      </c>
+      <c r="S18" s="3">
         <v>200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,43 +1312,44 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-200</v>
       </c>
       <c r="O20" s="3">
         <v>-200</v>
@@ -1327,66 +1361,72 @@
         <v>-200</v>
       </c>
       <c r="R20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E21" s="3">
         <v>800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>800</v>
-      </c>
-      <c r="J21" s="3">
-        <v>700</v>
       </c>
       <c r="K21" s="3">
         <v>700</v>
       </c>
       <c r="L21" s="3">
+        <v>700</v>
+      </c>
+      <c r="M21" s="3">
         <v>1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>600</v>
-      </c>
-      <c r="N21" s="3">
-        <v>300</v>
       </c>
       <c r="O21" s="3">
         <v>300</v>
       </c>
       <c r="P21" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q21" s="3">
         <v>500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1409,7 +1449,7 @@
         <v>300</v>
       </c>
       <c r="J22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
@@ -1420,8 +1460,8 @@
       <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
+      <c r="N22" s="3">
+        <v>200</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
       <c r="K23" s="3">
         <v>100</v>
       </c>
       <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
       <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
       <c r="K26" s="3">
         <v>100</v>
       </c>
       <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
       <c r="K27" s="3">
         <v>100</v>
       </c>
       <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,43 +1982,46 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
-        <v>100</v>
-      </c>
       <c r="N32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
         <v>200</v>
@@ -1963,66 +2033,72 @@
         <v>200</v>
       </c>
       <c r="R32" s="3">
+        <v>200</v>
+      </c>
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
       <c r="K33" s="3">
         <v>100</v>
       </c>
       <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
       <c r="K35" s="3">
         <v>100</v>
       </c>
       <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E41" s="3">
         <v>2400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4000</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1100</v>
       </c>
       <c r="H41" s="3">
         <v>1100</v>
       </c>
       <c r="I41" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="J41" s="3">
         <v>1500</v>
       </c>
       <c r="K41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L41" s="3">
         <v>1900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2200</v>
-      </c>
-      <c r="M41" s="3">
-        <v>2100</v>
       </c>
       <c r="N41" s="3">
         <v>2100</v>
       </c>
       <c r="O41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P41" s="3">
         <v>2500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2800</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>2900</v>
       </c>
       <c r="R41" s="3">
         <v>2900</v>
       </c>
       <c r="S41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="T41" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2345,11 +2438,11 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
@@ -2381,13 +2474,16 @@
         <v>100</v>
       </c>
       <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,25 +2535,28 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E45" s="3">
         <v>400</v>
       </c>
       <c r="F45" s="3">
+        <v>400</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>300</v>
       </c>
       <c r="I45" s="3">
         <v>300</v>
@@ -2466,34 +2565,37 @@
         <v>300</v>
       </c>
       <c r="K45" s="3">
+        <v>300</v>
+      </c>
+      <c r="L45" s="3">
         <v>400</v>
-      </c>
-      <c r="L45" s="3">
-        <v>300</v>
       </c>
       <c r="M45" s="3">
         <v>300</v>
       </c>
       <c r="N45" s="3">
+        <v>300</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
-      </c>
-      <c r="P45" s="3">
-        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
       </c>
       <c r="R45" s="3">
+        <v>200</v>
+      </c>
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,128 +2647,137 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E47" s="3">
         <v>1500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1500</v>
-      </c>
-      <c r="P47" s="3">
-        <v>1400</v>
       </c>
       <c r="Q47" s="3">
         <v>1400</v>
       </c>
       <c r="R47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S47" s="3">
         <v>1500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E48" s="3">
         <v>60100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>60200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>59800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>53200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>53400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>53500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>53800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>54100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>54400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>54700</v>
-      </c>
-      <c r="N48" s="3">
-        <v>55000</v>
       </c>
       <c r="O48" s="3">
         <v>55000</v>
       </c>
       <c r="P48" s="3">
+        <v>55000</v>
+      </c>
+      <c r="Q48" s="3">
         <v>55300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>55500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>55800</v>
       </c>
-      <c r="S48" s="3" t="s">
+      <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>700</v>
+      </c>
+      <c r="E49" s="3">
         <v>900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1100</v>
-      </c>
-      <c r="G49" s="3">
-        <v>700</v>
       </c>
       <c r="H49" s="3">
         <v>700</v>
@@ -2693,19 +2804,22 @@
         <v>700</v>
       </c>
       <c r="P49" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q49" s="3">
         <v>800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2819,7 +2939,7 @@
         <v>500</v>
       </c>
       <c r="E52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F52" s="3">
         <v>600</v>
@@ -2834,14 +2954,14 @@
         <v>600</v>
       </c>
       <c r="J52" s="3">
+        <v>600</v>
+      </c>
+      <c r="K52" s="3">
         <v>700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3">
-        <v>100</v>
-      </c>
       <c r="M52" s="3">
         <v>100</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>65500</v>
+      </c>
+      <c r="E54" s="3">
         <v>66000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>66800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>67700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>58100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>58000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>58400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>58600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>58900</v>
-      </c>
-      <c r="L54" s="3">
-        <v>59600</v>
       </c>
       <c r="M54" s="3">
         <v>59600</v>
       </c>
       <c r="N54" s="3">
+        <v>59600</v>
+      </c>
+      <c r="O54" s="3">
         <v>59900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>60200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>60700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>61200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>61600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>60600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2300</v>
       </c>
       <c r="I57" s="3">
         <v>2300</v>
       </c>
       <c r="J57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1900</v>
-      </c>
-      <c r="L57" s="3">
-        <v>2100</v>
       </c>
       <c r="M57" s="3">
         <v>2100</v>
       </c>
       <c r="N57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O57" s="3">
         <v>2000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1900</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1800</v>
       </c>
       <c r="Q57" s="3">
         <v>1800</v>
       </c>
       <c r="R57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S57" s="3">
         <v>1700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3131,8 +3268,8 @@
       <c r="F59" s="3">
         <v>0</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
+      <c r="G59" s="3">
+        <v>0</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>8</v>
@@ -3146,8 +3283,8 @@
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,34 +3363,37 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E61" s="3">
         <v>23500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>23600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>23800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>19300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>19100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>19200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>19300</v>
-      </c>
-      <c r="K61" s="3">
-        <v>19400</v>
       </c>
       <c r="L61" s="3">
         <v>19400</v>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>19400</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>19400</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E66" s="3">
         <v>25400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>25700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>25600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>21400</v>
       </c>
       <c r="J66" s="3">
         <v>21400</v>
       </c>
       <c r="K66" s="3">
+        <v>21400</v>
+      </c>
+      <c r="L66" s="3">
         <v>21300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>21200</v>
       </c>
       <c r="Q66" s="3">
         <v>21200</v>
       </c>
       <c r="R66" s="3">
+        <v>21200</v>
+      </c>
+      <c r="S66" s="3">
         <v>21100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>20300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
         <v>700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E76" s="3">
         <v>40500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>41100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>42100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>36400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>36600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>36900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>37200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>37600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>38000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>38100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>38500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>38900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>39500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>40000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>40600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
       <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
       <c r="K81" s="3">
         <v>100</v>
       </c>
       <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4236,7 +4435,7 @@
         <v>500</v>
       </c>
       <c r="F83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
@@ -4251,7 +4450,7 @@
         <v>400</v>
       </c>
       <c r="K83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L83" s="3">
         <v>300</v>
@@ -4260,25 +4459,28 @@
         <v>300</v>
       </c>
       <c r="N83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O83" s="3">
         <v>400</v>
       </c>
       <c r="P83" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q83" s="3">
         <v>500</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>400</v>
       </c>
       <c r="R83" s="3">
         <v>400</v>
       </c>
       <c r="S83" s="3">
+        <v>400</v>
+      </c>
+      <c r="T83" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
         <v>400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>600</v>
       </c>
-      <c r="F89" s="3">
-        <v>100</v>
-      </c>
       <c r="G89" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H89" s="3">
         <v>500</v>
       </c>
       <c r="I89" s="3">
+        <v>500</v>
+      </c>
+      <c r="J89" s="3">
         <v>600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>300</v>
-      </c>
-      <c r="L89" s="3">
-        <v>600</v>
       </c>
       <c r="M89" s="3">
         <v>600</v>
       </c>
       <c r="N89" s="3">
+        <v>600</v>
+      </c>
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,20 +4836,21 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -4652,25 +4873,28 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
-        <v>100</v>
-      </c>
       <c r="P91" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
       </c>
       <c r="R91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,46 +5002,49 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7300</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-200</v>
       </c>
       <c r="H94" s="3">
         <v>-200</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-100</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
@@ -4823,13 +5053,16 @@
         <v>-100</v>
       </c>
       <c r="R94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S94" s="3">
         <v>-3800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4864,7 +5098,7 @@
         <v>-600</v>
       </c>
       <c r="G96" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="H96" s="3">
         <v>-500</v>
@@ -4900,10 +5134,13 @@
         <v>-500</v>
       </c>
       <c r="S96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,37 +5304,40 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="E100" s="3">
         <v>-700</v>
       </c>
       <c r="F100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G100" s="3">
         <v>10100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-600</v>
       </c>
       <c r="I100" s="3">
         <v>-600</v>
       </c>
       <c r="J100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-600</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-500</v>
       </c>
       <c r="M100" s="3">
         <v>-500</v>
@@ -5112,10 +5358,13 @@
         <v>-500</v>
       </c>
       <c r="S100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T100" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2900</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
         <v>-300</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-4100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>7000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SELF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SELF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>SELF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,107 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F8" s="3">
         <v>2300</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2200</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2200</v>
       </c>
       <c r="G8" s="3">
         <v>2200</v>
@@ -767,10 +774,10 @@
         <v>2200</v>
       </c>
       <c r="I8" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="J8" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="K8" s="3">
         <v>2100</v>
@@ -779,36 +786,42 @@
         <v>2100</v>
       </c>
       <c r="M8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O8" s="3">
         <v>2000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="3">
         <v>900</v>
@@ -829,10 +842,10 @@
         <v>900</v>
       </c>
       <c r="K9" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L9" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M9" s="3">
         <v>800</v>
@@ -841,25 +854,31 @@
         <v>800</v>
       </c>
       <c r="O9" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="P9" s="3">
         <v>800</v>
       </c>
       <c r="Q9" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="R9" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="S9" s="3">
         <v>700</v>
       </c>
       <c r="T9" s="3">
+        <v>700</v>
+      </c>
+      <c r="U9" s="3">
+        <v>700</v>
+      </c>
+      <c r="V9" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,10 +886,10 @@
         <v>1400</v>
       </c>
       <c r="E10" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F10" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G10" s="3">
         <v>1300</v>
@@ -879,43 +898,49 @@
         <v>1300</v>
       </c>
       <c r="I10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K10" s="3">
         <v>1200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,13 +1081,19 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1066,23 +1105,23 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1099,18 +1138,24 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>100</v>
+      </c>
+      <c r="V14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E15" s="3">
         <v>500</v>
@@ -1119,10 +1164,10 @@
         <v>500</v>
       </c>
       <c r="G15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I15" s="3">
         <v>400</v>
@@ -1134,34 +1179,40 @@
         <v>400</v>
       </c>
       <c r="L15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N15" s="3">
         <v>300</v>
       </c>
       <c r="O15" s="3">
+        <v>300</v>
+      </c>
+      <c r="P15" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q15" s="3">
         <v>400</v>
-      </c>
-      <c r="P15" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>500</v>
       </c>
       <c r="R15" s="3">
         <v>400</v>
       </c>
       <c r="S15" s="3">
+        <v>500</v>
+      </c>
+      <c r="T15" s="3">
         <v>400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
+        <v>400</v>
+      </c>
+      <c r="V15" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1230,10 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1188,16 +1241,16 @@
         <v>2000</v>
       </c>
       <c r="E17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F17" s="3">
         <v>2000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H17" s="3">
         <v>2100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1800</v>
       </c>
       <c r="I17" s="3">
         <v>1800</v>
@@ -1209,90 +1262,102 @@
         <v>1800</v>
       </c>
       <c r="L17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>500</v>
+      </c>
+      <c r="F18" s="3">
         <v>300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>300</v>
       </c>
       <c r="K18" s="3">
         <v>300</v>
       </c>
       <c r="L18" s="3">
+        <v>300</v>
+      </c>
+      <c r="M18" s="3">
+        <v>300</v>
+      </c>
+      <c r="N18" s="3">
         <v>500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>300</v>
       </c>
-      <c r="O18" s="3">
-        <v>100</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>200</v>
       </c>
       <c r="T18" s="3">
+        <v>100</v>
+      </c>
+      <c r="U18" s="3">
+        <v>200</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,40 +1389,40 @@
         <v>300</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
-      </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-200</v>
       </c>
       <c r="Q20" s="3">
         <v>-200</v>
@@ -1364,13 +1431,19 @@
         <v>-200</v>
       </c>
       <c r="S20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,55 +1451,61 @@
         <v>1100</v>
       </c>
       <c r="E21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G21" s="3">
         <v>800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>500</v>
-      </c>
-      <c r="G21" s="3">
-        <v>700</v>
-      </c>
-      <c r="H21" s="3">
-        <v>900</v>
       </c>
       <c r="I21" s="3">
         <v>700</v>
       </c>
       <c r="J21" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K21" s="3">
         <v>700</v>
       </c>
       <c r="L21" s="3">
+        <v>800</v>
+      </c>
+      <c r="M21" s="3">
         <v>700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
+        <v>700</v>
+      </c>
+      <c r="O21" s="3">
         <v>1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>500</v>
-      </c>
-      <c r="R21" s="3">
-        <v>400</v>
-      </c>
-      <c r="S21" s="3">
-        <v>900</v>
       </c>
       <c r="T21" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>900</v>
+      </c>
+      <c r="V21" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1452,10 +1531,10 @@
         <v>300</v>
       </c>
       <c r="K22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
@@ -1463,11 +1542,11 @@
       <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
+      <c r="O22" s="3">
+        <v>200</v>
+      </c>
+      <c r="P22" s="3">
+        <v>200</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
@@ -1481,28 +1560,34 @@
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>300</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>200</v>
-      </c>
       <c r="I23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>200</v>
@@ -1511,34 +1596,40 @@
         <v>100</v>
       </c>
       <c r="L23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,28 +1746,34 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>200</v>
-      </c>
       <c r="I26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>200</v>
@@ -1679,54 +1782,60 @@
         <v>100</v>
       </c>
       <c r="L26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>300</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>200</v>
-      </c>
       <c r="I27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>200</v>
@@ -1735,34 +1844,40 @@
         <v>100</v>
       </c>
       <c r="L27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,40 +2133,40 @@
         <v>-300</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
-        <v>100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>200</v>
-      </c>
       <c r="P32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>200</v>
@@ -2036,33 +2175,39 @@
         <v>200</v>
       </c>
       <c r="S32" s="3">
+        <v>200</v>
+      </c>
+      <c r="T32" s="3">
+        <v>200</v>
+      </c>
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>300</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>200</v>
-      </c>
       <c r="I33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>200</v>
@@ -2071,34 +2216,40 @@
         <v>100</v>
       </c>
       <c r="L33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,28 +2304,34 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>300</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>200</v>
-      </c>
       <c r="I35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>200</v>
@@ -2183,95 +2340,107 @@
         <v>100</v>
       </c>
       <c r="L35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2485,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E41" s="3">
         <v>1600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G41" s="3">
         <v>2400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>4000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2441,14 +2626,14 @@
         <v>100</v>
       </c>
       <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
@@ -2477,13 +2662,19 @@
         <v>100</v>
       </c>
       <c r="S43" s="3">
+        <v>100</v>
+      </c>
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,46 +2729,52 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>500</v>
       </c>
       <c r="I45" s="3">
         <v>300</v>
       </c>
       <c r="J45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
       </c>
       <c r="L45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M45" s="3">
         <v>300</v>
       </c>
       <c r="N45" s="3">
+        <v>400</v>
+      </c>
+      <c r="O45" s="3">
         <v>300</v>
-      </c>
-      <c r="O45" s="3">
-        <v>200</v>
       </c>
       <c r="P45" s="3">
         <v>300</v>
@@ -2586,16 +2783,22 @@
         <v>200</v>
       </c>
       <c r="R45" s="3">
+        <v>300</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
-      </c>
-      <c r="S45" s="3">
-        <v>300</v>
       </c>
       <c r="T45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>300</v>
+      </c>
+      <c r="V45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,120 +2853,138 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F47" s="3">
         <v>1800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>1500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1600</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1900</v>
       </c>
       <c r="I47" s="3">
         <v>1800</v>
       </c>
       <c r="J47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K47" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L47" s="3">
         <v>1700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1600</v>
-      </c>
-      <c r="L47" s="3">
-        <v>1500</v>
-      </c>
-      <c r="M47" s="3">
-        <v>1700</v>
       </c>
       <c r="N47" s="3">
         <v>1500</v>
       </c>
       <c r="O47" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="P47" s="3">
         <v>1500</v>
       </c>
       <c r="Q47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S47" s="3">
         <v>1400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>1400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>1500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>60200</v>
+        <v>59400</v>
       </c>
       <c r="E48" s="3">
-        <v>60100</v>
+        <v>59800</v>
       </c>
       <c r="F48" s="3">
         <v>60200</v>
       </c>
       <c r="G48" s="3">
+        <v>60100</v>
+      </c>
+      <c r="H48" s="3">
+        <v>60200</v>
+      </c>
+      <c r="I48" s="3">
         <v>59800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>53200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>53400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>53500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>53800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>54100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>54400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>54700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>55000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>55000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>55300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>55500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>55800</v>
       </c>
-      <c r="T48" s="3" t="s">
+      <c r="V48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2771,19 +2992,19 @@
         <v>700</v>
       </c>
       <c r="E49" s="3">
+        <v>700</v>
+      </c>
+      <c r="F49" s="3">
+        <v>700</v>
+      </c>
+      <c r="G49" s="3">
         <v>900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1100</v>
-      </c>
-      <c r="H49" s="3">
-        <v>700</v>
-      </c>
-      <c r="I49" s="3">
-        <v>700</v>
       </c>
       <c r="J49" s="3">
         <v>700</v>
@@ -2807,19 +3028,25 @@
         <v>700</v>
       </c>
       <c r="Q49" s="3">
+        <v>700</v>
+      </c>
+      <c r="R49" s="3">
+        <v>700</v>
+      </c>
+      <c r="S49" s="3">
         <v>800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2942,10 +3181,10 @@
         <v>500</v>
       </c>
       <c r="F52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H52" s="3">
         <v>600</v>
@@ -2957,17 +3196,17 @@
         <v>600</v>
       </c>
       <c r="K52" s="3">
+        <v>600</v>
+      </c>
+      <c r="L52" s="3">
+        <v>600</v>
+      </c>
+      <c r="M52" s="3">
         <v>700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3">
-        <v>100</v>
-      </c>
-      <c r="N52" s="3">
-        <v>100</v>
-      </c>
       <c r="O52" s="3">
         <v>100</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>100</v>
+      </c>
+      <c r="V52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>64900</v>
+      </c>
+      <c r="F54" s="3">
         <v>65500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>66000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>66800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>67700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>58100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>58000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>58400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>58600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>58900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>59600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>59600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>59900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>60200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>60700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>61200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>61600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>60600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3401,72 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1900</v>
       </c>
       <c r="M57" s="3">
         <v>2100</v>
       </c>
       <c r="N57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O57" s="3">
         <v>2100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q57" s="3">
         <v>2000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,8 +3521,14 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3271,11 +3544,11 @@
       <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
@@ -3286,11 +3559,11 @@
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3310,8 +3583,14 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,13 +3645,19 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>23600</v>
+        <v>23400</v>
       </c>
       <c r="E61" s="3">
         <v>23500</v>
@@ -3381,25 +3666,25 @@
         <v>23600</v>
       </c>
       <c r="G61" s="3">
+        <v>23500</v>
+      </c>
+      <c r="H61" s="3">
+        <v>23600</v>
+      </c>
+      <c r="I61" s="3">
         <v>23800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>19300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>19100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>19200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>19300</v>
-      </c>
-      <c r="L61" s="3">
-        <v>19400</v>
-      </c>
-      <c r="M61" s="3">
-        <v>19400</v>
       </c>
       <c r="N61" s="3">
         <v>19400</v>
@@ -3422,8 +3707,14 @@
       <c r="T61" s="3">
         <v>19400</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>19400</v>
+      </c>
+      <c r="V61" s="3">
+        <v>19400</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>24900</v>
+      </c>
+      <c r="F66" s="3">
         <v>25200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>25400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>25700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>25600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>21700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>21300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>21400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>21400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>21300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>21600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>21500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>21400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>21300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>21200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>21200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>21100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>20300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-200</v>
       </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
         <v>700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>2200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>2500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>3200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>3600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>4000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>4100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>3700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>4300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>4900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>5400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>5900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>40000</v>
+      </c>
+      <c r="F76" s="3">
         <v>40300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>40500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>41100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>42100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>36400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>36600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>36900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>37200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>37600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>38000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>38100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>38500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>38900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>39500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>40000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>40600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,89 +4661,101 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>300</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>200</v>
-      </c>
       <c r="I81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>200</v>
@@ -4375,34 +4764,40 @@
         <v>100</v>
       </c>
       <c r="L81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,13 +4818,15 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
         <v>500</v>
@@ -4438,10 +4835,10 @@
         <v>500</v>
       </c>
       <c r="G83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I83" s="3">
         <v>400</v>
@@ -4453,34 +4850,40 @@
         <v>400</v>
       </c>
       <c r="L83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N83" s="3">
         <v>300</v>
       </c>
       <c r="O83" s="3">
+        <v>300</v>
+      </c>
+      <c r="P83" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q83" s="3">
         <v>400</v>
-      </c>
-      <c r="P83" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>500</v>
       </c>
       <c r="R83" s="3">
         <v>400</v>
       </c>
       <c r="S83" s="3">
+        <v>500</v>
+      </c>
+      <c r="T83" s="3">
         <v>400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
+        <v>400</v>
+      </c>
+      <c r="V83" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>800</v>
+      </c>
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>100</v>
+      </c>
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,13 +5276,15 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4855,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -4876,25 +5317,31 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
+        <v>100</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5458,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-7300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
       </c>
       <c r="Q94" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="R94" s="3">
         <v>-100</v>
       </c>
       <c r="S94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U94" s="3">
         <v>-3800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5101,10 +5568,10 @@
         <v>-600</v>
       </c>
       <c r="H96" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="I96" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="J96" s="3">
         <v>-500</v>
@@ -5137,10 +5604,16 @@
         <v>-500</v>
       </c>
       <c r="T96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,43 +5792,49 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-500</v>
+        <v>-700</v>
       </c>
       <c r="E100" s="3">
         <v>-700</v>
       </c>
       <c r="F100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G100" s="3">
         <v>-700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I100" s="3">
         <v>10100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-600</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-600</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-1100</v>
       </c>
       <c r="L100" s="3">
         <v>-600</v>
       </c>
       <c r="M100" s="3">
-        <v>-500</v>
+        <v>-1100</v>
       </c>
       <c r="N100" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="O100" s="3">
         <v>-500</v>
@@ -5361,10 +5852,16 @@
         <v>-500</v>
       </c>
       <c r="T100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V100" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5916,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>2900</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-4100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>7000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SELF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SELF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>SELF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,110 +665,114 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="E8" s="3">
         <v>2400</v>
       </c>
       <c r="F8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G8" s="3">
         <v>2300</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2200</v>
       </c>
       <c r="H8" s="3">
         <v>2200</v>
@@ -780,7 +784,7 @@
         <v>2200</v>
       </c>
       <c r="K8" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="L8" s="3">
         <v>2100</v>
@@ -792,39 +796,42 @@
         <v>2100</v>
       </c>
       <c r="O8" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="P8" s="3">
         <v>2000</v>
       </c>
       <c r="Q8" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="R8" s="3">
         <v>1900</v>
       </c>
       <c r="S8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T8" s="3">
         <v>1800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>900</v>
+      </c>
+      <c r="E9" s="3">
         <v>1000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>900</v>
       </c>
       <c r="F9" s="3">
         <v>900</v>
@@ -848,7 +855,7 @@
         <v>900</v>
       </c>
       <c r="M9" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="N9" s="3">
         <v>800</v>
@@ -860,13 +867,13 @@
         <v>800</v>
       </c>
       <c r="Q9" s="3">
+        <v>800</v>
+      </c>
+      <c r="R9" s="3">
         <v>1000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>800</v>
-      </c>
-      <c r="S9" s="3">
-        <v>700</v>
       </c>
       <c r="T9" s="3">
         <v>700</v>
@@ -875,24 +882,27 @@
         <v>700</v>
       </c>
       <c r="V9" s="3">
+        <v>700</v>
+      </c>
+      <c r="W9" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E10" s="3">
         <v>1400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1400</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1300</v>
       </c>
       <c r="H10" s="3">
         <v>1300</v>
@@ -904,43 +914,46 @@
         <v>1300</v>
       </c>
       <c r="K10" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="L10" s="3">
         <v>1200</v>
       </c>
       <c r="M10" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="N10" s="3">
         <v>1300</v>
       </c>
       <c r="O10" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="P10" s="3">
         <v>1200</v>
       </c>
       <c r="Q10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R10" s="3">
         <v>900</v>
-      </c>
-      <c r="R10" s="3">
-        <v>1100</v>
       </c>
       <c r="S10" s="3">
         <v>1100</v>
       </c>
       <c r="T10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U10" s="3">
         <v>1000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,17 +1104,20 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -1111,20 +1131,20 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1144,13 +1164,16 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>100</v>
+      </c>
+      <c r="W14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1158,7 +1181,7 @@
         <v>400</v>
       </c>
       <c r="E15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F15" s="3">
         <v>500</v>
@@ -1170,7 +1193,7 @@
         <v>500</v>
       </c>
       <c r="I15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J15" s="3">
         <v>400</v>
@@ -1185,7 +1208,7 @@
         <v>400</v>
       </c>
       <c r="N15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O15" s="3">
         <v>300</v>
@@ -1194,25 +1217,28 @@
         <v>300</v>
       </c>
       <c r="Q15" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R15" s="3">
         <v>400</v>
       </c>
       <c r="S15" s="3">
+        <v>400</v>
+      </c>
+      <c r="T15" s="3">
         <v>500</v>
-      </c>
-      <c r="T15" s="3">
-        <v>400</v>
       </c>
       <c r="U15" s="3">
         <v>400</v>
       </c>
       <c r="V15" s="3">
+        <v>400</v>
+      </c>
+      <c r="W15" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,28 +1258,29 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
         <v>2000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1900</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2000</v>
       </c>
       <c r="G17" s="3">
         <v>2000</v>
       </c>
       <c r="H17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I17" s="3">
         <v>2100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1800</v>
       </c>
       <c r="J17" s="3">
         <v>1800</v>
@@ -1268,60 +1295,63 @@
         <v>1800</v>
       </c>
       <c r="N17" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="O17" s="3">
         <v>1600</v>
       </c>
       <c r="P17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1900</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1600</v>
       </c>
       <c r="T17" s="3">
         <v>1600</v>
       </c>
       <c r="U17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V17" s="3">
         <v>1400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>700</v>
+      </c>
+      <c r="E18" s="3">
         <v>400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
       <c r="I18" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J18" s="3">
         <v>400</v>
       </c>
       <c r="K18" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L18" s="3">
         <v>300</v>
@@ -1330,34 +1360,37 @@
         <v>300</v>
       </c>
       <c r="N18" s="3">
+        <v>300</v>
+      </c>
+      <c r="O18" s="3">
         <v>500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>300</v>
       </c>
-      <c r="Q18" s="3">
-        <v>100</v>
-      </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>200</v>
       </c>
-      <c r="T18" s="3">
-        <v>100</v>
-      </c>
       <c r="U18" s="3">
+        <v>100</v>
+      </c>
+      <c r="V18" s="3">
         <v>200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,52 +1413,53 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
-        <v>100</v>
-      </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>-100</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-200</v>
       </c>
       <c r="R20" s="3">
         <v>-200</v>
@@ -1437,18 +1471,21 @@
         <v>-200</v>
       </c>
       <c r="U20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V20" s="3">
         <v>400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="E21" s="3">
         <v>1100</v>
@@ -1457,55 +1494,58 @@
         <v>1100</v>
       </c>
       <c r="G21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H21" s="3">
         <v>800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>800</v>
-      </c>
-      <c r="M21" s="3">
-        <v>700</v>
       </c>
       <c r="N21" s="3">
         <v>700</v>
       </c>
       <c r="O21" s="3">
+        <v>700</v>
+      </c>
+      <c r="P21" s="3">
         <v>1000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>600</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>300</v>
       </c>
       <c r="R21" s="3">
         <v>300</v>
       </c>
       <c r="S21" s="3">
+        <v>300</v>
+      </c>
+      <c r="T21" s="3">
         <v>500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1537,7 +1577,7 @@
         <v>300</v>
       </c>
       <c r="M22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
@@ -1548,8 +1588,8 @@
       <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
+      <c r="Q22" s="3">
+        <v>200</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>8</v>
@@ -1566,70 +1606,76 @@
       <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>900</v>
+      </c>
+      <c r="E23" s="3">
         <v>400</v>
-      </c>
-      <c r="E23" s="3">
-        <v>300</v>
       </c>
       <c r="F23" s="3">
         <v>300</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
       <c r="N23" s="3">
         <v>100</v>
       </c>
       <c r="O23" s="3">
+        <v>100</v>
+      </c>
+      <c r="P23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
-        <v>100</v>
-      </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>900</v>
+      </c>
+      <c r="E26" s="3">
         <v>400</v>
-      </c>
-      <c r="E26" s="3">
-        <v>300</v>
       </c>
       <c r="F26" s="3">
         <v>300</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
       <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
       <c r="N26" s="3">
         <v>100</v>
       </c>
       <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
-        <v>100</v>
-      </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>900</v>
+      </c>
+      <c r="E27" s="3">
         <v>400</v>
-      </c>
-      <c r="E27" s="3">
-        <v>300</v>
       </c>
       <c r="F27" s="3">
         <v>300</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
       <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
       <c r="N27" s="3">
         <v>100</v>
       </c>
       <c r="O27" s="3">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
-        <v>100</v>
-      </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,52 +2191,55 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>100</v>
       </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
-        <v>100</v>
-      </c>
       <c r="Q32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
         <v>200</v>
@@ -2181,75 +2251,81 @@
         <v>200</v>
       </c>
       <c r="U32" s="3">
+        <v>200</v>
+      </c>
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
-      <c r="V32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>900</v>
+      </c>
+      <c r="E33" s="3">
         <v>400</v>
-      </c>
-      <c r="E33" s="3">
-        <v>300</v>
       </c>
       <c r="F33" s="3">
         <v>300</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
       <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
       <c r="N33" s="3">
         <v>100</v>
       </c>
       <c r="O33" s="3">
+        <v>100</v>
+      </c>
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
-        <v>100</v>
-      </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>900</v>
+      </c>
+      <c r="E35" s="3">
         <v>400</v>
-      </c>
-      <c r="E35" s="3">
-        <v>300</v>
       </c>
       <c r="F35" s="3">
         <v>300</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
       <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
       <c r="N35" s="3">
         <v>100</v>
       </c>
       <c r="O35" s="3">
+        <v>100</v>
+      </c>
+      <c r="P35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
-        <v>100</v>
-      </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1500</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1600</v>
       </c>
       <c r="F41" s="3">
         <v>1600</v>
       </c>
       <c r="G41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H41" s="3">
         <v>2400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4000</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1100</v>
       </c>
       <c r="K41" s="3">
         <v>1100</v>
       </c>
       <c r="L41" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="M41" s="3">
         <v>1500</v>
       </c>
       <c r="N41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O41" s="3">
         <v>1900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2200</v>
-      </c>
-      <c r="P41" s="3">
-        <v>2100</v>
       </c>
       <c r="Q41" s="3">
         <v>2100</v>
       </c>
       <c r="R41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S41" s="3">
         <v>2500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2800</v>
-      </c>
-      <c r="T41" s="3">
-        <v>2900</v>
       </c>
       <c r="U41" s="3">
         <v>2900</v>
       </c>
       <c r="V41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="W41" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2632,11 +2725,11 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
@@ -2668,13 +2761,16 @@
         <v>100</v>
       </c>
       <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
         <v>200</v>
       </c>
-      <c r="V43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,34 +2831,37 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
-      </c>
-      <c r="G45" s="3">
-        <v>400</v>
       </c>
       <c r="H45" s="3">
         <v>400</v>
       </c>
       <c r="I45" s="3">
+        <v>400</v>
+      </c>
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
-      </c>
-      <c r="K45" s="3">
-        <v>300</v>
       </c>
       <c r="L45" s="3">
         <v>300</v>
@@ -2771,34 +2870,37 @@
         <v>300</v>
       </c>
       <c r="N45" s="3">
+        <v>300</v>
+      </c>
+      <c r="O45" s="3">
         <v>400</v>
-      </c>
-      <c r="O45" s="3">
-        <v>300</v>
       </c>
       <c r="P45" s="3">
         <v>300</v>
       </c>
       <c r="Q45" s="3">
+        <v>300</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>300</v>
-      </c>
-      <c r="S45" s="3">
-        <v>200</v>
       </c>
       <c r="T45" s="3">
         <v>200</v>
       </c>
       <c r="U45" s="3">
+        <v>200</v>
+      </c>
+      <c r="V45" s="3">
         <v>300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,132 +2961,141 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E47" s="3">
         <v>2100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1500</v>
-      </c>
-      <c r="S47" s="3">
-        <v>1400</v>
       </c>
       <c r="T47" s="3">
         <v>1400</v>
       </c>
       <c r="U47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V47" s="3">
         <v>1500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>59100</v>
+      </c>
+      <c r="E48" s="3">
         <v>59400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>59800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>60200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>60100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>60200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>59800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>53200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>53400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>53500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>53800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>54100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>54400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>54700</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>55000</v>
       </c>
       <c r="R48" s="3">
         <v>55000</v>
       </c>
       <c r="S48" s="3">
+        <v>55000</v>
+      </c>
+      <c r="T48" s="3">
         <v>55300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>55500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>55800</v>
       </c>
-      <c r="V48" s="3" t="s">
+      <c r="W48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2998,16 +3109,16 @@
         <v>700</v>
       </c>
       <c r="G49" s="3">
+        <v>700</v>
+      </c>
+      <c r="H49" s="3">
         <v>900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1100</v>
-      </c>
-      <c r="J49" s="3">
-        <v>700</v>
       </c>
       <c r="K49" s="3">
         <v>700</v>
@@ -3034,19 +3145,22 @@
         <v>700</v>
       </c>
       <c r="S49" s="3">
+        <v>700</v>
+      </c>
+      <c r="T49" s="3">
         <v>800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,13 +3286,16 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
         <v>500</v>
@@ -3187,7 +3307,7 @@
         <v>500</v>
       </c>
       <c r="H52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I52" s="3">
         <v>600</v>
@@ -3202,14 +3322,14 @@
         <v>600</v>
       </c>
       <c r="M52" s="3">
+        <v>600</v>
+      </c>
+      <c r="N52" s="3">
         <v>700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>200</v>
       </c>
-      <c r="O52" s="3">
-        <v>100</v>
-      </c>
       <c r="P52" s="3">
         <v>100</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>71400</v>
+      </c>
+      <c r="E54" s="3">
         <v>64700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>64900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>65500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>66000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>66800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>67700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>58100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>58000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>58400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>58600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>58900</v>
-      </c>
-      <c r="O54" s="3">
-        <v>59600</v>
       </c>
       <c r="P54" s="3">
         <v>59600</v>
       </c>
       <c r="Q54" s="3">
+        <v>59600</v>
+      </c>
+      <c r="R54" s="3">
         <v>59900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>60200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>60700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>61200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>61600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>60600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3533,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2300</v>
       </c>
       <c r="L57" s="3">
         <v>2300</v>
       </c>
       <c r="M57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N57" s="3">
         <v>2100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1900</v>
-      </c>
-      <c r="O57" s="3">
-        <v>2100</v>
       </c>
       <c r="P57" s="3">
         <v>2100</v>
       </c>
       <c r="Q57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R57" s="3">
         <v>2000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1900</v>
-      </c>
-      <c r="S57" s="3">
-        <v>1800</v>
       </c>
       <c r="T57" s="3">
         <v>1800</v>
       </c>
       <c r="U57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V57" s="3">
         <v>1700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,8 +3661,11 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3550,8 +3687,8 @@
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
@@ -3565,8 +3702,8 @@
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3589,8 +3726,11 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,43 +3791,46 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E61" s="3">
         <v>23400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>23500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>23600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>23500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>23600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>23800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>19300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>19300</v>
-      </c>
-      <c r="N61" s="3">
-        <v>19400</v>
       </c>
       <c r="O61" s="3">
         <v>19400</v>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>19400</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>19400</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E66" s="3">
         <v>24800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>24900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>25200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>25400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>25700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>25600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>21700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>21400</v>
       </c>
       <c r="M66" s="3">
         <v>21400</v>
       </c>
       <c r="N66" s="3">
+        <v>21400</v>
+      </c>
+      <c r="O66" s="3">
         <v>21300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>21500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>21400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>21300</v>
-      </c>
-      <c r="S66" s="3">
-        <v>21200</v>
       </c>
       <c r="T66" s="3">
         <v>21200</v>
       </c>
       <c r="U66" s="3">
+        <v>21200</v>
+      </c>
+      <c r="V66" s="3">
         <v>21100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>20300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-200</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
       <c r="H72" s="3">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3">
         <v>700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E76" s="3">
         <v>39900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>40000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>40300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>40500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>41100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>42100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>36400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>36600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>36900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>37200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>37600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>38000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>38100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>38500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>38900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>39500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>40000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>40600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>900</v>
+      </c>
+      <c r="E81" s="3">
         <v>400</v>
-      </c>
-      <c r="E81" s="3">
-        <v>300</v>
       </c>
       <c r="F81" s="3">
         <v>300</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
       <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
       <c r="N81" s="3">
         <v>100</v>
       </c>
       <c r="O81" s="3">
+        <v>100</v>
+      </c>
+      <c r="P81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
-        <v>100</v>
-      </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4829,7 +5028,7 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>500</v>
@@ -4841,7 +5040,7 @@
         <v>500</v>
       </c>
       <c r="I83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J83" s="3">
         <v>400</v>
@@ -4856,7 +5055,7 @@
         <v>400</v>
       </c>
       <c r="N83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O83" s="3">
         <v>300</v>
@@ -4865,25 +5064,28 @@
         <v>300</v>
       </c>
       <c r="Q83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R83" s="3">
         <v>400</v>
       </c>
       <c r="S83" s="3">
+        <v>400</v>
+      </c>
+      <c r="T83" s="3">
         <v>500</v>
-      </c>
-      <c r="T83" s="3">
-        <v>400</v>
       </c>
       <c r="U83" s="3">
         <v>400</v>
       </c>
       <c r="V83" s="3">
+        <v>400</v>
+      </c>
+      <c r="W83" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>600</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
       <c r="J89" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K89" s="3">
         <v>500</v>
       </c>
       <c r="L89" s="3">
+        <v>500</v>
+      </c>
+      <c r="M89" s="3">
         <v>600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>300</v>
-      </c>
-      <c r="O89" s="3">
-        <v>600</v>
       </c>
       <c r="P89" s="3">
         <v>600</v>
       </c>
       <c r="Q89" s="3">
+        <v>600</v>
+      </c>
+      <c r="R89" s="3">
         <v>400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,29 +5498,30 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -5323,25 +5544,28 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
-        <v>100</v>
-      </c>
       <c r="S91" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="T91" s="3">
         <v>-100</v>
       </c>
       <c r="U91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,55 +5691,58 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7300</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-200</v>
       </c>
       <c r="K94" s="3">
         <v>-200</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-100</v>
       </c>
       <c r="S94" s="3">
         <v>-100</v>
@@ -5521,13 +5751,16 @@
         <v>-100</v>
       </c>
       <c r="U94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V94" s="3">
         <v>-3800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5574,7 +5808,7 @@
         <v>-600</v>
       </c>
       <c r="J96" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="K96" s="3">
         <v>-500</v>
@@ -5610,10 +5844,13 @@
         <v>-500</v>
       </c>
       <c r="V96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,46 +6041,49 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-700</v>
+        <v>5400</v>
       </c>
       <c r="E100" s="3">
         <v>-700</v>
       </c>
       <c r="F100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G100" s="3">
         <v>-500</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-700</v>
       </c>
       <c r="H100" s="3">
         <v>-700</v>
       </c>
       <c r="I100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J100" s="3">
         <v>10100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-600</v>
       </c>
       <c r="L100" s="3">
         <v>-600</v>
       </c>
       <c r="M100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N100" s="3">
         <v>-1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-600</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-500</v>
       </c>
       <c r="P100" s="3">
         <v>-500</v>
@@ -5858,10 +6104,13 @@
         <v>-500</v>
       </c>
       <c r="V100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W100" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2900</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
         <v>-300</v>
       </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-4100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>7000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SELF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SELF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>SELF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,117 +665,121 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E8" s="3">
         <v>2600</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2400</v>
       </c>
       <c r="F8" s="3">
         <v>2400</v>
       </c>
       <c r="G8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H8" s="3">
         <v>2300</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2200</v>
       </c>
       <c r="I8" s="3">
         <v>2200</v>
@@ -787,7 +791,7 @@
         <v>2200</v>
       </c>
       <c r="L8" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="M8" s="3">
         <v>2100</v>
@@ -799,31 +803,34 @@
         <v>2100</v>
       </c>
       <c r="P8" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="Q8" s="3">
         <v>2000</v>
       </c>
       <c r="R8" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="S8" s="3">
         <v>1900</v>
       </c>
       <c r="T8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U8" s="3">
         <v>1800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -831,10 +838,10 @@
         <v>900</v>
       </c>
       <c r="E9" s="3">
+        <v>900</v>
+      </c>
+      <c r="F9" s="3">
         <v>1000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>900</v>
       </c>
       <c r="G9" s="3">
         <v>900</v>
@@ -858,7 +865,7 @@
         <v>900</v>
       </c>
       <c r="N9" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="O9" s="3">
         <v>800</v>
@@ -870,13 +877,13 @@
         <v>800</v>
       </c>
       <c r="R9" s="3">
+        <v>800</v>
+      </c>
+      <c r="S9" s="3">
         <v>1000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>800</v>
-      </c>
-      <c r="T9" s="3">
-        <v>700</v>
       </c>
       <c r="U9" s="3">
         <v>700</v>
@@ -885,27 +892,30 @@
         <v>700</v>
       </c>
       <c r="W9" s="3">
+        <v>700</v>
+      </c>
+      <c r="X9" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E10" s="3">
         <v>1700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1400</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1300</v>
       </c>
       <c r="I10" s="3">
         <v>1300</v>
@@ -917,43 +927,46 @@
         <v>1300</v>
       </c>
       <c r="L10" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="M10" s="3">
         <v>1200</v>
       </c>
       <c r="N10" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="O10" s="3">
         <v>1300</v>
       </c>
       <c r="P10" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="Q10" s="3">
         <v>1200</v>
       </c>
       <c r="R10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S10" s="3">
         <v>900</v>
-      </c>
-      <c r="S10" s="3">
-        <v>1100</v>
       </c>
       <c r="T10" s="3">
         <v>1100</v>
       </c>
       <c r="U10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V10" s="3">
         <v>1000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,20 +1124,23 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1134,20 +1154,20 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1167,13 +1187,16 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>100</v>
+      </c>
+      <c r="X14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,7 +1207,7 @@
         <v>400</v>
       </c>
       <c r="F15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G15" s="3">
         <v>500</v>
@@ -1196,7 +1219,7 @@
         <v>500</v>
       </c>
       <c r="J15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K15" s="3">
         <v>400</v>
@@ -1211,7 +1234,7 @@
         <v>400</v>
       </c>
       <c r="O15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P15" s="3">
         <v>300</v>
@@ -1220,25 +1243,28 @@
         <v>300</v>
       </c>
       <c r="R15" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S15" s="3">
         <v>400</v>
       </c>
       <c r="T15" s="3">
+        <v>400</v>
+      </c>
+      <c r="U15" s="3">
         <v>500</v>
-      </c>
-      <c r="U15" s="3">
-        <v>400</v>
       </c>
       <c r="V15" s="3">
         <v>400</v>
       </c>
       <c r="W15" s="3">
+        <v>400</v>
+      </c>
+      <c r="X15" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1268,22 +1295,22 @@
         <v>1900</v>
       </c>
       <c r="E17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F17" s="3">
         <v>2000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2000</v>
       </c>
       <c r="H17" s="3">
         <v>2000</v>
       </c>
       <c r="I17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J17" s="3">
         <v>2100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1800</v>
       </c>
       <c r="K17" s="3">
         <v>1800</v>
@@ -1298,63 +1325,66 @@
         <v>1800</v>
       </c>
       <c r="O17" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="P17" s="3">
         <v>1600</v>
       </c>
       <c r="Q17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R17" s="3">
         <v>1700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1900</v>
-      </c>
-      <c r="T17" s="3">
-        <v>1600</v>
       </c>
       <c r="U17" s="3">
         <v>1600</v>
       </c>
       <c r="V17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W17" s="3">
         <v>1400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>800</v>
+      </c>
+      <c r="E18" s="3">
         <v>700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
       <c r="J18" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K18" s="3">
         <v>400</v>
       </c>
       <c r="L18" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M18" s="3">
         <v>300</v>
@@ -1363,34 +1393,37 @@
         <v>300</v>
       </c>
       <c r="O18" s="3">
+        <v>300</v>
+      </c>
+      <c r="P18" s="3">
         <v>500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>300</v>
       </c>
-      <c r="R18" s="3">
-        <v>100</v>
-      </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>200</v>
       </c>
-      <c r="U18" s="3">
-        <v>100</v>
-      </c>
       <c r="V18" s="3">
+        <v>100</v>
+      </c>
+      <c r="W18" s="3">
         <v>200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,55 +1447,56 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
-        <v>100</v>
-      </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
       <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-200</v>
       </c>
       <c r="S20" s="3">
         <v>-200</v>
@@ -1474,21 +1508,24 @@
         <v>-200</v>
       </c>
       <c r="V20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W20" s="3">
         <v>400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E21" s="3">
         <v>1600</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1100</v>
       </c>
       <c r="F21" s="3">
         <v>1100</v>
@@ -1497,55 +1534,58 @@
         <v>1100</v>
       </c>
       <c r="H21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I21" s="3">
         <v>800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>800</v>
-      </c>
-      <c r="N21" s="3">
-        <v>700</v>
       </c>
       <c r="O21" s="3">
         <v>700</v>
       </c>
       <c r="P21" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q21" s="3">
         <v>1000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>600</v>
-      </c>
-      <c r="R21" s="3">
-        <v>300</v>
       </c>
       <c r="S21" s="3">
         <v>300</v>
       </c>
       <c r="T21" s="3">
+        <v>300</v>
+      </c>
+      <c r="U21" s="3">
         <v>500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1580,7 +1620,7 @@
         <v>300</v>
       </c>
       <c r="N22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
@@ -1591,8 +1631,8 @@
       <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
+      <c r="R22" s="3">
+        <v>200</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>600</v>
+      </c>
+      <c r="E23" s="3">
         <v>900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>400</v>
-      </c>
-      <c r="F23" s="3">
-        <v>300</v>
       </c>
       <c r="G23" s="3">
         <v>300</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
       <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
       <c r="O23" s="3">
         <v>100</v>
       </c>
       <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>400</v>
       </c>
-      <c r="Q23" s="3">
-        <v>100</v>
-      </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>600</v>
+      </c>
+      <c r="E26" s="3">
         <v>900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>400</v>
-      </c>
-      <c r="F26" s="3">
-        <v>300</v>
       </c>
       <c r="G26" s="3">
         <v>300</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
       <c r="O26" s="3">
         <v>100</v>
       </c>
       <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="Q26" s="3">
-        <v>100</v>
-      </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
         <v>900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>400</v>
-      </c>
-      <c r="F27" s="3">
-        <v>300</v>
       </c>
       <c r="G27" s="3">
         <v>300</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
       <c r="O27" s="3">
         <v>100</v>
       </c>
       <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="Q27" s="3">
-        <v>100</v>
-      </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,55 +2261,58 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
       </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
       </c>
       <c r="M32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>100</v>
-      </c>
       <c r="R32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
         <v>200</v>
@@ -2254,78 +2324,84 @@
         <v>200</v>
       </c>
       <c r="V32" s="3">
+        <v>200</v>
+      </c>
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
-      <c r="W32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
         <v>900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>300</v>
       </c>
       <c r="G33" s="3">
         <v>300</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
       <c r="O33" s="3">
         <v>100</v>
       </c>
       <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="Q33" s="3">
-        <v>100</v>
-      </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
         <v>900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>300</v>
       </c>
       <c r="G35" s="3">
         <v>300</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
       <c r="O35" s="3">
         <v>100</v>
       </c>
       <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="Q35" s="3">
-        <v>100</v>
-      </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E41" s="3">
         <v>8200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1500</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1600</v>
       </c>
       <c r="G41" s="3">
         <v>1600</v>
       </c>
       <c r="H41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I41" s="3">
         <v>2400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4000</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1100</v>
       </c>
       <c r="L41" s="3">
         <v>1100</v>
       </c>
       <c r="M41" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="N41" s="3">
         <v>1500</v>
       </c>
       <c r="O41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P41" s="3">
         <v>1900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2200</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>2100</v>
       </c>
       <c r="R41" s="3">
         <v>2100</v>
       </c>
       <c r="S41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="T41" s="3">
         <v>2500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2800</v>
-      </c>
-      <c r="U41" s="3">
-        <v>2900</v>
       </c>
       <c r="V41" s="3">
         <v>2900</v>
       </c>
       <c r="W41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="X41" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2728,11 +2821,11 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
@@ -2764,13 +2857,16 @@
         <v>100</v>
       </c>
       <c r="V43" s="3">
+        <v>100</v>
+      </c>
+      <c r="W43" s="3">
         <v>200</v>
       </c>
-      <c r="W43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,37 +2930,40 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
-      </c>
-      <c r="H45" s="3">
-        <v>400</v>
       </c>
       <c r="I45" s="3">
         <v>400</v>
       </c>
       <c r="J45" s="3">
+        <v>400</v>
+      </c>
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
-      </c>
-      <c r="L45" s="3">
-        <v>300</v>
       </c>
       <c r="M45" s="3">
         <v>300</v>
@@ -2873,34 +2972,37 @@
         <v>300</v>
       </c>
       <c r="O45" s="3">
+        <v>300</v>
+      </c>
+      <c r="P45" s="3">
         <v>400</v>
-      </c>
-      <c r="P45" s="3">
-        <v>300</v>
       </c>
       <c r="Q45" s="3">
         <v>300</v>
       </c>
       <c r="R45" s="3">
+        <v>300</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>300</v>
-      </c>
-      <c r="T45" s="3">
-        <v>200</v>
       </c>
       <c r="U45" s="3">
         <v>200</v>
       </c>
       <c r="V45" s="3">
+        <v>200</v>
+      </c>
+      <c r="W45" s="3">
         <v>300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,138 +3066,147 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E47" s="3">
         <v>2600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1500</v>
-      </c>
-      <c r="T47" s="3">
-        <v>1400</v>
       </c>
       <c r="U47" s="3">
         <v>1400</v>
       </c>
       <c r="V47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W47" s="3">
         <v>1500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E48" s="3">
         <v>59100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>59400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>59800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>60200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>60100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>60200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>59800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>53200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>53400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>53500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>53800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>54100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>54400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>54700</v>
-      </c>
-      <c r="R48" s="3">
-        <v>55000</v>
       </c>
       <c r="S48" s="3">
         <v>55000</v>
       </c>
       <c r="T48" s="3">
+        <v>55000</v>
+      </c>
+      <c r="U48" s="3">
         <v>55300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>55500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>55800</v>
       </c>
-      <c r="W48" s="3" t="s">
+      <c r="X48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3112,16 +3223,16 @@
         <v>700</v>
       </c>
       <c r="H49" s="3">
+        <v>700</v>
+      </c>
+      <c r="I49" s="3">
         <v>900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1100</v>
-      </c>
-      <c r="K49" s="3">
-        <v>700</v>
       </c>
       <c r="L49" s="3">
         <v>700</v>
@@ -3148,19 +3259,22 @@
         <v>700</v>
       </c>
       <c r="T49" s="3">
+        <v>700</v>
+      </c>
+      <c r="U49" s="3">
         <v>800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,16 +3406,19 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>500</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
-      </c>
-      <c r="E52" s="3">
-        <v>500</v>
       </c>
       <c r="F52" s="3">
         <v>500</v>
@@ -3310,7 +3430,7 @@
         <v>500</v>
       </c>
       <c r="I52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J52" s="3">
         <v>600</v>
@@ -3325,14 +3445,14 @@
         <v>600</v>
       </c>
       <c r="N52" s="3">
+        <v>600</v>
+      </c>
+      <c r="O52" s="3">
         <v>700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>200</v>
       </c>
-      <c r="P52" s="3">
-        <v>100</v>
-      </c>
       <c r="Q52" s="3">
         <v>100</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>65800</v>
+      </c>
+      <c r="E54" s="3">
         <v>71400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>64700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>64900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>65500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>66000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>66800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>67700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>58100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>58000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>58400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>58600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>58900</v>
-      </c>
-      <c r="P54" s="3">
-        <v>59600</v>
       </c>
       <c r="Q54" s="3">
         <v>59600</v>
       </c>
       <c r="R54" s="3">
+        <v>59600</v>
+      </c>
+      <c r="S54" s="3">
         <v>59900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>60200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>60700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>61200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>61600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>60600</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3664,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>2300</v>
       </c>
       <c r="M57" s="3">
         <v>2300</v>
       </c>
       <c r="N57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O57" s="3">
         <v>2100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1900</v>
-      </c>
-      <c r="P57" s="3">
-        <v>2100</v>
       </c>
       <c r="Q57" s="3">
         <v>2100</v>
       </c>
       <c r="R57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S57" s="3">
         <v>2000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1900</v>
-      </c>
-      <c r="T57" s="3">
-        <v>1800</v>
       </c>
       <c r="U57" s="3">
         <v>1800</v>
       </c>
       <c r="V57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W57" s="3">
         <v>1700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3690,8 +3827,8 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>8</v>
@@ -3705,8 +3842,8 @@
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3729,8 +3866,11 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,46 +3934,49 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E61" s="3">
         <v>23300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>23400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>23500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>23600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>23500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>23600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>23800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>19200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19300</v>
-      </c>
-      <c r="O61" s="3">
-        <v>19400</v>
       </c>
       <c r="P61" s="3">
         <v>19400</v>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>19400</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>19400</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E66" s="3">
         <v>25000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>24800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>24900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>25200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>25400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>25700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>25600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>21400</v>
       </c>
       <c r="N66" s="3">
         <v>21400</v>
       </c>
       <c r="O66" s="3">
+        <v>21400</v>
+      </c>
+      <c r="P66" s="3">
         <v>21300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>21600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>21500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>21400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>21300</v>
-      </c>
-      <c r="T66" s="3">
-        <v>21200</v>
       </c>
       <c r="U66" s="3">
         <v>21200</v>
       </c>
       <c r="V66" s="3">
+        <v>21200</v>
+      </c>
+      <c r="W66" s="3">
         <v>21100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>20300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,8 +4640,11 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4478,64 +4652,67 @@
         <v>-500</v>
       </c>
       <c r="E72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-200</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
       <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
         <v>700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E76" s="3">
         <v>46400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>39900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>40000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>40300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>40500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>41100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>42100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>36400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>36600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>36900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>37200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>37600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>38000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>38100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>38500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>38900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>39500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>40000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>40600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
         <v>900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>300</v>
       </c>
       <c r="G81" s="3">
         <v>300</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
       <c r="O81" s="3">
         <v>100</v>
       </c>
       <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="Q81" s="3">
-        <v>100</v>
-      </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5031,7 +5230,7 @@
         <v>400</v>
       </c>
       <c r="F83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>500</v>
@@ -5043,7 +5242,7 @@
         <v>500</v>
       </c>
       <c r="J83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K83" s="3">
         <v>400</v>
@@ -5058,7 +5257,7 @@
         <v>400</v>
       </c>
       <c r="O83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P83" s="3">
         <v>300</v>
@@ -5067,25 +5266,28 @@
         <v>300</v>
       </c>
       <c r="R83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S83" s="3">
         <v>400</v>
       </c>
       <c r="T83" s="3">
+        <v>400</v>
+      </c>
+      <c r="U83" s="3">
         <v>500</v>
-      </c>
-      <c r="U83" s="3">
-        <v>400</v>
       </c>
       <c r="V83" s="3">
         <v>400</v>
       </c>
       <c r="W83" s="3">
+        <v>400</v>
+      </c>
+      <c r="X83" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>600</v>
+      </c>
+      <c r="E89" s="3">
         <v>1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>600</v>
       </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
       <c r="K89" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L89" s="3">
         <v>500</v>
       </c>
       <c r="M89" s="3">
+        <v>500</v>
+      </c>
+      <c r="N89" s="3">
         <v>600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>300</v>
-      </c>
-      <c r="P89" s="3">
-        <v>600</v>
       </c>
       <c r="Q89" s="3">
         <v>600</v>
       </c>
       <c r="R89" s="3">
+        <v>600</v>
+      </c>
+      <c r="S89" s="3">
         <v>400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5508,23 +5729,23 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -5547,25 +5768,28 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
-        <v>100</v>
-      </c>
       <c r="T91" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="U91" s="3">
         <v>-100</v>
       </c>
       <c r="V91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5703,49 +5933,49 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7300</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-200</v>
       </c>
       <c r="L94" s="3">
         <v>-200</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-300</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-100</v>
       </c>
       <c r="T94" s="3">
         <v>-100</v>
@@ -5754,13 +5984,16 @@
         <v>-100</v>
       </c>
       <c r="V94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W94" s="3">
         <v>-3800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,13 +6017,14 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="E96" s="3">
         <v>-600</v>
@@ -5811,7 +6045,7 @@
         <v>-600</v>
       </c>
       <c r="K96" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="L96" s="3">
         <v>-500</v>
@@ -5847,10 +6081,13 @@
         <v>-500</v>
       </c>
       <c r="W96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,49 +6287,52 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E100" s="3">
         <v>5400</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-700</v>
       </c>
       <c r="F100" s="3">
         <v>-700</v>
       </c>
       <c r="G100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H100" s="3">
         <v>-500</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-700</v>
       </c>
       <c r="I100" s="3">
         <v>-700</v>
       </c>
       <c r="J100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K100" s="3">
         <v>10100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-600</v>
       </c>
       <c r="M100" s="3">
         <v>-600</v>
       </c>
       <c r="N100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-600</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-500</v>
       </c>
       <c r="Q100" s="3">
         <v>-500</v>
@@ -6107,10 +6353,13 @@
         <v>-500</v>
       </c>
       <c r="W100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X100" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E102" s="3">
         <v>6500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2900</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>-300</v>
       </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-4100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>7000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SELF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SELF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>SELF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,127 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E8" s="3">
         <v>2700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2600</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2400</v>
       </c>
       <c r="G8" s="3">
         <v>2400</v>
       </c>
       <c r="H8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I8" s="3">
         <v>2300</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2200</v>
       </c>
       <c r="J8" s="3">
         <v>2200</v>
@@ -794,7 +797,7 @@
         <v>2200</v>
       </c>
       <c r="M8" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="N8" s="3">
         <v>2100</v>
@@ -806,31 +809,34 @@
         <v>2100</v>
       </c>
       <c r="Q8" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="R8" s="3">
         <v>2000</v>
       </c>
       <c r="S8" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="T8" s="3">
         <v>1900</v>
       </c>
       <c r="U8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="V8" s="3">
         <v>1800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -841,10 +847,10 @@
         <v>900</v>
       </c>
       <c r="F9" s="3">
+        <v>900</v>
+      </c>
+      <c r="G9" s="3">
         <v>1000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>900</v>
       </c>
       <c r="H9" s="3">
         <v>900</v>
@@ -868,7 +874,7 @@
         <v>900</v>
       </c>
       <c r="O9" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="P9" s="3">
         <v>800</v>
@@ -880,13 +886,13 @@
         <v>800</v>
       </c>
       <c r="S9" s="3">
+        <v>800</v>
+      </c>
+      <c r="T9" s="3">
         <v>1000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>800</v>
-      </c>
-      <c r="U9" s="3">
-        <v>700</v>
       </c>
       <c r="V9" s="3">
         <v>700</v>
@@ -895,30 +901,33 @@
         <v>700</v>
       </c>
       <c r="X9" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y9" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E10" s="3">
         <v>1800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1400</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1300</v>
       </c>
       <c r="J10" s="3">
         <v>1300</v>
@@ -930,43 +939,46 @@
         <v>1300</v>
       </c>
       <c r="M10" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="N10" s="3">
         <v>1200</v>
       </c>
       <c r="O10" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="P10" s="3">
         <v>1300</v>
       </c>
       <c r="Q10" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="R10" s="3">
         <v>1200</v>
       </c>
       <c r="S10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T10" s="3">
         <v>900</v>
-      </c>
-      <c r="T10" s="3">
-        <v>1100</v>
       </c>
       <c r="U10" s="3">
         <v>1100</v>
       </c>
       <c r="V10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W10" s="3">
         <v>1000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1138,12 +1157,12 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1157,20 +1176,20 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1190,13 +1209,16 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1210,7 +1232,7 @@
         <v>400</v>
       </c>
       <c r="G15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H15" s="3">
         <v>500</v>
@@ -1222,7 +1244,7 @@
         <v>500</v>
       </c>
       <c r="K15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L15" s="3">
         <v>400</v>
@@ -1237,7 +1259,7 @@
         <v>400</v>
       </c>
       <c r="P15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q15" s="3">
         <v>300</v>
@@ -1246,25 +1268,28 @@
         <v>300</v>
       </c>
       <c r="S15" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T15" s="3">
         <v>400</v>
       </c>
       <c r="U15" s="3">
+        <v>400</v>
+      </c>
+      <c r="V15" s="3">
         <v>500</v>
-      </c>
-      <c r="V15" s="3">
-        <v>400</v>
       </c>
       <c r="W15" s="3">
         <v>400</v>
       </c>
       <c r="X15" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y15" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,34 +1311,35 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E17" s="3">
         <v>1900</v>
       </c>
       <c r="F17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G17" s="3">
         <v>2000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1900</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2000</v>
       </c>
       <c r="I17" s="3">
         <v>2000</v>
       </c>
       <c r="J17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K17" s="3">
         <v>2100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1800</v>
       </c>
       <c r="L17" s="3">
         <v>1800</v>
@@ -1328,34 +1354,37 @@
         <v>1800</v>
       </c>
       <c r="P17" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="Q17" s="3">
         <v>1600</v>
       </c>
       <c r="R17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S17" s="3">
         <v>1700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1900</v>
-      </c>
-      <c r="U17" s="3">
-        <v>1600</v>
       </c>
       <c r="V17" s="3">
         <v>1600</v>
       </c>
       <c r="W17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="X17" s="3">
         <v>1400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,31 +1392,31 @@
         <v>800</v>
       </c>
       <c r="E18" s="3">
+        <v>800</v>
+      </c>
+      <c r="F18" s="3">
         <v>700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>400</v>
       </c>
       <c r="L18" s="3">
         <v>400</v>
       </c>
       <c r="M18" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N18" s="3">
         <v>300</v>
@@ -1396,34 +1425,37 @@
         <v>300</v>
       </c>
       <c r="P18" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q18" s="3">
         <v>500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,58 +1480,59 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>-100</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-200</v>
       </c>
       <c r="T20" s="3">
         <v>-200</v>
@@ -1511,24 +1544,27 @@
         <v>-200</v>
       </c>
       <c r="W20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X20" s="3">
         <v>400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1600</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1100</v>
       </c>
       <c r="G21" s="3">
         <v>1100</v>
@@ -1537,60 +1573,63 @@
         <v>1100</v>
       </c>
       <c r="I21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J21" s="3">
         <v>800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>800</v>
-      </c>
-      <c r="O21" s="3">
-        <v>700</v>
       </c>
       <c r="P21" s="3">
         <v>700</v>
       </c>
       <c r="Q21" s="3">
+        <v>700</v>
+      </c>
+      <c r="R21" s="3">
         <v>1000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>600</v>
-      </c>
-      <c r="S21" s="3">
-        <v>300</v>
       </c>
       <c r="T21" s="3">
         <v>300</v>
       </c>
       <c r="U21" s="3">
+        <v>300</v>
+      </c>
+      <c r="V21" s="3">
         <v>500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>300</v>
@@ -1623,7 +1662,7 @@
         <v>300</v>
       </c>
       <c r="O22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P22" s="3">
         <v>200</v>
@@ -1634,8 +1673,8 @@
       <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
+      <c r="S22" s="3">
+        <v>200</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>8</v>
@@ -1652,76 +1691,82 @@
       <c r="X22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>300</v>
       </c>
       <c r="H23" s="3">
         <v>300</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>100</v>
       </c>
       <c r="P23" s="3">
         <v>100</v>
       </c>
       <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
         <v>400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
         <v>0</v>
       </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>400</v>
-      </c>
-      <c r="G26" s="3">
-        <v>300</v>
       </c>
       <c r="H26" s="3">
         <v>300</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>100</v>
       </c>
       <c r="P26" s="3">
         <v>100</v>
       </c>
       <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
         <v>0</v>
       </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E27" s="3">
         <v>600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>300</v>
       </c>
       <c r="H27" s="3">
         <v>300</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>100</v>
       </c>
       <c r="P27" s="3">
         <v>100</v>
       </c>
       <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
         <v>0</v>
       </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,58 +2330,61 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>100</v>
       </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
-      </c>
-      <c r="S32" s="3">
-        <v>200</v>
       </c>
       <c r="T32" s="3">
         <v>200</v>
@@ -2327,81 +2396,87 @@
         <v>200</v>
       </c>
       <c r="W32" s="3">
+        <v>200</v>
+      </c>
+      <c r="X32" s="3">
         <v>-400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>300</v>
       </c>
       <c r="H33" s="3">
         <v>300</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>100</v>
       </c>
       <c r="P33" s="3">
         <v>100</v>
       </c>
       <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
         <v>400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>300</v>
       </c>
       <c r="H35" s="3">
         <v>300</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>100</v>
       </c>
       <c r="P35" s="3">
         <v>100</v>
       </c>
       <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
         <v>400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E41" s="3">
         <v>2500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1500</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1600</v>
       </c>
       <c r="H41" s="3">
         <v>1600</v>
       </c>
       <c r="I41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J41" s="3">
         <v>2400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4000</v>
-      </c>
-      <c r="L41" s="3">
-        <v>1100</v>
       </c>
       <c r="M41" s="3">
         <v>1100</v>
       </c>
       <c r="N41" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="O41" s="3">
         <v>1500</v>
       </c>
       <c r="P41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2200</v>
-      </c>
-      <c r="R41" s="3">
-        <v>2100</v>
       </c>
       <c r="S41" s="3">
         <v>2100</v>
       </c>
       <c r="T41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U41" s="3">
         <v>2500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2800</v>
-      </c>
-      <c r="V41" s="3">
-        <v>2900</v>
       </c>
       <c r="W41" s="3">
         <v>2900</v>
       </c>
       <c r="X41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Y41" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2824,10 +2916,10 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
-      </c>
-      <c r="L43" s="3">
-        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
@@ -2860,13 +2952,16 @@
         <v>100</v>
       </c>
       <c r="W43" s="3">
+        <v>100</v>
+      </c>
+      <c r="X43" s="3">
         <v>200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2942,31 +3040,31 @@
         <v>500</v>
       </c>
       <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>400</v>
       </c>
       <c r="J45" s="3">
         <v>400</v>
       </c>
       <c r="K45" s="3">
+        <v>400</v>
+      </c>
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
-      </c>
-      <c r="M45" s="3">
-        <v>300</v>
       </c>
       <c r="N45" s="3">
         <v>300</v>
@@ -2975,34 +3073,37 @@
         <v>300</v>
       </c>
       <c r="P45" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q45" s="3">
         <v>400</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>300</v>
       </c>
       <c r="R45" s="3">
         <v>300</v>
       </c>
       <c r="S45" s="3">
+        <v>300</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>300</v>
-      </c>
-      <c r="U45" s="3">
-        <v>200</v>
       </c>
       <c r="V45" s="3">
         <v>200</v>
       </c>
       <c r="W45" s="3">
+        <v>200</v>
+      </c>
+      <c r="X45" s="3">
         <v>300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,144 +3170,153 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E47" s="3">
         <v>2700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1500</v>
-      </c>
-      <c r="U47" s="3">
-        <v>1400</v>
       </c>
       <c r="V47" s="3">
         <v>1400</v>
       </c>
       <c r="W47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X47" s="3">
         <v>1500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E48" s="3">
         <v>58800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>59100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>59400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>59800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>60200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>60100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>60200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>59800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>53200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>53400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>53500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>53800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>54100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>54400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>54700</v>
-      </c>
-      <c r="S48" s="3">
-        <v>55000</v>
       </c>
       <c r="T48" s="3">
         <v>55000</v>
       </c>
       <c r="U48" s="3">
+        <v>55000</v>
+      </c>
+      <c r="V48" s="3">
         <v>55300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>55500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>55800</v>
       </c>
-      <c r="X48" s="3" t="s">
+      <c r="Y48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3226,16 +3336,16 @@
         <v>700</v>
       </c>
       <c r="I49" s="3">
+        <v>700</v>
+      </c>
+      <c r="J49" s="3">
         <v>900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1100</v>
-      </c>
-      <c r="L49" s="3">
-        <v>700</v>
       </c>
       <c r="M49" s="3">
         <v>700</v>
@@ -3262,19 +3372,22 @@
         <v>700</v>
       </c>
       <c r="U49" s="3">
+        <v>700</v>
+      </c>
+      <c r="V49" s="3">
         <v>800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,19 +3525,22 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
         <v>500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>300</v>
-      </c>
-      <c r="F52" s="3">
-        <v>500</v>
       </c>
       <c r="G52" s="3">
         <v>500</v>
@@ -3433,7 +3552,7 @@
         <v>500</v>
       </c>
       <c r="J52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K52" s="3">
         <v>600</v>
@@ -3448,13 +3567,13 @@
         <v>600</v>
       </c>
       <c r="O52" s="3">
+        <v>600</v>
+      </c>
+      <c r="P52" s="3">
         <v>700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>200</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>100</v>
       </c>
       <c r="R52" s="3">
         <v>100</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>66500</v>
+      </c>
+      <c r="E54" s="3">
         <v>65800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>71400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>64700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>64900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>65500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>66000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>66800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>67700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>58100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>58000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>58400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>58600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>58900</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>59600</v>
       </c>
       <c r="R54" s="3">
         <v>59600</v>
       </c>
       <c r="S54" s="3">
+        <v>59600</v>
+      </c>
+      <c r="T54" s="3">
         <v>59900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>60200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>60700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>61200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>61600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>60600</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3794,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>2300</v>
       </c>
       <c r="N57" s="3">
         <v>2300</v>
       </c>
       <c r="O57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="P57" s="3">
         <v>2100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>2100</v>
       </c>
       <c r="R57" s="3">
         <v>2100</v>
       </c>
       <c r="S57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="T57" s="3">
         <v>2000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1900</v>
-      </c>
-      <c r="U57" s="3">
-        <v>1800</v>
       </c>
       <c r="V57" s="3">
         <v>1800</v>
       </c>
       <c r="W57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="X57" s="3">
         <v>1700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,8 +3934,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3830,8 +3966,8 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>8</v>
@@ -3845,8 +3981,8 @@
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3869,8 +4005,11 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,49 +4076,52 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E61" s="3">
         <v>18000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>23300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>23400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>23500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>23600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>23500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>23600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>23800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>19100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>19300</v>
-      </c>
-      <c r="P61" s="3">
-        <v>19400</v>
       </c>
       <c r="Q61" s="3">
         <v>19400</v>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>19400</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>19400</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E66" s="3">
         <v>19500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>25000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>24800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>24900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>25200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>25400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>25700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>21400</v>
       </c>
       <c r="O66" s="3">
         <v>21400</v>
       </c>
       <c r="P66" s="3">
+        <v>21400</v>
+      </c>
+      <c r="Q66" s="3">
         <v>21300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>21600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>21500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>21400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>21300</v>
-      </c>
-      <c r="U66" s="3">
-        <v>21200</v>
       </c>
       <c r="V66" s="3">
         <v>21200</v>
       </c>
       <c r="W66" s="3">
+        <v>21200</v>
+      </c>
+      <c r="X66" s="3">
         <v>21100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>20300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-500</v>
+        <v>200</v>
       </c>
       <c r="E72" s="3">
         <v>-500</v>
       </c>
       <c r="F72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G72" s="3">
         <v>-700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-200</v>
       </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
       <c r="J72" s="3">
+        <v>0</v>
+      </c>
+      <c r="K72" s="3">
         <v>700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E76" s="3">
         <v>46300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>46400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>39900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>40000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>40300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>40500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>41100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>42100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>36400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>36600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>36900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>37200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>37600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>38000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>38100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>38500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>38900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>39500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>40000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>40600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>300</v>
       </c>
       <c r="H81" s="3">
         <v>300</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>100</v>
       </c>
       <c r="P81" s="3">
         <v>100</v>
       </c>
       <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+      <c r="R81" s="3">
         <v>400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
         <v>0</v>
       </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5233,7 +5431,7 @@
         <v>400</v>
       </c>
       <c r="G83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>500</v>
@@ -5245,7 +5443,7 @@
         <v>500</v>
       </c>
       <c r="K83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L83" s="3">
         <v>400</v>
@@ -5260,7 +5458,7 @@
         <v>400</v>
       </c>
       <c r="P83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q83" s="3">
         <v>300</v>
@@ -5269,25 +5467,28 @@
         <v>300</v>
       </c>
       <c r="S83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T83" s="3">
         <v>400</v>
       </c>
       <c r="U83" s="3">
+        <v>400</v>
+      </c>
+      <c r="V83" s="3">
         <v>500</v>
-      </c>
-      <c r="V83" s="3">
-        <v>400</v>
       </c>
       <c r="W83" s="3">
         <v>400</v>
       </c>
       <c r="X83" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y83" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E89" s="3">
         <v>600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>500</v>
       </c>
       <c r="M89" s="3">
         <v>500</v>
       </c>
       <c r="N89" s="3">
+        <v>500</v>
+      </c>
+      <c r="O89" s="3">
         <v>600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>300</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>600</v>
       </c>
       <c r="R89" s="3">
         <v>600</v>
       </c>
       <c r="S89" s="3">
+        <v>600</v>
+      </c>
+      <c r="T89" s="3">
         <v>400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,35 +5939,36 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -5771,25 +5991,28 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>100</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-100</v>
       </c>
       <c r="V91" s="3">
         <v>-100</v>
       </c>
       <c r="W91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,61 +6150,64 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7300</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-200</v>
       </c>
       <c r="M94" s="3">
         <v>-200</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-300</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-100</v>
       </c>
       <c r="U94" s="3">
         <v>-100</v>
@@ -5987,13 +6216,16 @@
         <v>-100</v>
       </c>
       <c r="W94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X94" s="3">
         <v>-3800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6027,7 +6260,7 @@
         <v>-700</v>
       </c>
       <c r="E96" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="F96" s="3">
         <v>-600</v>
@@ -6048,7 +6281,7 @@
         <v>-600</v>
       </c>
       <c r="L96" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="M96" s="3">
         <v>-500</v>
@@ -6084,10 +6317,13 @@
         <v>-500</v>
       </c>
       <c r="X96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,52 +6532,55 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5400</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-700</v>
       </c>
       <c r="G100" s="3">
         <v>-700</v>
       </c>
       <c r="H100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I100" s="3">
         <v>-500</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-700</v>
       </c>
       <c r="J100" s="3">
         <v>-700</v>
       </c>
       <c r="K100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L100" s="3">
         <v>10100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-600</v>
       </c>
       <c r="N100" s="3">
         <v>-600</v>
       </c>
       <c r="O100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P100" s="3">
         <v>-1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-500</v>
       </c>
       <c r="R100" s="3">
         <v>-500</v>
@@ -6356,10 +6601,13 @@
         <v>-500</v>
       </c>
       <c r="X100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Y100" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2900</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
         <v>-300</v>
       </c>
       <c r="Q102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-4100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>7000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SELF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SELF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>SELF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,133 +665,141 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G8" s="3">
         <v>2700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2300</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2200</v>
       </c>
       <c r="L8" s="3">
         <v>2200</v>
@@ -800,10 +808,10 @@
         <v>2200</v>
       </c>
       <c r="N8" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="O8" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="P8" s="3">
         <v>2100</v>
@@ -812,51 +820,57 @@
         <v>2100</v>
       </c>
       <c r="R8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="T8" s="3">
         <v>2000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F9" s="3">
         <v>900</v>
       </c>
       <c r="G9" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H9" s="3">
         <v>900</v>
       </c>
       <c r="I9" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="J9" s="3">
         <v>900</v>
@@ -877,10 +891,10 @@
         <v>900</v>
       </c>
       <c r="P9" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="Q9" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="R9" s="3">
         <v>800</v>
@@ -889,51 +903,57 @@
         <v>800</v>
       </c>
       <c r="T9" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="U9" s="3">
         <v>800</v>
       </c>
       <c r="V9" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="W9" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="X9" s="3">
         <v>700</v>
       </c>
       <c r="Y9" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA9" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F10" s="3">
         <v>1900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1700</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1500</v>
       </c>
       <c r="I10" s="3">
         <v>1400</v>
       </c>
       <c r="J10" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="K10" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L10" s="3">
         <v>1300</v>
@@ -942,43 +962,49 @@
         <v>1300</v>
       </c>
       <c r="N10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P10" s="3">
         <v>1200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,13 +1180,19 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1160,15 +1200,15 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1179,23 +1219,23 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1212,13 +1252,19 @@
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1235,10 +1281,10 @@
         <v>400</v>
       </c>
       <c r="H15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J15" s="3">
         <v>500</v>
@@ -1247,10 +1293,10 @@
         <v>500</v>
       </c>
       <c r="L15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N15" s="3">
         <v>400</v>
@@ -1262,34 +1308,40 @@
         <v>400</v>
       </c>
       <c r="Q15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S15" s="3">
         <v>300</v>
       </c>
       <c r="T15" s="3">
+        <v>300</v>
+      </c>
+      <c r="U15" s="3">
+        <v>300</v>
+      </c>
+      <c r="V15" s="3">
         <v>400</v>
-      </c>
-      <c r="U15" s="3">
-        <v>400</v>
-      </c>
-      <c r="V15" s="3">
-        <v>500</v>
       </c>
       <c r="W15" s="3">
         <v>400</v>
       </c>
       <c r="X15" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y15" s="3">
         <v>400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA15" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,22 +1364,24 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F17" s="3">
         <v>2000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2000</v>
       </c>
       <c r="H17" s="3">
         <v>1900</v>
@@ -1336,16 +1390,16 @@
         <v>2000</v>
       </c>
       <c r="J17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M17" s="3">
         <v>2100</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1800</v>
       </c>
       <c r="N17" s="3">
         <v>1800</v>
@@ -1357,105 +1411,117 @@
         <v>1800</v>
       </c>
       <c r="Q17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S17" s="3">
         <v>1600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>700</v>
+      </c>
+      <c r="F18" s="3">
         <v>800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>300</v>
       </c>
       <c r="P18" s="3">
         <v>300</v>
       </c>
       <c r="Q18" s="3">
+        <v>300</v>
+      </c>
+      <c r="R18" s="3">
+        <v>300</v>
+      </c>
+      <c r="S18" s="3">
         <v>500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>100</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
-        <v>200</v>
-      </c>
       <c r="W18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X18" s="3">
         <v>200</v>
       </c>
       <c r="Y18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,64 +1547,66 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
-      </c>
-      <c r="G20" s="3">
-        <v>300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>300</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>300</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-200</v>
       </c>
       <c r="V20" s="3">
         <v>-200</v>
@@ -1547,84 +1615,96 @@
         <v>-200</v>
       </c>
       <c r="X20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z20" s="3">
         <v>400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>900</v>
+      </c>
+      <c r="F21" s="3">
         <v>2000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1100</v>
       </c>
       <c r="I21" s="3">
         <v>1100</v>
       </c>
       <c r="J21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L21" s="3">
         <v>800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>500</v>
-      </c>
-      <c r="L21" s="3">
-        <v>700</v>
-      </c>
-      <c r="M21" s="3">
-        <v>900</v>
       </c>
       <c r="N21" s="3">
         <v>700</v>
       </c>
       <c r="O21" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="P21" s="3">
         <v>700</v>
       </c>
       <c r="Q21" s="3">
+        <v>800</v>
+      </c>
+      <c r="R21" s="3">
         <v>700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
+        <v>700</v>
+      </c>
+      <c r="T21" s="3">
         <v>1000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>500</v>
-      </c>
-      <c r="W21" s="3">
-        <v>400</v>
-      </c>
-      <c r="X21" s="3">
-        <v>900</v>
       </c>
       <c r="Y21" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <v>900</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1632,10 +1712,10 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
@@ -1665,10 +1745,10 @@
         <v>300</v>
       </c>
       <c r="P22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R22" s="3">
         <v>200</v>
@@ -1676,11 +1756,11 @@
       <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>8</v>
+      <c r="T22" s="3">
+        <v>200</v>
+      </c>
+      <c r="U22" s="3">
+        <v>200</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>8</v>
@@ -1694,43 +1774,49 @@
       <c r="Y22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>300</v>
+      </c>
+      <c r="F23" s="3">
         <v>1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>200</v>
-      </c>
       <c r="N23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>200</v>
@@ -1739,34 +1825,40 @@
         <v>100</v>
       </c>
       <c r="Q23" s="3">
+        <v>200</v>
+      </c>
+      <c r="R23" s="3">
         <v>100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>400</v>
       </c>
       <c r="S23" s="3">
         <v>100</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="U23" s="3">
+        <v>100</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,43 +2005,49 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>300</v>
+      </c>
+      <c r="F26" s="3">
         <v>1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>200</v>
-      </c>
       <c r="N26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>200</v>
@@ -1952,69 +2056,75 @@
         <v>100</v>
       </c>
       <c r="Q26" s="3">
+        <v>200</v>
+      </c>
+      <c r="R26" s="3">
         <v>100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>400</v>
       </c>
       <c r="S26" s="3">
         <v>100</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="U26" s="3">
+        <v>100</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>300</v>
+      </c>
+      <c r="F27" s="3">
         <v>1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>200</v>
-      </c>
       <c r="N27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>200</v>
@@ -2023,34 +2133,40 @@
         <v>100</v>
       </c>
       <c r="Q27" s="3">
+        <v>200</v>
+      </c>
+      <c r="R27" s="3">
         <v>100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>400</v>
       </c>
       <c r="S27" s="3">
         <v>100</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="U27" s="3">
+        <v>100</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,64 +2467,70 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-300</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
-      </c>
-      <c r="T32" s="3">
-        <v>200</v>
-      </c>
-      <c r="U32" s="3">
-        <v>200</v>
       </c>
       <c r="V32" s="3">
         <v>200</v>
@@ -2399,48 +2539,54 @@
         <v>200</v>
       </c>
       <c r="X32" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>300</v>
+      </c>
+      <c r="F33" s="3">
         <v>1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>200</v>
-      </c>
       <c r="N33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>200</v>
@@ -2449,34 +2595,40 @@
         <v>100</v>
       </c>
       <c r="Q33" s="3">
+        <v>200</v>
+      </c>
+      <c r="R33" s="3">
         <v>100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>400</v>
       </c>
       <c r="S33" s="3">
         <v>100</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="U33" s="3">
+        <v>100</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,43 +2698,49 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>300</v>
+      </c>
+      <c r="F35" s="3">
         <v>1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>200</v>
-      </c>
       <c r="N35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>200</v>
@@ -2591,110 +2749,122 @@
         <v>100</v>
       </c>
       <c r="Q35" s="3">
+        <v>200</v>
+      </c>
+      <c r="R35" s="3">
         <v>100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>400</v>
       </c>
       <c r="S35" s="3">
         <v>100</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="U35" s="3">
+        <v>100</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2919,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F41" s="3">
         <v>2900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>8200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>2500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>2800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>2900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>2900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +3069,14 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2919,13 +3105,13 @@
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
@@ -2955,13 +3141,19 @@
         <v>100</v>
       </c>
       <c r="X43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,61 +3223,67 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
         <v>500</v>
       </c>
       <c r="F45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
       </c>
       <c r="I45" s="3">
+        <v>400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>300</v>
+      </c>
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
-      </c>
-      <c r="L45" s="3">
-        <v>300</v>
-      </c>
-      <c r="M45" s="3">
-        <v>500</v>
       </c>
       <c r="N45" s="3">
         <v>300</v>
       </c>
       <c r="O45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="P45" s="3">
         <v>300</v>
       </c>
       <c r="Q45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R45" s="3">
         <v>300</v>
       </c>
       <c r="S45" s="3">
+        <v>400</v>
+      </c>
+      <c r="T45" s="3">
         <v>300</v>
-      </c>
-      <c r="T45" s="3">
-        <v>200</v>
       </c>
       <c r="U45" s="3">
         <v>300</v>
@@ -3094,16 +3292,22 @@
         <v>200</v>
       </c>
       <c r="W45" s="3">
+        <v>300</v>
+      </c>
+      <c r="X45" s="3">
         <v>200</v>
-      </c>
-      <c r="X45" s="3">
-        <v>300</v>
       </c>
       <c r="Y45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3173,150 +3377,168 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F47" s="3">
         <v>3500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>2700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>2600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>2100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>1900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>1800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1600</v>
-      </c>
-      <c r="L47" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M47" s="3">
-        <v>1900</v>
       </c>
       <c r="N47" s="3">
         <v>1800</v>
       </c>
       <c r="O47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P47" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q47" s="3">
         <v>1700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>1500</v>
-      </c>
-      <c r="R47" s="3">
-        <v>1700</v>
       </c>
       <c r="S47" s="3">
         <v>1500</v>
       </c>
       <c r="T47" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="U47" s="3">
         <v>1500</v>
       </c>
       <c r="V47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X47" s="3">
         <v>1400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>1400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>1500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>57600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>58000</v>
+      </c>
+      <c r="F48" s="3">
         <v>58400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>58800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>59100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>59400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>59800</v>
-      </c>
-      <c r="I48" s="3">
-        <v>60200</v>
-      </c>
-      <c r="J48" s="3">
-        <v>60100</v>
       </c>
       <c r="K48" s="3">
         <v>60200</v>
       </c>
       <c r="L48" s="3">
+        <v>60100</v>
+      </c>
+      <c r="M48" s="3">
+        <v>60200</v>
+      </c>
+      <c r="N48" s="3">
         <v>59800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>53200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>53400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>53500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>53800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>54100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>54400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>54700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>55000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>55000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>55300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>55500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>55800</v>
       </c>
-      <c r="Y48" s="3" t="s">
+      <c r="AA48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3339,19 +3561,19 @@
         <v>700</v>
       </c>
       <c r="J49" s="3">
+        <v>700</v>
+      </c>
+      <c r="K49" s="3">
+        <v>700</v>
+      </c>
+      <c r="L49" s="3">
         <v>900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1100</v>
-      </c>
-      <c r="M49" s="3">
-        <v>700</v>
-      </c>
-      <c r="N49" s="3">
-        <v>700</v>
       </c>
       <c r="O49" s="3">
         <v>700</v>
@@ -3375,19 +3597,25 @@
         <v>700</v>
       </c>
       <c r="V49" s="3">
+        <v>700</v>
+      </c>
+      <c r="W49" s="3">
+        <v>700</v>
+      </c>
+      <c r="X49" s="3">
         <v>800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>1000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,25 +3762,31 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3">
-        <v>500</v>
-      </c>
       <c r="F52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G52" s="3">
         <v>500</v>
       </c>
       <c r="H52" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I52" s="3">
         <v>500</v>
@@ -3555,10 +3795,10 @@
         <v>500</v>
       </c>
       <c r="K52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M52" s="3">
         <v>600</v>
@@ -3570,16 +3810,16 @@
         <v>600</v>
       </c>
       <c r="P52" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>600</v>
+      </c>
+      <c r="R52" s="3">
         <v>700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>200</v>
-      </c>
-      <c r="R52" s="3">
-        <v>100</v>
-      </c>
-      <c r="S52" s="3">
-        <v>100</v>
       </c>
       <c r="T52" s="3">
         <v>100</v>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>66900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>66400</v>
+      </c>
+      <c r="F54" s="3">
         <v>66500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>65800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>71400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>64700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>64900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>65500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>66000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>66800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>67700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>58100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>58000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>58400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>58600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>58900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>59600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>59600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>59900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>60200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>60700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>61200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>61600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>60600</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,79 +4055,87 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F57" s="3">
         <v>1500</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1700</v>
       </c>
       <c r="G57" s="3">
         <v>1400</v>
       </c>
       <c r="H57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2300</v>
-      </c>
-      <c r="P57" s="3">
-        <v>2100</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>1900</v>
       </c>
       <c r="R57" s="3">
         <v>2100</v>
       </c>
       <c r="S57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T57" s="3">
         <v>2100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="V57" s="3">
         <v>2000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>1700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3937,8 +4205,14 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3969,11 +4243,11 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>8</v>
@@ -3984,11 +4258,11 @@
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -4008,8 +4282,14 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4079,28 +4359,34 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>17800</v>
+      </c>
+      <c r="F61" s="3">
         <v>17900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>18000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>23300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>23400</v>
-      </c>
-      <c r="H61" s="3">
-        <v>23500</v>
-      </c>
-      <c r="I61" s="3">
-        <v>23600</v>
       </c>
       <c r="J61" s="3">
         <v>23500</v>
@@ -4109,25 +4395,25 @@
         <v>23600</v>
       </c>
       <c r="L61" s="3">
+        <v>23500</v>
+      </c>
+      <c r="M61" s="3">
+        <v>23600</v>
+      </c>
+      <c r="N61" s="3">
         <v>23800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>19300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>19100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>19200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>19300</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>19400</v>
-      </c>
-      <c r="R61" s="3">
-        <v>19400</v>
       </c>
       <c r="S61" s="3">
         <v>19400</v>
@@ -4150,8 +4436,14 @@
       <c r="Y61" s="3">
         <v>19400</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>19400</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>19400</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E66" s="3">
         <v>19400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>19400</v>
+      </c>
+      <c r="G66" s="3">
         <v>19500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>25000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>24800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>24900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>25200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>25400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>25700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>25600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>21700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>21300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>21400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>21400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>21300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>21600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>21500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>21400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>21300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>21200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>21200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>21100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>20300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F72" s="3">
         <v>200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-500</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-700</v>
       </c>
       <c r="H72" s="3">
         <v>-500</v>
       </c>
       <c r="I72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-200</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3">
         <v>700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>2900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>3200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>3600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>4000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>4100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>3700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>4300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>4900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>5400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>5900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>47000</v>
+      </c>
+      <c r="F76" s="3">
         <v>47100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>46300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>46400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>39900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>40000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>40300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>40500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>41100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>42100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>36400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>36600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>36900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>37200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>37600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>38000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>38100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>38500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>38900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>39500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>40000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>40600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,119 +5620,131 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>300</v>
+      </c>
+      <c r="F81" s="3">
         <v>1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
-        <v>200</v>
-      </c>
       <c r="N81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>200</v>
@@ -5363,34 +5753,40 @@
         <v>100</v>
       </c>
       <c r="Q81" s="3">
+        <v>200</v>
+      </c>
+      <c r="R81" s="3">
         <v>100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>400</v>
       </c>
       <c r="S81" s="3">
         <v>100</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="U81" s="3">
+        <v>100</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5434,10 +5832,10 @@
         <v>400</v>
       </c>
       <c r="H83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J83" s="3">
         <v>500</v>
@@ -5446,10 +5844,10 @@
         <v>500</v>
       </c>
       <c r="L83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N83" s="3">
         <v>400</v>
@@ -5461,34 +5859,40 @@
         <v>400</v>
       </c>
       <c r="Q83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S83" s="3">
         <v>300</v>
       </c>
       <c r="T83" s="3">
+        <v>300</v>
+      </c>
+      <c r="U83" s="3">
+        <v>300</v>
+      </c>
+      <c r="V83" s="3">
         <v>400</v>
-      </c>
-      <c r="U83" s="3">
-        <v>400</v>
-      </c>
-      <c r="V83" s="3">
-        <v>500</v>
       </c>
       <c r="W83" s="3">
         <v>400</v>
       </c>
       <c r="X83" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y83" s="3">
         <v>400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA83" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E89" s="3">
         <v>1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G89" s="3">
         <v>600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5949,19 +6391,19 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -5973,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5994,25 +6436,31 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6162,70 +6622,76 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-7300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T94" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="U94" s="3">
         <v>-100</v>
       </c>
       <c r="V94" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="W94" s="3">
         <v>-100</v>
       </c>
       <c r="X94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6263,10 +6731,10 @@
         <v>-700</v>
       </c>
       <c r="F96" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="G96" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="H96" s="3">
         <v>-600</v>
@@ -6284,10 +6752,10 @@
         <v>-600</v>
       </c>
       <c r="M96" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="N96" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="O96" s="3">
         <v>-500</v>
@@ -6320,10 +6788,16 @@
         <v>-500</v>
       </c>
       <c r="Y96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,58 +7021,64 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-6200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>5400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-700</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-500</v>
       </c>
       <c r="J100" s="3">
         <v>-700</v>
       </c>
       <c r="K100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L100" s="3">
         <v>-700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N100" s="3">
         <v>10100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-600</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-600</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-1100</v>
       </c>
       <c r="Q100" s="3">
         <v>-600</v>
       </c>
       <c r="R100" s="3">
-        <v>-500</v>
+        <v>-1100</v>
       </c>
       <c r="S100" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="T100" s="3">
         <v>-500</v>
@@ -6604,10 +7096,16 @@
         <v>-500</v>
       </c>
       <c r="Y100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA100" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +7175,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>400</v>
+      </c>
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-5600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>6500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2900</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>7000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SELF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SELF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>SELF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,148 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E8" s="3">
         <v>3000</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2800</v>
       </c>
       <c r="F8" s="3">
         <v>2800</v>
       </c>
       <c r="G8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H8" s="3">
         <v>2700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2600</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2400</v>
       </c>
       <c r="J8" s="3">
         <v>2400</v>
       </c>
       <c r="K8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L8" s="3">
         <v>2300</v>
-      </c>
-      <c r="L8" s="3">
-        <v>2200</v>
       </c>
       <c r="M8" s="3">
         <v>2200</v>
@@ -814,7 +818,7 @@
         <v>2200</v>
       </c>
       <c r="P8" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="Q8" s="3">
         <v>2100</v>
@@ -826,31 +830,34 @@
         <v>2100</v>
       </c>
       <c r="T8" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="U8" s="3">
         <v>2000</v>
       </c>
       <c r="V8" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="W8" s="3">
         <v>1900</v>
       </c>
       <c r="X8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Y8" s="3">
         <v>1800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,10 +865,10 @@
         <v>1000</v>
       </c>
       <c r="E9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1100</v>
-      </c>
-      <c r="F9" s="3">
-        <v>900</v>
       </c>
       <c r="G9" s="3">
         <v>900</v>
@@ -870,10 +877,10 @@
         <v>900</v>
       </c>
       <c r="I9" s="3">
+        <v>900</v>
+      </c>
+      <c r="J9" s="3">
         <v>1000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>900</v>
       </c>
       <c r="K9" s="3">
         <v>900</v>
@@ -897,7 +904,7 @@
         <v>900</v>
       </c>
       <c r="R9" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="S9" s="3">
         <v>800</v>
@@ -909,13 +916,13 @@
         <v>800</v>
       </c>
       <c r="V9" s="3">
+        <v>800</v>
+      </c>
+      <c r="W9" s="3">
         <v>1000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>800</v>
-      </c>
-      <c r="X9" s="3">
-        <v>700</v>
       </c>
       <c r="Y9" s="3">
         <v>700</v>
@@ -924,39 +931,42 @@
         <v>700</v>
       </c>
       <c r="AA9" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB9" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E10" s="3">
         <v>2000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1400</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1300</v>
       </c>
       <c r="M10" s="3">
         <v>1300</v>
@@ -968,43 +978,46 @@
         <v>1300</v>
       </c>
       <c r="P10" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="Q10" s="3">
         <v>1200</v>
       </c>
       <c r="R10" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="S10" s="3">
         <v>1300</v>
       </c>
       <c r="T10" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="U10" s="3">
         <v>1200</v>
       </c>
       <c r="V10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W10" s="3">
         <v>900</v>
-      </c>
-      <c r="W10" s="3">
-        <v>1100</v>
       </c>
       <c r="X10" s="3">
         <v>1100</v>
       </c>
       <c r="Y10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z10" s="3">
         <v>1000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,17 +1203,20 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -1206,12 +1226,12 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1225,20 +1245,20 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
@@ -1258,13 +1278,16 @@
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1287,7 +1310,7 @@
         <v>400</v>
       </c>
       <c r="J15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K15" s="3">
         <v>500</v>
@@ -1299,7 +1322,7 @@
         <v>500</v>
       </c>
       <c r="N15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O15" s="3">
         <v>400</v>
@@ -1314,7 +1337,7 @@
         <v>400</v>
       </c>
       <c r="S15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T15" s="3">
         <v>300</v>
@@ -1323,25 +1346,28 @@
         <v>300</v>
       </c>
       <c r="V15" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W15" s="3">
         <v>400</v>
       </c>
       <c r="X15" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y15" s="3">
         <v>500</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>400</v>
       </c>
       <c r="Z15" s="3">
         <v>400</v>
       </c>
       <c r="AA15" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB15" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,43 +1392,44 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1900</v>
       </c>
       <c r="H17" s="3">
         <v>1900</v>
       </c>
       <c r="I17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
-      </c>
-      <c r="K17" s="3">
-        <v>2000</v>
       </c>
       <c r="L17" s="3">
         <v>2000</v>
       </c>
       <c r="M17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N17" s="3">
         <v>2100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1800</v>
       </c>
       <c r="O17" s="3">
         <v>1800</v>
@@ -1417,75 +1444,78 @@
         <v>1800</v>
       </c>
       <c r="S17" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="T17" s="3">
         <v>1600</v>
       </c>
       <c r="U17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V17" s="3">
         <v>1700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1900</v>
-      </c>
-      <c r="X17" s="3">
-        <v>1600</v>
       </c>
       <c r="Y17" s="3">
         <v>1600</v>
       </c>
       <c r="Z17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AA17" s="3">
         <v>1400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E18" s="3">
         <v>1200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>700</v>
-      </c>
-      <c r="F18" s="3">
-        <v>800</v>
       </c>
       <c r="G18" s="3">
         <v>800</v>
       </c>
       <c r="H18" s="3">
+        <v>800</v>
+      </c>
+      <c r="I18" s="3">
         <v>700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>400</v>
       </c>
       <c r="O18" s="3">
         <v>400</v>
       </c>
       <c r="P18" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q18" s="3">
         <v>300</v>
@@ -1494,34 +1524,37 @@
         <v>300</v>
       </c>
       <c r="S18" s="3">
+        <v>300</v>
+      </c>
+      <c r="T18" s="3">
         <v>500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>100</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,67 +1582,68 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>-100</v>
       </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
       </c>
       <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-200</v>
       </c>
       <c r="W20" s="3">
         <v>-200</v>
@@ -1621,33 +1655,36 @@
         <v>-200</v>
       </c>
       <c r="Z20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA20" s="3">
         <v>400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1600</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1100</v>
       </c>
       <c r="J21" s="3">
         <v>1100</v>
@@ -1656,55 +1693,58 @@
         <v>1100</v>
       </c>
       <c r="L21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M21" s="3">
         <v>800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>800</v>
-      </c>
-      <c r="R21" s="3">
-        <v>700</v>
       </c>
       <c r="S21" s="3">
         <v>700</v>
       </c>
       <c r="T21" s="3">
+        <v>700</v>
+      </c>
+      <c r="U21" s="3">
         <v>1000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>600</v>
-      </c>
-      <c r="V21" s="3">
-        <v>300</v>
       </c>
       <c r="W21" s="3">
         <v>300</v>
       </c>
       <c r="X21" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y21" s="3">
         <v>500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1718,7 +1758,7 @@
         <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
@@ -1751,7 +1791,7 @@
         <v>300</v>
       </c>
       <c r="R22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S22" s="3">
         <v>200</v>
@@ -1762,8 +1802,8 @@
       <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>8</v>
+      <c r="V22" s="3">
+        <v>200</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>8</v>
@@ -1780,85 +1820,91 @@
       <c r="AA22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>300</v>
       </c>
       <c r="K23" s="3">
         <v>300</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>200</v>
-      </c>
-      <c r="R23" s="3">
-        <v>100</v>
       </c>
       <c r="S23" s="3">
         <v>100</v>
       </c>
       <c r="T23" s="3">
+        <v>100</v>
+      </c>
+      <c r="U23" s="3">
         <v>400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>100</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
         <v>0</v>
       </c>
       <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>300</v>
       </c>
       <c r="K26" s="3">
         <v>300</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>200</v>
-      </c>
-      <c r="R26" s="3">
-        <v>100</v>
       </c>
       <c r="S26" s="3">
         <v>100</v>
       </c>
       <c r="T26" s="3">
+        <v>100</v>
+      </c>
+      <c r="U26" s="3">
         <v>400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>100</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
         <v>0</v>
       </c>
       <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <v>600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>300</v>
       </c>
       <c r="K27" s="3">
         <v>300</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
-      </c>
-      <c r="R27" s="3">
-        <v>100</v>
       </c>
       <c r="S27" s="3">
         <v>100</v>
       </c>
       <c r="T27" s="3">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3">
         <v>400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>100</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
         <v>0</v>
       </c>
       <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,67 +2540,70 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>100</v>
       </c>
       <c r="O32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
       </c>
       <c r="Q32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
-      </c>
-      <c r="V32" s="3">
-        <v>200</v>
       </c>
       <c r="W32" s="3">
         <v>200</v>
@@ -2545,90 +2615,96 @@
         <v>200</v>
       </c>
       <c r="Z32" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>300</v>
       </c>
       <c r="K33" s="3">
         <v>300</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
-      </c>
-      <c r="R33" s="3">
-        <v>100</v>
       </c>
       <c r="S33" s="3">
         <v>100</v>
       </c>
       <c r="T33" s="3">
+        <v>100</v>
+      </c>
+      <c r="U33" s="3">
         <v>400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>100</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
         <v>0</v>
       </c>
       <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>300</v>
       </c>
       <c r="K35" s="3">
         <v>300</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
-      </c>
-      <c r="R35" s="3">
-        <v>100</v>
       </c>
       <c r="S35" s="3">
         <v>100</v>
       </c>
       <c r="T35" s="3">
+        <v>100</v>
+      </c>
+      <c r="U35" s="3">
         <v>400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>100</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
         <v>0</v>
       </c>
       <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E41" s="3">
         <v>5200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1500</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1600</v>
       </c>
       <c r="K41" s="3">
         <v>1600</v>
       </c>
       <c r="L41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M41" s="3">
         <v>2400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4000</v>
-      </c>
-      <c r="O41" s="3">
-        <v>1100</v>
       </c>
       <c r="P41" s="3">
         <v>1100</v>
       </c>
       <c r="Q41" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="R41" s="3">
         <v>1500</v>
       </c>
       <c r="S41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T41" s="3">
         <v>1900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2200</v>
-      </c>
-      <c r="U41" s="3">
-        <v>2100</v>
       </c>
       <c r="V41" s="3">
         <v>2100</v>
       </c>
       <c r="W41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="X41" s="3">
         <v>2500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2800</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>2900</v>
       </c>
       <c r="Z41" s="3">
         <v>2900</v>
       </c>
       <c r="AA41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AB41" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,13 +3165,16 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -3111,10 +3204,10 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
-      </c>
-      <c r="O43" s="3">
-        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
@@ -3147,13 +3240,16 @@
         <v>100</v>
       </c>
       <c r="Z43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA43" s="3">
         <v>200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,16 +3325,19 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
-      </c>
-      <c r="E45" s="3">
-        <v>500</v>
       </c>
       <c r="F45" s="3">
         <v>500</v>
@@ -3247,31 +3346,31 @@
         <v>500</v>
       </c>
       <c r="H45" s="3">
+        <v>500</v>
+      </c>
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>600</v>
-      </c>
-      <c r="L45" s="3">
-        <v>400</v>
       </c>
       <c r="M45" s="3">
         <v>400</v>
       </c>
       <c r="N45" s="3">
+        <v>400</v>
+      </c>
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>500</v>
-      </c>
-      <c r="P45" s="3">
-        <v>300</v>
       </c>
       <c r="Q45" s="3">
         <v>300</v>
@@ -3280,34 +3379,37 @@
         <v>300</v>
       </c>
       <c r="S45" s="3">
+        <v>300</v>
+      </c>
+      <c r="T45" s="3">
         <v>400</v>
-      </c>
-      <c r="T45" s="3">
-        <v>300</v>
       </c>
       <c r="U45" s="3">
         <v>300</v>
       </c>
       <c r="V45" s="3">
+        <v>300</v>
+      </c>
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>300</v>
-      </c>
-      <c r="X45" s="3">
-        <v>200</v>
       </c>
       <c r="Y45" s="3">
         <v>200</v>
       </c>
       <c r="Z45" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA45" s="3">
         <v>300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3383,162 +3485,171 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E47" s="3">
         <v>2700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1500</v>
-      </c>
-      <c r="X47" s="3">
-        <v>1400</v>
       </c>
       <c r="Y47" s="3">
         <v>1400</v>
       </c>
       <c r="Z47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AA47" s="3">
         <v>1500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="3">
         <v>57600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>58000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>58400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>58800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>59100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>59400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>59800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>60200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>60100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>60200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>59800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>53200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>53400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>53500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>53800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>54100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>54400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>54700</v>
-      </c>
-      <c r="V48" s="3">
-        <v>55000</v>
       </c>
       <c r="W48" s="3">
         <v>55000</v>
       </c>
       <c r="X48" s="3">
+        <v>55000</v>
+      </c>
+      <c r="Y48" s="3">
         <v>55300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>55500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>55800</v>
       </c>
-      <c r="AA48" s="3" t="s">
+      <c r="AB48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3567,16 +3678,16 @@
         <v>700</v>
       </c>
       <c r="L49" s="3">
+        <v>700</v>
+      </c>
+      <c r="M49" s="3">
         <v>900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1100</v>
-      </c>
-      <c r="O49" s="3">
-        <v>700</v>
       </c>
       <c r="P49" s="3">
         <v>700</v>
@@ -3603,19 +3714,22 @@
         <v>700</v>
       </c>
       <c r="X49" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y49" s="3">
         <v>800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3777,19 +3897,19 @@
         <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>400</v>
       </c>
       <c r="G52" s="3">
+        <v>400</v>
+      </c>
+      <c r="H52" s="3">
         <v>500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>300</v>
-      </c>
-      <c r="I52" s="3">
-        <v>500</v>
       </c>
       <c r="J52" s="3">
         <v>500</v>
@@ -3801,7 +3921,7 @@
         <v>500</v>
       </c>
       <c r="M52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N52" s="3">
         <v>600</v>
@@ -3816,13 +3936,13 @@
         <v>600</v>
       </c>
       <c r="R52" s="3">
+        <v>600</v>
+      </c>
+      <c r="S52" s="3">
         <v>700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>200</v>
-      </c>
-      <c r="T52" s="3">
-        <v>100</v>
       </c>
       <c r="U52" s="3">
         <v>100</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E54" s="3">
         <v>66900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>66400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>66500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>65800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>71400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>64700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>64900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>65500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>66000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>66800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>67700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>58100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>58000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>58400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>58600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>58900</v>
-      </c>
-      <c r="T54" s="3">
-        <v>59600</v>
       </c>
       <c r="U54" s="3">
         <v>59600</v>
       </c>
       <c r="V54" s="3">
+        <v>59600</v>
+      </c>
+      <c r="W54" s="3">
         <v>59900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>60200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>60700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>61200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>61600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>60600</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,85 +4187,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="E57" s="3">
         <v>1600</v>
       </c>
       <c r="F57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2400</v>
-      </c>
-      <c r="P57" s="3">
-        <v>2300</v>
       </c>
       <c r="Q57" s="3">
         <v>2300</v>
       </c>
       <c r="R57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="S57" s="3">
         <v>2100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1900</v>
-      </c>
-      <c r="T57" s="3">
-        <v>2100</v>
       </c>
       <c r="U57" s="3">
         <v>2100</v>
       </c>
       <c r="V57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="W57" s="3">
         <v>2000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1900</v>
-      </c>
-      <c r="X57" s="3">
-        <v>1800</v>
       </c>
       <c r="Y57" s="3">
         <v>1800</v>
       </c>
       <c r="Z57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AA57" s="3">
         <v>1700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,13 +4345,16 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
+      <c r="D59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -4249,8 +4386,8 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
@@ -4264,8 +4401,8 @@
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="T59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -4288,8 +4425,11 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4365,58 +4505,61 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E61" s="3">
         <v>17700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>17800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>17900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>18000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>23300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>23400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>23500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>23600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>23500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>23600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>23800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>19300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>19100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>19200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>19300</v>
-      </c>
-      <c r="S61" s="3">
-        <v>19400</v>
       </c>
       <c r="T61" s="3">
         <v>19400</v>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>19400</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>19400</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E66" s="3">
         <v>19300</v>
-      </c>
-      <c r="E66" s="3">
-        <v>19400</v>
       </c>
       <c r="F66" s="3">
         <v>19400</v>
       </c>
       <c r="G66" s="3">
+        <v>19400</v>
+      </c>
+      <c r="H66" s="3">
         <v>19500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>25000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>24800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>24900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>25400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>25700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>25600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>21300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>21400</v>
       </c>
       <c r="R66" s="3">
         <v>21400</v>
       </c>
       <c r="S66" s="3">
+        <v>21400</v>
+      </c>
+      <c r="T66" s="3">
         <v>21300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>21600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>21500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>21400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>21300</v>
-      </c>
-      <c r="X66" s="3">
-        <v>21200</v>
       </c>
       <c r="Y66" s="3">
         <v>21200</v>
       </c>
       <c r="Z66" s="3">
+        <v>21200</v>
+      </c>
+      <c r="AA66" s="3">
         <v>21100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>20300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>200</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-500</v>
       </c>
       <c r="H72" s="3">
         <v>-500</v>
       </c>
       <c r="I72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J72" s="3">
         <v>-700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-200</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
       <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3">
         <v>700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>5400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>5900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E76" s="3">
         <v>47700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>47000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>47100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>46300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>46400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>39900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>40000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>40300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>40500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>41100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>42100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>36400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>36600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>36900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>37200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>37600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>38000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>38100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>38500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>38900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>39500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>40000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>40600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>300</v>
       </c>
       <c r="K81" s="3">
         <v>300</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
-      </c>
-      <c r="R81" s="3">
-        <v>100</v>
       </c>
       <c r="S81" s="3">
         <v>100</v>
       </c>
       <c r="T81" s="3">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
         <v>400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>100</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
         <v>0</v>
       </c>
       <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5838,7 +6037,7 @@
         <v>400</v>
       </c>
       <c r="J83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K83" s="3">
         <v>500</v>
@@ -5850,7 +6049,7 @@
         <v>500</v>
       </c>
       <c r="N83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O83" s="3">
         <v>400</v>
@@ -5865,7 +6064,7 @@
         <v>400</v>
       </c>
       <c r="S83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T83" s="3">
         <v>300</v>
@@ -5874,25 +6073,28 @@
         <v>300</v>
       </c>
       <c r="V83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W83" s="3">
         <v>400</v>
       </c>
       <c r="X83" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y83" s="3">
         <v>500</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>400</v>
       </c>
       <c r="Z83" s="3">
         <v>400</v>
       </c>
       <c r="AA83" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB83" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>1300</v>
-      </c>
-      <c r="E89" s="3">
-        <v>1100</v>
       </c>
       <c r="F89" s="3">
         <v>1100</v>
       </c>
       <c r="G89" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H89" s="3">
         <v>600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>500</v>
       </c>
       <c r="P89" s="3">
         <v>500</v>
       </c>
       <c r="Q89" s="3">
+        <v>500</v>
+      </c>
+      <c r="R89" s="3">
         <v>600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>300</v>
-      </c>
-      <c r="T89" s="3">
-        <v>600</v>
       </c>
       <c r="U89" s="3">
         <v>600</v>
       </c>
       <c r="V89" s="3">
+        <v>600</v>
+      </c>
+      <c r="W89" s="3">
         <v>400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,13 +6602,14 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -6397,29 +6618,29 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -6442,25 +6663,28 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>100</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-100</v>
       </c>
       <c r="Y91" s="3">
         <v>-100</v>
       </c>
       <c r="Z91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,13 +6840,16 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -6628,55 +6858,55 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7300</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-200</v>
       </c>
       <c r="P94" s="3">
         <v>-200</v>
       </c>
       <c r="Q94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-300</v>
-      </c>
-      <c r="W94" s="3">
-        <v>-100</v>
       </c>
       <c r="X94" s="3">
         <v>-100</v>
@@ -6685,13 +6915,16 @@
         <v>-100</v>
       </c>
       <c r="Z94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-3800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,13 +6952,14 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="E96" s="3">
         <v>-700</v>
@@ -6737,7 +6971,7 @@
         <v>-700</v>
       </c>
       <c r="H96" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I96" s="3">
         <v>-600</v>
@@ -6758,7 +6992,7 @@
         <v>-600</v>
       </c>
       <c r="O96" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="P96" s="3">
         <v>-500</v>
@@ -6794,10 +7028,13 @@
         <v>-500</v>
       </c>
       <c r="AA96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,61 +7270,64 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5400</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-700</v>
       </c>
       <c r="J100" s="3">
         <v>-700</v>
       </c>
       <c r="K100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L100" s="3">
         <v>-500</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-700</v>
       </c>
       <c r="M100" s="3">
         <v>-700</v>
       </c>
       <c r="N100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O100" s="3">
         <v>10100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-200</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-600</v>
       </c>
       <c r="Q100" s="3">
         <v>-600</v>
       </c>
       <c r="R100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S100" s="3">
         <v>-1100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-600</v>
-      </c>
-      <c r="T100" s="3">
-        <v>-500</v>
       </c>
       <c r="U100" s="3">
         <v>-500</v>
@@ -7102,10 +7348,13 @@
         <v>-500</v>
       </c>
       <c r="AA100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AB100" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2900</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
         <v>-300</v>
       </c>
       <c r="T102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-4100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>7000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SELF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SELF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>SELF</t>
   </si>
@@ -1588,8 +1588,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>-600</v>
@@ -1668,8 +1668,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>1500</v>
       </c>
       <c r="E21" s="3">
         <v>1000</v>
@@ -1828,8 +1828,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>900</v>
       </c>
       <c r="E23" s="3">
         <v>400</v>
@@ -2068,8 +2068,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>900</v>
       </c>
       <c r="E26" s="3">
         <v>400</v>
@@ -2148,8 +2148,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>900</v>
       </c>
       <c r="E27" s="3">
         <v>400</v>
@@ -2548,8 +2548,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>600</v>
@@ -2628,8 +2628,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>900</v>
       </c>
       <c r="E33" s="3">
         <v>400</v>
@@ -2788,8 +2788,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>900</v>
       </c>
       <c r="E35" s="3">
         <v>400</v>
@@ -3573,8 +3573,8 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>8</v>
+      <c r="D48" s="3">
+        <v>57300</v>
       </c>
       <c r="E48" s="3">
         <v>57600</v>
@@ -4353,8 +4353,8 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>8</v>
+      <c r="D59" s="3">
+        <v>0</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -5908,8 +5908,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>900</v>
       </c>
       <c r="E81" s="3">
         <v>400</v>

--- a/AAII_Financials/Quarterly/SELF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SELF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>SELF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,161 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G8" s="3">
         <v>3000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2300</v>
-      </c>
-      <c r="M8" s="3">
-        <v>2200</v>
-      </c>
-      <c r="N8" s="3">
-        <v>2200</v>
       </c>
       <c r="O8" s="3">
         <v>2200</v>
@@ -821,10 +828,10 @@
         <v>2200</v>
       </c>
       <c r="Q8" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="R8" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="S8" s="3">
         <v>2100</v>
@@ -833,60 +840,66 @@
         <v>2100</v>
       </c>
       <c r="U8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="V8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="W8" s="3">
         <v>2000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>1700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>1600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F9" s="3">
         <v>1000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>900</v>
-      </c>
-      <c r="H9" s="3">
-        <v>900</v>
       </c>
       <c r="I9" s="3">
         <v>900</v>
       </c>
       <c r="J9" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K9" s="3">
         <v>900</v>
       </c>
       <c r="L9" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M9" s="3">
         <v>900</v>
@@ -907,10 +920,10 @@
         <v>900</v>
       </c>
       <c r="S9" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T9" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="U9" s="3">
         <v>800</v>
@@ -919,60 +932,66 @@
         <v>800</v>
       </c>
       <c r="W9" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="X9" s="3">
         <v>800</v>
       </c>
       <c r="Y9" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="Z9" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AA9" s="3">
         <v>700</v>
       </c>
       <c r="AB9" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD9" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="E10" s="3">
         <v>2000</v>
       </c>
       <c r="F10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H10" s="3">
         <v>1700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1700</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1500</v>
       </c>
       <c r="L10" s="3">
         <v>1400</v>
       </c>
       <c r="M10" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="N10" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="O10" s="3">
         <v>1300</v>
@@ -981,43 +1000,49 @@
         <v>1300</v>
       </c>
       <c r="Q10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S10" s="3">
         <v>1200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>1100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>1000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1239,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1215,29 +1254,29 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-300</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1248,23 +1287,23 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
@@ -1281,13 +1320,19 @@
         <v>0</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>100</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AD14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1313,10 +1358,10 @@
         <v>400</v>
       </c>
       <c r="K15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M15" s="3">
         <v>500</v>
@@ -1325,10 +1370,10 @@
         <v>500</v>
       </c>
       <c r="O15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q15" s="3">
         <v>400</v>
@@ -1340,34 +1385,40 @@
         <v>400</v>
       </c>
       <c r="T15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V15" s="3">
         <v>300</v>
       </c>
       <c r="W15" s="3">
+        <v>300</v>
+      </c>
+      <c r="X15" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y15" s="3">
         <v>400</v>
-      </c>
-      <c r="X15" s="3">
-        <v>400</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>500</v>
       </c>
       <c r="Z15" s="3">
         <v>400</v>
       </c>
       <c r="AA15" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB15" s="3">
         <v>400</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD15" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,31 +1444,33 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F17" s="3">
         <v>2000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2000</v>
       </c>
       <c r="K17" s="3">
         <v>1900</v>
@@ -1426,16 +1479,16 @@
         <v>2000</v>
       </c>
       <c r="M17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P17" s="3">
         <v>2100</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1800</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1800</v>
       </c>
       <c r="Q17" s="3">
         <v>1800</v>
@@ -1447,114 +1500,126 @@
         <v>1800</v>
       </c>
       <c r="T17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V17" s="3">
         <v>1600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>900</v>
+      </c>
+      <c r="F18" s="3">
         <v>1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>400</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>300</v>
-      </c>
-      <c r="R18" s="3">
-        <v>300</v>
       </c>
       <c r="S18" s="3">
         <v>300</v>
       </c>
       <c r="T18" s="3">
+        <v>300</v>
+      </c>
+      <c r="U18" s="3">
+        <v>300</v>
+      </c>
+      <c r="V18" s="3">
         <v>500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>100</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>200</v>
-      </c>
       <c r="Z18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="3">
         <v>200</v>
       </c>
       <c r="AB18" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,73 +1648,75 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
-      </c>
-      <c r="J20" s="3">
-        <v>300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>300</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>300</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-100</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-200</v>
       </c>
       <c r="Y20" s="3">
         <v>-200</v>
@@ -1658,93 +1725,105 @@
         <v>-200</v>
       </c>
       <c r="AA20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC20" s="3">
         <v>400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F21" s="3">
         <v>1500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>2000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1600</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>1100</v>
       </c>
       <c r="L21" s="3">
         <v>1100</v>
       </c>
       <c r="M21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O21" s="3">
         <v>800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>500</v>
-      </c>
-      <c r="O21" s="3">
-        <v>700</v>
-      </c>
-      <c r="P21" s="3">
-        <v>900</v>
       </c>
       <c r="Q21" s="3">
         <v>700</v>
       </c>
       <c r="R21" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="S21" s="3">
         <v>700</v>
       </c>
       <c r="T21" s="3">
+        <v>800</v>
+      </c>
+      <c r="U21" s="3">
         <v>700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
+        <v>700</v>
+      </c>
+      <c r="W21" s="3">
         <v>1000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>500</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>400</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>900</v>
       </c>
       <c r="AB21" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3">
+        <v>900</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1761,10 +1840,10 @@
         <v>200</v>
       </c>
       <c r="H22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>300</v>
@@ -1794,10 +1873,10 @@
         <v>300</v>
       </c>
       <c r="S22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U22" s="3">
         <v>200</v>
@@ -1805,11 +1884,11 @@
       <c r="V22" s="3">
         <v>200</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>8</v>
+      <c r="W22" s="3">
+        <v>200</v>
+      </c>
+      <c r="X22" s="3">
+        <v>200</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>8</v>
@@ -1823,52 +1902,58 @@
       <c r="AB22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E23" s="3">
         <v>400</v>
       </c>
       <c r="F23" s="3">
+        <v>900</v>
+      </c>
+      <c r="G23" s="3">
+        <v>400</v>
+      </c>
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>200</v>
-      </c>
       <c r="Q23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>200</v>
@@ -1877,34 +1962,40 @@
         <v>100</v>
       </c>
       <c r="T23" s="3">
+        <v>200</v>
+      </c>
+      <c r="U23" s="3">
         <v>100</v>
-      </c>
-      <c r="U23" s="3">
-        <v>400</v>
       </c>
       <c r="V23" s="3">
         <v>100</v>
       </c>
       <c r="W23" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
       <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
         <v>600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,52 +2160,58 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E26" s="3">
         <v>400</v>
       </c>
       <c r="F26" s="3">
+        <v>900</v>
+      </c>
+      <c r="G26" s="3">
+        <v>400</v>
+      </c>
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>200</v>
-      </c>
       <c r="Q26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
         <v>200</v>
@@ -2117,78 +2220,84 @@
         <v>100</v>
       </c>
       <c r="T26" s="3">
+        <v>200</v>
+      </c>
+      <c r="U26" s="3">
         <v>100</v>
-      </c>
-      <c r="U26" s="3">
-        <v>400</v>
       </c>
       <c r="V26" s="3">
         <v>100</v>
       </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
       <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
         <v>600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E27" s="3">
         <v>400</v>
       </c>
       <c r="F27" s="3">
+        <v>900</v>
+      </c>
+      <c r="G27" s="3">
+        <v>400</v>
+      </c>
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>200</v>
-      </c>
       <c r="Q27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
         <v>200</v>
@@ -2197,34 +2306,40 @@
         <v>100</v>
       </c>
       <c r="T27" s="3">
+        <v>200</v>
+      </c>
+      <c r="U27" s="3">
         <v>100</v>
-      </c>
-      <c r="U27" s="3">
-        <v>400</v>
       </c>
       <c r="V27" s="3">
         <v>100</v>
       </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
       <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
         <v>600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,73 +2676,79 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>-300</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>100</v>
-      </c>
-      <c r="W32" s="3">
-        <v>200</v>
-      </c>
-      <c r="X32" s="3">
-        <v>200</v>
       </c>
       <c r="Y32" s="3">
         <v>200</v>
@@ -2618,57 +2757,63 @@
         <v>200</v>
       </c>
       <c r="AA32" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E33" s="3">
         <v>400</v>
       </c>
       <c r="F33" s="3">
+        <v>900</v>
+      </c>
+      <c r="G33" s="3">
+        <v>400</v>
+      </c>
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>200</v>
-      </c>
       <c r="Q33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
         <v>200</v>
@@ -2677,34 +2822,40 @@
         <v>100</v>
       </c>
       <c r="T33" s="3">
+        <v>200</v>
+      </c>
+      <c r="U33" s="3">
         <v>100</v>
-      </c>
-      <c r="U33" s="3">
-        <v>400</v>
       </c>
       <c r="V33" s="3">
         <v>100</v>
       </c>
       <c r="W33" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
       <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
         <v>600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,52 +2934,58 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E35" s="3">
         <v>400</v>
       </c>
       <c r="F35" s="3">
+        <v>900</v>
+      </c>
+      <c r="G35" s="3">
+        <v>400</v>
+      </c>
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>200</v>
-      </c>
       <c r="Q35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
         <v>200</v>
@@ -2837,119 +2994,131 @@
         <v>100</v>
       </c>
       <c r="T35" s="3">
+        <v>200</v>
+      </c>
+      <c r="U35" s="3">
         <v>100</v>
-      </c>
-      <c r="U35" s="3">
-        <v>400</v>
       </c>
       <c r="V35" s="3">
         <v>100</v>
       </c>
       <c r="W35" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
       <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
         <v>600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3179,10 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3017,79 +3190,85 @@
         <v>6300</v>
       </c>
       <c r="E41" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F41" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G41" s="3">
         <v>5200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>8200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>4000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>2200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>2100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>2100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>2500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>2800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>2900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>2900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3347,14 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3177,10 +3362,10 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -3207,13 +3392,13 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
@@ -3243,13 +3428,19 @@
         <v>100</v>
       </c>
       <c r="AA43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3519,14 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3343,55 +3540,55 @@
         <v>500</v>
       </c>
       <c r="G45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H45" s="3">
         <v>500</v>
       </c>
       <c r="I45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
       </c>
       <c r="L45" s="3">
+        <v>400</v>
+      </c>
+      <c r="M45" s="3">
+        <v>300</v>
+      </c>
+      <c r="N45" s="3">
         <v>600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
-      </c>
-      <c r="O45" s="3">
-        <v>300</v>
-      </c>
-      <c r="P45" s="3">
-        <v>500</v>
       </c>
       <c r="Q45" s="3">
         <v>300</v>
       </c>
       <c r="R45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="S45" s="3">
         <v>300</v>
       </c>
       <c r="T45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="U45" s="3">
         <v>300</v>
       </c>
       <c r="V45" s="3">
+        <v>400</v>
+      </c>
+      <c r="W45" s="3">
         <v>300</v>
-      </c>
-      <c r="W45" s="3">
-        <v>200</v>
       </c>
       <c r="X45" s="3">
         <v>300</v>
@@ -3400,16 +3597,22 @@
         <v>200</v>
       </c>
       <c r="Z45" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA45" s="3">
         <v>200</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>300</v>
       </c>
       <c r="AB45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3488,168 +3691,186 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F47" s="3">
         <v>2600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>2700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>3300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>3500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>2700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>2600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1600</v>
-      </c>
-      <c r="O47" s="3">
-        <v>1800</v>
-      </c>
-      <c r="P47" s="3">
-        <v>1900</v>
       </c>
       <c r="Q47" s="3">
         <v>1800</v>
       </c>
       <c r="R47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S47" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T47" s="3">
         <v>1700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>1600</v>
-      </c>
-      <c r="T47" s="3">
-        <v>1500</v>
-      </c>
-      <c r="U47" s="3">
-        <v>1700</v>
       </c>
       <c r="V47" s="3">
         <v>1500</v>
       </c>
       <c r="W47" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="X47" s="3">
         <v>1500</v>
       </c>
       <c r="Y47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AA47" s="3">
         <v>1400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>1400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>1500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>56600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>56900</v>
+      </c>
+      <c r="F48" s="3">
         <v>57300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>57600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>58000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>58400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>58800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>59100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>59400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>59800</v>
-      </c>
-      <c r="L48" s="3">
-        <v>60200</v>
-      </c>
-      <c r="M48" s="3">
-        <v>60100</v>
       </c>
       <c r="N48" s="3">
         <v>60200</v>
       </c>
       <c r="O48" s="3">
+        <v>60100</v>
+      </c>
+      <c r="P48" s="3">
+        <v>60200</v>
+      </c>
+      <c r="Q48" s="3">
         <v>59800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>53200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>53400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>53500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>53800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>54100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>54400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>54700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>55000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>55000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>55300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>55500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>55800</v>
       </c>
-      <c r="AB48" s="3" t="s">
+      <c r="AD48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3681,19 +3902,19 @@
         <v>700</v>
       </c>
       <c r="M49" s="3">
+        <v>700</v>
+      </c>
+      <c r="N49" s="3">
+        <v>700</v>
+      </c>
+      <c r="O49" s="3">
         <v>900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1100</v>
-      </c>
-      <c r="P49" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>700</v>
       </c>
       <c r="R49" s="3">
         <v>700</v>
@@ -3717,19 +3938,25 @@
         <v>700</v>
       </c>
       <c r="Y49" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA49" s="3">
         <v>800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>1000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3900,22 +4139,22 @@
         <v>300</v>
       </c>
       <c r="F52" s="3">
+        <v>300</v>
+      </c>
+      <c r="G52" s="3">
+        <v>300</v>
+      </c>
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>400</v>
-      </c>
-      <c r="H52" s="3">
-        <v>500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>300</v>
       </c>
       <c r="J52" s="3">
         <v>500</v>
       </c>
       <c r="K52" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L52" s="3">
         <v>500</v>
@@ -3924,10 +4163,10 @@
         <v>500</v>
       </c>
       <c r="N52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P52" s="3">
         <v>600</v>
@@ -3939,16 +4178,16 @@
         <v>600</v>
       </c>
       <c r="S52" s="3">
+        <v>600</v>
+      </c>
+      <c r="T52" s="3">
+        <v>600</v>
+      </c>
+      <c r="U52" s="3">
         <v>700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>200</v>
-      </c>
-      <c r="U52" s="3">
-        <v>100</v>
-      </c>
-      <c r="V52" s="3">
-        <v>100</v>
       </c>
       <c r="W52" s="3">
         <v>100</v>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>67400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>67400</v>
+      </c>
+      <c r="F54" s="3">
         <v>68000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>66900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>66400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>66500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>65800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>71400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>64700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>64900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>65500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>66000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>66800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>67700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>58100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>58000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>58400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>58600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>58900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>59600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>59600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>59900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>60200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>60700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>61200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>61600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>60600</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,88 +4447,96 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="E57" s="3">
         <v>1600</v>
       </c>
       <c r="F57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I57" s="3">
         <v>1500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1700</v>
       </c>
       <c r="J57" s="3">
         <v>1400</v>
       </c>
       <c r="K57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2300</v>
-      </c>
-      <c r="S57" s="3">
-        <v>2100</v>
-      </c>
-      <c r="T57" s="3">
-        <v>1900</v>
       </c>
       <c r="U57" s="3">
         <v>2100</v>
       </c>
       <c r="V57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="W57" s="3">
         <v>2100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Y57" s="3">
         <v>2000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>1900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>1800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>1700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4348,8 +4615,14 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4357,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -4389,11 +4662,11 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
@@ -4404,11 +4677,11 @@
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -4428,8 +4701,14 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4508,37 +4787,43 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>17400</v>
+      </c>
+      <c r="F61" s="3">
         <v>17500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>17700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>17800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>17900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>18000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>23300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>23400</v>
-      </c>
-      <c r="K61" s="3">
-        <v>23500</v>
-      </c>
-      <c r="L61" s="3">
-        <v>23600</v>
       </c>
       <c r="M61" s="3">
         <v>23500</v>
@@ -4547,25 +4832,25 @@
         <v>23600</v>
       </c>
       <c r="O61" s="3">
+        <v>23500</v>
+      </c>
+      <c r="P61" s="3">
+        <v>23600</v>
+      </c>
+      <c r="Q61" s="3">
         <v>23800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>19300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>19100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>19200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>19300</v>
-      </c>
-      <c r="T61" s="3">
-        <v>19400</v>
-      </c>
-      <c r="U61" s="3">
-        <v>19400</v>
       </c>
       <c r="V61" s="3">
         <v>19400</v>
@@ -4588,8 +4873,14 @@
       <c r="AB61" s="3">
         <v>19400</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>19400</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>19400</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19400</v>
+        <v>18800</v>
       </c>
       <c r="E66" s="3">
-        <v>19300</v>
+        <v>19000</v>
       </c>
       <c r="F66" s="3">
         <v>19400</v>
       </c>
       <c r="G66" s="3">
+        <v>19300</v>
+      </c>
+      <c r="H66" s="3">
         <v>19400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
+        <v>19400</v>
+      </c>
+      <c r="J66" s="3">
         <v>19500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>25000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>24800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>24900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>25200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>25400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>25700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>25600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>21700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>21300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>21400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>21400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>21300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>21600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>21500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>21400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>21300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>21200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>21200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>21100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>20300</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-500</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-700</v>
       </c>
       <c r="K72" s="3">
         <v>-500</v>
       </c>
       <c r="L72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N72" s="3">
         <v>-200</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3">
         <v>700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>2200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>2500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>2900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>3200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>3600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>4000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>4100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>3700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>4300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>4900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>5400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>5900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,8 +6023,14 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5667,79 +6038,85 @@
         <v>48600</v>
       </c>
       <c r="E76" s="3">
+        <v>48300</v>
+      </c>
+      <c r="F76" s="3">
+        <v>48600</v>
+      </c>
+      <c r="G76" s="3">
         <v>47700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>47000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>47100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>46300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>46400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>39900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>40000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>40300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>40500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>41100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>42100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>36400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>36600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>36900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>37200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>37600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>38000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>38100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>38500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>38900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>39500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>40000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>40600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,137 +6195,149 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E81" s="3">
         <v>400</v>
       </c>
       <c r="F81" s="3">
+        <v>900</v>
+      </c>
+      <c r="G81" s="3">
+        <v>400</v>
+      </c>
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>200</v>
-      </c>
       <c r="Q81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
         <v>200</v>
@@ -5957,34 +6346,40 @@
         <v>100</v>
       </c>
       <c r="T81" s="3">
+        <v>200</v>
+      </c>
+      <c r="U81" s="3">
         <v>100</v>
-      </c>
-      <c r="U81" s="3">
-        <v>400</v>
       </c>
       <c r="V81" s="3">
         <v>100</v>
       </c>
       <c r="W81" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
       <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
         <v>600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6040,10 +6437,10 @@
         <v>400</v>
       </c>
       <c r="K83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M83" s="3">
         <v>500</v>
@@ -6052,10 +6449,10 @@
         <v>500</v>
       </c>
       <c r="O83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q83" s="3">
         <v>400</v>
@@ -6067,34 +6464,40 @@
         <v>400</v>
       </c>
       <c r="T83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V83" s="3">
         <v>300</v>
       </c>
       <c r="W83" s="3">
+        <v>300</v>
+      </c>
+      <c r="X83" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y83" s="3">
         <v>400</v>
-      </c>
-      <c r="X83" s="3">
-        <v>400</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>500</v>
       </c>
       <c r="Z83" s="3">
         <v>400</v>
       </c>
       <c r="AA83" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB83" s="3">
         <v>400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD83" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6920,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F89" s="3">
         <v>1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7042,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6615,25 +7056,25 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -6645,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -6666,25 +7107,31 @@
         <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7296,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6855,76 +7314,82 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-7300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W94" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="X94" s="3">
         <v>-100</v>
       </c>
       <c r="Y94" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="Z94" s="3">
         <v>-100</v>
       </c>
       <c r="AA94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-3800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6962,10 +7429,10 @@
         <v>-800</v>
       </c>
       <c r="E96" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="F96" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="G96" s="3">
         <v>-700</v>
@@ -6974,10 +7441,10 @@
         <v>-700</v>
       </c>
       <c r="I96" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="J96" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="K96" s="3">
         <v>-600</v>
@@ -6995,10 +7462,10 @@
         <v>-600</v>
       </c>
       <c r="P96" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="Q96" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="R96" s="3">
         <v>-500</v>
@@ -7031,10 +7498,16 @@
         <v>-500</v>
       </c>
       <c r="AB96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,67 +7758,73 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-6200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>5400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-700</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-500</v>
       </c>
       <c r="M100" s="3">
         <v>-700</v>
       </c>
       <c r="N100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O100" s="3">
         <v>-700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q100" s="3">
         <v>10100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-600</v>
-      </c>
-      <c r="R100" s="3">
-        <v>-600</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-1100</v>
       </c>
       <c r="T100" s="3">
         <v>-600</v>
       </c>
       <c r="U100" s="3">
-        <v>-500</v>
+        <v>-1100</v>
       </c>
       <c r="V100" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="W100" s="3">
         <v>-500</v>
@@ -7351,10 +7842,16 @@
         <v>-500</v>
       </c>
       <c r="AB100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AD100" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7930,96 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-5600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>6500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>2900</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-4100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>7000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SELF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SELF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>SELF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,164 +665,168 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E8" s="3">
         <v>3000</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3100</v>
       </c>
       <c r="F8" s="3">
         <v>3100</v>
       </c>
       <c r="G8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H8" s="3">
         <v>3000</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2800</v>
       </c>
       <c r="I8" s="3">
         <v>2800</v>
       </c>
       <c r="J8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K8" s="3">
         <v>2700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2600</v>
-      </c>
-      <c r="L8" s="3">
-        <v>2400</v>
       </c>
       <c r="M8" s="3">
         <v>2400</v>
       </c>
       <c r="N8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O8" s="3">
         <v>2300</v>
-      </c>
-      <c r="O8" s="3">
-        <v>2200</v>
       </c>
       <c r="P8" s="3">
         <v>2200</v>
@@ -834,7 +838,7 @@
         <v>2200</v>
       </c>
       <c r="S8" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="T8" s="3">
         <v>2100</v>
@@ -846,31 +850,34 @@
         <v>2100</v>
       </c>
       <c r="W8" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="X8" s="3">
         <v>2000</v>
       </c>
       <c r="Y8" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="Z8" s="3">
         <v>1900</v>
       </c>
       <c r="AA8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AB8" s="3">
         <v>1800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1600</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -881,16 +888,16 @@
         <v>1100</v>
       </c>
       <c r="F9" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G9" s="3">
         <v>1000</v>
       </c>
       <c r="H9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="3">
         <v>1100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>900</v>
       </c>
       <c r="J9" s="3">
         <v>900</v>
@@ -899,10 +906,10 @@
         <v>900</v>
       </c>
       <c r="L9" s="3">
+        <v>900</v>
+      </c>
+      <c r="M9" s="3">
         <v>1000</v>
-      </c>
-      <c r="M9" s="3">
-        <v>900</v>
       </c>
       <c r="N9" s="3">
         <v>900</v>
@@ -926,7 +933,7 @@
         <v>900</v>
       </c>
       <c r="U9" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="V9" s="3">
         <v>800</v>
@@ -938,13 +945,13 @@
         <v>800</v>
       </c>
       <c r="Y9" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z9" s="3">
         <v>1000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>800</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>700</v>
       </c>
       <c r="AB9" s="3">
         <v>700</v>
@@ -953,48 +960,51 @@
         <v>700</v>
       </c>
       <c r="AD9" s="3">
+        <v>700</v>
+      </c>
+      <c r="AE9" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1400</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1300</v>
       </c>
       <c r="P10" s="3">
         <v>1300</v>
@@ -1006,43 +1016,46 @@
         <v>1300</v>
       </c>
       <c r="S10" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T10" s="3">
         <v>1200</v>
       </c>
       <c r="U10" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="V10" s="3">
         <v>1300</v>
       </c>
       <c r="W10" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="X10" s="3">
         <v>1200</v>
       </c>
       <c r="Y10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z10" s="3">
         <v>900</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>1100</v>
       </c>
       <c r="AA10" s="3">
         <v>1100</v>
       </c>
       <c r="AB10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AC10" s="3">
         <v>1000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>900</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1260,11 +1280,11 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-300</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1274,12 +1294,12 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1293,20 +1313,20 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
@@ -1326,13 +1346,16 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>100</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1364,7 +1387,7 @@
         <v>400</v>
       </c>
       <c r="M15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N15" s="3">
         <v>500</v>
@@ -1376,7 +1399,7 @@
         <v>500</v>
       </c>
       <c r="Q15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R15" s="3">
         <v>400</v>
@@ -1391,7 +1414,7 @@
         <v>400</v>
       </c>
       <c r="V15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W15" s="3">
         <v>300</v>
@@ -1400,25 +1423,28 @@
         <v>300</v>
       </c>
       <c r="Y15" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Z15" s="3">
         <v>400</v>
       </c>
       <c r="AA15" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB15" s="3">
         <v>500</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>400</v>
       </c>
       <c r="AC15" s="3">
         <v>400</v>
       </c>
       <c r="AD15" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE15" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,52 +1472,53 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E17" s="3">
         <v>2200</v>
       </c>
       <c r="F17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G17" s="3">
         <v>2000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1900</v>
       </c>
       <c r="K17" s="3">
         <v>1900</v>
       </c>
       <c r="L17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
-      </c>
-      <c r="N17" s="3">
-        <v>2000</v>
       </c>
       <c r="O17" s="3">
         <v>2000</v>
       </c>
       <c r="P17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q17" s="3">
         <v>2100</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1800</v>
       </c>
       <c r="R17" s="3">
         <v>1800</v>
@@ -1506,34 +1533,37 @@
         <v>1800</v>
       </c>
       <c r="V17" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="W17" s="3">
         <v>1600</v>
       </c>
       <c r="X17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Y17" s="3">
         <v>1700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1900</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>1600</v>
       </c>
       <c r="AB17" s="3">
         <v>1600</v>
       </c>
       <c r="AC17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AD17" s="3">
         <v>1400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1541,49 +1571,49 @@
         <v>800</v>
       </c>
       <c r="E18" s="3">
+        <v>800</v>
+      </c>
+      <c r="F18" s="3">
         <v>900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>700</v>
-      </c>
-      <c r="I18" s="3">
-        <v>800</v>
       </c>
       <c r="J18" s="3">
         <v>800</v>
       </c>
       <c r="K18" s="3">
+        <v>800</v>
+      </c>
+      <c r="L18" s="3">
         <v>700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>400</v>
       </c>
       <c r="R18" s="3">
         <v>400</v>
       </c>
       <c r="S18" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T18" s="3">
         <v>300</v>
@@ -1592,34 +1622,37 @@
         <v>300</v>
       </c>
       <c r="V18" s="3">
+        <v>300</v>
+      </c>
+      <c r="W18" s="3">
         <v>500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>100</v>
       </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
       <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
         <v>200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,76 +1683,77 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>-100</v>
       </c>
       <c r="R20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S20" s="3">
         <v>100</v>
       </c>
       <c r="T20" s="3">
+        <v>100</v>
+      </c>
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-100</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>-200</v>
       </c>
       <c r="Z20" s="3">
         <v>-200</v>
@@ -1731,42 +1765,45 @@
         <v>-200</v>
       </c>
       <c r="AC20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD20" s="3">
         <v>400</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E21" s="3">
         <v>1600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1600</v>
-      </c>
-      <c r="L21" s="3">
-        <v>1100</v>
       </c>
       <c r="M21" s="3">
         <v>1100</v>
@@ -1775,55 +1812,58 @@
         <v>1100</v>
       </c>
       <c r="O21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P21" s="3">
         <v>800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>800</v>
-      </c>
-      <c r="U21" s="3">
-        <v>700</v>
       </c>
       <c r="V21" s="3">
         <v>700</v>
       </c>
       <c r="W21" s="3">
+        <v>700</v>
+      </c>
+      <c r="X21" s="3">
         <v>1000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>600</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>300</v>
       </c>
       <c r="Z21" s="3">
         <v>300</v>
       </c>
       <c r="AA21" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB21" s="3">
         <v>500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>900</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1846,7 +1886,7 @@
         <v>200</v>
       </c>
       <c r="J22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>300</v>
@@ -1879,7 +1919,7 @@
         <v>300</v>
       </c>
       <c r="U22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V22" s="3">
         <v>200</v>
@@ -1890,8 +1930,8 @@
       <c r="X22" s="3">
         <v>200</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>8</v>
+      <c r="Y22" s="3">
+        <v>200</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>8</v>
@@ -1908,94 +1948,100 @@
       <c r="AD22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>600</v>
+      </c>
+      <c r="E23" s="3">
         <v>1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>400</v>
-      </c>
-      <c r="M23" s="3">
-        <v>300</v>
       </c>
       <c r="N23" s="3">
         <v>300</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>200</v>
-      </c>
-      <c r="U23" s="3">
-        <v>100</v>
       </c>
       <c r="V23" s="3">
         <v>100</v>
       </c>
       <c r="W23" s="3">
+        <v>100</v>
+      </c>
+      <c r="X23" s="3">
         <v>400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>100</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
       <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
       <c r="AB23" s="3">
         <v>0</v>
       </c>
       <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
         <v>600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>600</v>
+      </c>
+      <c r="E26" s="3">
         <v>1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>400</v>
-      </c>
-      <c r="M26" s="3">
-        <v>300</v>
       </c>
       <c r="N26" s="3">
         <v>300</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>200</v>
-      </c>
-      <c r="U26" s="3">
-        <v>100</v>
       </c>
       <c r="V26" s="3">
         <v>100</v>
       </c>
       <c r="W26" s="3">
+        <v>100</v>
+      </c>
+      <c r="X26" s="3">
         <v>400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>100</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
       <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
       <c r="AB26" s="3">
         <v>0</v>
       </c>
       <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
         <v>600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
         <v>1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>400</v>
-      </c>
-      <c r="M27" s="3">
-        <v>300</v>
       </c>
       <c r="N27" s="3">
         <v>300</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>200</v>
-      </c>
-      <c r="U27" s="3">
-        <v>100</v>
       </c>
       <c r="V27" s="3">
         <v>100</v>
       </c>
       <c r="W27" s="3">
+        <v>100</v>
+      </c>
+      <c r="X27" s="3">
         <v>400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>100</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
       <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
       <c r="AB27" s="3">
         <v>0</v>
       </c>
       <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
         <v>600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,76 +2749,79 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>100</v>
       </c>
       <c r="R32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
         <v>-100</v>
       </c>
       <c r="T32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>100</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>200</v>
       </c>
       <c r="Z32" s="3">
         <v>200</v>
@@ -2763,99 +2833,105 @@
         <v>200</v>
       </c>
       <c r="AC32" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD32" s="3">
         <v>-400</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
         <v>1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>400</v>
-      </c>
-      <c r="M33" s="3">
-        <v>300</v>
       </c>
       <c r="N33" s="3">
         <v>300</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>200</v>
-      </c>
-      <c r="U33" s="3">
-        <v>100</v>
       </c>
       <c r="V33" s="3">
         <v>100</v>
       </c>
       <c r="W33" s="3">
+        <v>100</v>
+      </c>
+      <c r="X33" s="3">
         <v>400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>100</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
       <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
       <c r="AB33" s="3">
         <v>0</v>
       </c>
       <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
         <v>600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
         <v>1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>400</v>
-      </c>
-      <c r="M35" s="3">
-        <v>300</v>
       </c>
       <c r="N35" s="3">
         <v>300</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>200</v>
-      </c>
-      <c r="U35" s="3">
-        <v>100</v>
       </c>
       <c r="V35" s="3">
         <v>100</v>
       </c>
       <c r="W35" s="3">
+        <v>100</v>
+      </c>
+      <c r="X35" s="3">
         <v>400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>100</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
       <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
       <c r="AB35" s="3">
         <v>0</v>
       </c>
       <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
         <v>600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E41" s="3">
         <v>6300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1500</v>
-      </c>
-      <c r="M41" s="3">
-        <v>1600</v>
       </c>
       <c r="N41" s="3">
         <v>1600</v>
       </c>
       <c r="O41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P41" s="3">
         <v>2400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4000</v>
-      </c>
-      <c r="R41" s="3">
-        <v>1100</v>
       </c>
       <c r="S41" s="3">
         <v>1100</v>
       </c>
       <c r="T41" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="U41" s="3">
         <v>1500</v>
       </c>
       <c r="V41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W41" s="3">
         <v>1900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2200</v>
-      </c>
-      <c r="X41" s="3">
-        <v>2100</v>
       </c>
       <c r="Y41" s="3">
         <v>2100</v>
       </c>
       <c r="Z41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="AA41" s="3">
         <v>2500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2800</v>
-      </c>
-      <c r="AB41" s="3">
-        <v>2900</v>
       </c>
       <c r="AC41" s="3">
         <v>2900</v>
       </c>
       <c r="AD41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AE41" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3368,7 +3461,7 @@
         <v>200</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -3398,10 +3491,10 @@
         <v>100</v>
       </c>
       <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
-      </c>
-      <c r="R43" s="3">
-        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
@@ -3434,13 +3527,16 @@
         <v>100</v>
       </c>
       <c r="AC43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD43" s="3">
         <v>200</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,25 +3621,28 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>500</v>
       </c>
       <c r="I45" s="3">
         <v>500</v>
@@ -3552,31 +3651,31 @@
         <v>500</v>
       </c>
       <c r="K45" s="3">
+        <v>500</v>
+      </c>
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>600</v>
-      </c>
-      <c r="O45" s="3">
-        <v>400</v>
       </c>
       <c r="P45" s="3">
         <v>400</v>
       </c>
       <c r="Q45" s="3">
+        <v>400</v>
+      </c>
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>500</v>
-      </c>
-      <c r="S45" s="3">
-        <v>300</v>
       </c>
       <c r="T45" s="3">
         <v>300</v>
@@ -3585,34 +3684,37 @@
         <v>300</v>
       </c>
       <c r="V45" s="3">
+        <v>300</v>
+      </c>
+      <c r="W45" s="3">
         <v>400</v>
-      </c>
-      <c r="W45" s="3">
-        <v>300</v>
       </c>
       <c r="X45" s="3">
         <v>300</v>
       </c>
       <c r="Y45" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z45" s="3">
         <v>200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>300</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>200</v>
       </c>
       <c r="AB45" s="3">
         <v>200</v>
       </c>
       <c r="AC45" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD45" s="3">
         <v>300</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3697,180 +3799,189 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E47" s="3">
         <v>2700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1500</v>
-      </c>
-      <c r="AA47" s="3">
-        <v>1400</v>
       </c>
       <c r="AB47" s="3">
         <v>1400</v>
       </c>
       <c r="AC47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AD47" s="3">
         <v>1500</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E48" s="3">
         <v>56600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>56900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>57300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>57600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>58000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>58400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>58800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>59100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>59400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>59800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>60200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>60100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>60200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>59800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>53200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>53400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>53500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>53800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>54100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>54400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>54700</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>55000</v>
       </c>
       <c r="Z48" s="3">
         <v>55000</v>
       </c>
       <c r="AA48" s="3">
+        <v>55000</v>
+      </c>
+      <c r="AB48" s="3">
         <v>55300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>55500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>55800</v>
       </c>
-      <c r="AD48" s="3" t="s">
+      <c r="AE48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3908,16 +4019,16 @@
         <v>700</v>
       </c>
       <c r="O49" s="3">
+        <v>700</v>
+      </c>
+      <c r="P49" s="3">
         <v>900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1100</v>
-      </c>
-      <c r="R49" s="3">
-        <v>700</v>
       </c>
       <c r="S49" s="3">
         <v>700</v>
@@ -3944,19 +4055,22 @@
         <v>700</v>
       </c>
       <c r="AA49" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB49" s="3">
         <v>800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4145,19 +4265,19 @@
         <v>300</v>
       </c>
       <c r="H52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I52" s="3">
         <v>400</v>
       </c>
       <c r="J52" s="3">
+        <v>400</v>
+      </c>
+      <c r="K52" s="3">
         <v>500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>300</v>
-      </c>
-      <c r="L52" s="3">
-        <v>500</v>
       </c>
       <c r="M52" s="3">
         <v>500</v>
@@ -4169,7 +4289,7 @@
         <v>500</v>
       </c>
       <c r="P52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q52" s="3">
         <v>600</v>
@@ -4184,13 +4304,13 @@
         <v>600</v>
       </c>
       <c r="U52" s="3">
+        <v>600</v>
+      </c>
+      <c r="V52" s="3">
         <v>700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>200</v>
-      </c>
-      <c r="W52" s="3">
-        <v>100</v>
       </c>
       <c r="X52" s="3">
         <v>100</v>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>67400</v>
+        <v>67300</v>
       </c>
       <c r="E54" s="3">
         <v>67400</v>
       </c>
       <c r="F54" s="3">
+        <v>67400</v>
+      </c>
+      <c r="G54" s="3">
         <v>68000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>66900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>66400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>66500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>65800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>71400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>64700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>64900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>65500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>66000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>66800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>67700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>58100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>58000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>58400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>58600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>58900</v>
-      </c>
-      <c r="W54" s="3">
-        <v>59600</v>
       </c>
       <c r="X54" s="3">
         <v>59600</v>
       </c>
       <c r="Y54" s="3">
+        <v>59600</v>
+      </c>
+      <c r="Z54" s="3">
         <v>59900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>60200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>60700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>61200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>61600</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>60600</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,94 +4579,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1600</v>
       </c>
       <c r="H57" s="3">
         <v>1600</v>
       </c>
       <c r="I57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2400</v>
-      </c>
-      <c r="S57" s="3">
-        <v>2300</v>
       </c>
       <c r="T57" s="3">
         <v>2300</v>
       </c>
       <c r="U57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="V57" s="3">
         <v>2100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1900</v>
-      </c>
-      <c r="W57" s="3">
-        <v>2100</v>
       </c>
       <c r="X57" s="3">
         <v>2100</v>
       </c>
       <c r="Y57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Z57" s="3">
         <v>2000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1900</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>1800</v>
       </c>
       <c r="AB57" s="3">
         <v>1800</v>
       </c>
       <c r="AC57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AD57" s="3">
         <v>1700</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4621,8 +4755,11 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4630,11 +4767,11 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
@@ -4668,8 +4805,8 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
+      <c r="R59" s="3">
+        <v>0</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>8</v>
@@ -4683,8 +4820,8 @@
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
+      <c r="W59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X59" s="3">
         <v>0</v>
@@ -4707,8 +4844,11 @@
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4793,67 +4933,70 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E61" s="3">
         <v>17300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>17400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>17500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>17700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>17800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>17900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>18000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>23300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>23400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>23500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>23600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>23500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>23600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>23800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>19300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>19100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>19200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>19300</v>
-      </c>
-      <c r="V61" s="3">
-        <v>19400</v>
       </c>
       <c r="W61" s="3">
         <v>19400</v>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>19400</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>19400</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E66" s="3">
         <v>18800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>19400</v>
       </c>
       <c r="I66" s="3">
         <v>19400</v>
       </c>
       <c r="J66" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K66" s="3">
         <v>19500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>24800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>24900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>25200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>25400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>25700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>25600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>21700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>21300</v>
-      </c>
-      <c r="T66" s="3">
-        <v>21400</v>
       </c>
       <c r="U66" s="3">
         <v>21400</v>
       </c>
       <c r="V66" s="3">
+        <v>21400</v>
+      </c>
+      <c r="W66" s="3">
         <v>21300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>21600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>21500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>21400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>21300</v>
-      </c>
-      <c r="AA66" s="3">
-        <v>21200</v>
       </c>
       <c r="AB66" s="3">
         <v>21200</v>
       </c>
       <c r="AC66" s="3">
+        <v>21200</v>
+      </c>
+      <c r="AD66" s="3">
         <v>21100</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>20300</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>200</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-500</v>
       </c>
       <c r="K72" s="3">
         <v>-500</v>
       </c>
       <c r="L72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M72" s="3">
         <v>-700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-200</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
       <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3">
         <v>700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>4300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>4900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>5400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>5900</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E76" s="3">
         <v>48600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>48300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>48600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>47700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>47000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>47100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>46300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>46400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>39900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>40000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>40300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>40500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>41100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>42100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>36400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>36600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>36900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>37200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>37600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>38000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>38100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>38500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>38900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>39500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>40000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>40600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
         <v>1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>400</v>
-      </c>
-      <c r="M81" s="3">
-        <v>300</v>
       </c>
       <c r="N81" s="3">
         <v>300</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>200</v>
-      </c>
-      <c r="U81" s="3">
-        <v>100</v>
       </c>
       <c r="V81" s="3">
         <v>100</v>
       </c>
       <c r="W81" s="3">
+        <v>100</v>
+      </c>
+      <c r="X81" s="3">
         <v>400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>100</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
       <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
       <c r="AB81" s="3">
         <v>0</v>
       </c>
       <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
         <v>600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6443,7 +6642,7 @@
         <v>400</v>
       </c>
       <c r="M83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N83" s="3">
         <v>500</v>
@@ -6455,7 +6654,7 @@
         <v>500</v>
       </c>
       <c r="Q83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R83" s="3">
         <v>400</v>
@@ -6470,7 +6669,7 @@
         <v>400</v>
       </c>
       <c r="V83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W83" s="3">
         <v>300</v>
@@ -6479,25 +6678,28 @@
         <v>300</v>
       </c>
       <c r="Y83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Z83" s="3">
         <v>400</v>
       </c>
       <c r="AA83" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB83" s="3">
         <v>500</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>400</v>
       </c>
       <c r="AC83" s="3">
         <v>400</v>
       </c>
       <c r="AD83" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE83" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="E89" s="3">
         <v>1000</v>
       </c>
       <c r="F89" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G89" s="3">
         <v>1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>1100</v>
       </c>
       <c r="I89" s="3">
         <v>1100</v>
       </c>
       <c r="J89" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K89" s="3">
         <v>600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>100</v>
-      </c>
-      <c r="R89" s="3">
-        <v>500</v>
       </c>
       <c r="S89" s="3">
         <v>500</v>
       </c>
       <c r="T89" s="3">
+        <v>500</v>
+      </c>
+      <c r="U89" s="3">
         <v>600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>300</v>
-      </c>
-      <c r="W89" s="3">
-        <v>600</v>
       </c>
       <c r="X89" s="3">
         <v>600</v>
       </c>
       <c r="Y89" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z89" s="3">
         <v>400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,23 +7264,24 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -7068,29 +7289,29 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
@@ -7113,25 +7334,28 @@
         <v>0</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>100</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>-100</v>
       </c>
       <c r="AB91" s="3">
         <v>-100</v>
       </c>
       <c r="AC91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-200</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,23 +7529,26 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -7326,55 +7556,55 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7300</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-200</v>
       </c>
       <c r="S94" s="3">
         <v>-200</v>
       </c>
       <c r="T94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>-100</v>
       </c>
       <c r="AA94" s="3">
         <v>-100</v>
@@ -7383,13 +7613,16 @@
         <v>-100</v>
       </c>
       <c r="AC94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD94" s="3">
         <v>-3800</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7435,7 +7669,7 @@
         <v>-800</v>
       </c>
       <c r="G96" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="H96" s="3">
         <v>-700</v>
@@ -7447,7 +7681,7 @@
         <v>-700</v>
       </c>
       <c r="K96" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="L96" s="3">
         <v>-600</v>
@@ -7468,7 +7702,7 @@
         <v>-600</v>
       </c>
       <c r="R96" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="S96" s="3">
         <v>-500</v>
@@ -7504,10 +7738,13 @@
         <v>-500</v>
       </c>
       <c r="AD96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7776,58 +8022,58 @@
         <v>-900</v>
       </c>
       <c r="F100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5400</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-700</v>
       </c>
       <c r="M100" s="3">
         <v>-700</v>
       </c>
       <c r="N100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O100" s="3">
         <v>-500</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-700</v>
       </c>
       <c r="P100" s="3">
         <v>-700</v>
       </c>
       <c r="Q100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R100" s="3">
         <v>10100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-200</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-600</v>
       </c>
       <c r="T100" s="3">
         <v>-600</v>
       </c>
       <c r="U100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V100" s="3">
         <v>-1100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-600</v>
-      </c>
-      <c r="W100" s="3">
-        <v>-500</v>
       </c>
       <c r="X100" s="3">
         <v>-500</v>
@@ -7848,10 +8094,13 @@
         <v>-500</v>
       </c>
       <c r="AD100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AE100" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,90 +8185,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2900</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
         <v>-300</v>
       </c>
       <c r="W102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
-      <c r="AB102" s="3">
-        <v>0</v>
-      </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>-4100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>7000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SELF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SELF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>SELF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,40 +800,40 @@
         <v>3100</v>
       </c>
       <c r="E8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F8" s="3">
         <v>3000</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3100</v>
       </c>
       <c r="G8" s="3">
         <v>3100</v>
       </c>
       <c r="H8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I8" s="3">
         <v>3000</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2800</v>
       </c>
       <c r="J8" s="3">
         <v>2800</v>
       </c>
       <c r="K8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L8" s="3">
         <v>2700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2600</v>
-      </c>
-      <c r="M8" s="3">
-        <v>2400</v>
       </c>
       <c r="N8" s="3">
         <v>2400</v>
       </c>
       <c r="O8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P8" s="3">
         <v>2300</v>
-      </c>
-      <c r="P8" s="3">
-        <v>2200</v>
       </c>
       <c r="Q8" s="3">
         <v>2200</v>
@@ -841,7 +845,7 @@
         <v>2200</v>
       </c>
       <c r="T8" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="U8" s="3">
         <v>2100</v>
@@ -853,36 +857,39 @@
         <v>2100</v>
       </c>
       <c r="X8" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="Y8" s="3">
         <v>2000</v>
       </c>
       <c r="Z8" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="AA8" s="3">
         <v>1900</v>
       </c>
       <c r="AB8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AC8" s="3">
         <v>1800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1700</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1600</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E9" s="3">
         <v>1100</v>
@@ -891,16 +898,16 @@
         <v>1100</v>
       </c>
       <c r="G9" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H9" s="3">
         <v>1000</v>
       </c>
       <c r="I9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="3">
         <v>1100</v>
-      </c>
-      <c r="J9" s="3">
-        <v>900</v>
       </c>
       <c r="K9" s="3">
         <v>900</v>
@@ -909,10 +916,10 @@
         <v>900</v>
       </c>
       <c r="M9" s="3">
+        <v>900</v>
+      </c>
+      <c r="N9" s="3">
         <v>1000</v>
-      </c>
-      <c r="N9" s="3">
-        <v>900</v>
       </c>
       <c r="O9" s="3">
         <v>900</v>
@@ -936,7 +943,7 @@
         <v>900</v>
       </c>
       <c r="V9" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="W9" s="3">
         <v>800</v>
@@ -948,13 +955,13 @@
         <v>800</v>
       </c>
       <c r="Z9" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA9" s="3">
         <v>1000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>800</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>700</v>
       </c>
       <c r="AC9" s="3">
         <v>700</v>
@@ -963,51 +970,54 @@
         <v>700</v>
       </c>
       <c r="AE9" s="3">
+        <v>700</v>
+      </c>
+      <c r="AF9" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E10" s="3">
         <v>2000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1400</v>
-      </c>
-      <c r="P10" s="3">
-        <v>1300</v>
       </c>
       <c r="Q10" s="3">
         <v>1300</v>
@@ -1019,43 +1029,46 @@
         <v>1300</v>
       </c>
       <c r="T10" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="U10" s="3">
         <v>1200</v>
       </c>
       <c r="V10" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="W10" s="3">
         <v>1300</v>
       </c>
       <c r="X10" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="Y10" s="3">
         <v>1200</v>
       </c>
       <c r="Z10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA10" s="3">
         <v>900</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>1100</v>
       </c>
       <c r="AB10" s="3">
         <v>1100</v>
       </c>
       <c r="AC10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AD10" s="3">
         <v>1000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>900</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1283,11 +1303,11 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1297,12 +1317,12 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1316,20 +1336,20 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>200</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
@@ -1349,13 +1369,16 @@
         <v>0</v>
       </c>
       <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
         <v>100</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1390,7 +1413,7 @@
         <v>400</v>
       </c>
       <c r="N15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O15" s="3">
         <v>500</v>
@@ -1402,7 +1425,7 @@
         <v>500</v>
       </c>
       <c r="R15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S15" s="3">
         <v>400</v>
@@ -1417,7 +1440,7 @@
         <v>400</v>
       </c>
       <c r="W15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X15" s="3">
         <v>300</v>
@@ -1426,25 +1449,28 @@
         <v>300</v>
       </c>
       <c r="Z15" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AA15" s="3">
         <v>400</v>
       </c>
       <c r="AB15" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC15" s="3">
         <v>500</v>
-      </c>
-      <c r="AC15" s="3">
-        <v>400</v>
       </c>
       <c r="AD15" s="3">
         <v>400</v>
       </c>
       <c r="AE15" s="3">
+        <v>400</v>
+      </c>
+      <c r="AF15" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,8 +1499,9 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1482,46 +1509,46 @@
         <v>2300</v>
       </c>
       <c r="E17" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="F17" s="3">
         <v>2200</v>
       </c>
       <c r="G17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1900</v>
       </c>
       <c r="L17" s="3">
         <v>1900</v>
       </c>
       <c r="M17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
-      </c>
-      <c r="O17" s="3">
-        <v>2000</v>
       </c>
       <c r="P17" s="3">
         <v>2000</v>
       </c>
       <c r="Q17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R17" s="3">
         <v>2100</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1800</v>
       </c>
       <c r="S17" s="3">
         <v>1800</v>
@@ -1536,34 +1563,37 @@
         <v>1800</v>
       </c>
       <c r="W17" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="X17" s="3">
         <v>1600</v>
       </c>
       <c r="Y17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Z17" s="3">
         <v>1700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1900</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>1600</v>
       </c>
       <c r="AC17" s="3">
         <v>1600</v>
       </c>
       <c r="AD17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AE17" s="3">
         <v>1400</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1574,49 +1604,49 @@
         <v>800</v>
       </c>
       <c r="F18" s="3">
+        <v>800</v>
+      </c>
+      <c r="G18" s="3">
         <v>900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>800</v>
       </c>
       <c r="K18" s="3">
         <v>800</v>
       </c>
       <c r="L18" s="3">
+        <v>800</v>
+      </c>
+      <c r="M18" s="3">
         <v>700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>400</v>
       </c>
       <c r="S18" s="3">
         <v>400</v>
       </c>
       <c r="T18" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U18" s="3">
         <v>300</v>
@@ -1625,34 +1655,37 @@
         <v>300</v>
       </c>
       <c r="W18" s="3">
+        <v>300</v>
+      </c>
+      <c r="X18" s="3">
         <v>500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>100</v>
       </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
       <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
         <v>200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>200</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,79 +1717,80 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>-100</v>
       </c>
       <c r="S20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="T20" s="3">
         <v>100</v>
       </c>
       <c r="U20" s="3">
+        <v>100</v>
+      </c>
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-100</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>-200</v>
       </c>
       <c r="AA20" s="3">
         <v>-200</v>
@@ -1768,45 +1802,48 @@
         <v>-200</v>
       </c>
       <c r="AD20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE20" s="3">
         <v>400</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>1200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1600</v>
-      </c>
-      <c r="M21" s="3">
-        <v>1100</v>
       </c>
       <c r="N21" s="3">
         <v>1100</v>
@@ -1815,55 +1852,58 @@
         <v>1100</v>
       </c>
       <c r="P21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>800</v>
-      </c>
-      <c r="V21" s="3">
-        <v>700</v>
       </c>
       <c r="W21" s="3">
         <v>700</v>
       </c>
       <c r="X21" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y21" s="3">
         <v>1000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>600</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>300</v>
       </c>
       <c r="AA21" s="3">
         <v>300</v>
       </c>
       <c r="AB21" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC21" s="3">
         <v>500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>900</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1889,7 +1929,7 @@
         <v>200</v>
       </c>
       <c r="K22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>300</v>
@@ -1922,7 +1962,7 @@
         <v>300</v>
       </c>
       <c r="V22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W22" s="3">
         <v>200</v>
@@ -1933,8 +1973,8 @@
       <c r="Y22" s="3">
         <v>200</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>8</v>
+      <c r="Z22" s="3">
+        <v>200</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>8</v>
@@ -1951,97 +1991,103 @@
       <c r="AE22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>400</v>
-      </c>
-      <c r="N23" s="3">
-        <v>300</v>
       </c>
       <c r="O23" s="3">
         <v>300</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>200</v>
-      </c>
-      <c r="V23" s="3">
-        <v>100</v>
       </c>
       <c r="W23" s="3">
         <v>100</v>
       </c>
       <c r="X23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y23" s="3">
         <v>400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>100</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
       <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-100</v>
       </c>
-      <c r="AB23" s="3">
-        <v>0</v>
-      </c>
       <c r="AC23" s="3">
         <v>0</v>
       </c>
       <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="3">
         <v>600</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>400</v>
-      </c>
-      <c r="N26" s="3">
-        <v>300</v>
       </c>
       <c r="O26" s="3">
         <v>300</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>200</v>
-      </c>
-      <c r="V26" s="3">
-        <v>100</v>
       </c>
       <c r="W26" s="3">
         <v>100</v>
       </c>
       <c r="X26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>100</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
       <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-100</v>
       </c>
-      <c r="AB26" s="3">
-        <v>0</v>
-      </c>
       <c r="AC26" s="3">
         <v>0</v>
       </c>
       <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="3">
         <v>600</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>300</v>
       </c>
       <c r="O27" s="3">
         <v>300</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>200</v>
-      </c>
-      <c r="V27" s="3">
-        <v>100</v>
       </c>
       <c r="W27" s="3">
         <v>100</v>
       </c>
       <c r="X27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>100</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
       <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-100</v>
       </c>
-      <c r="AB27" s="3">
-        <v>0</v>
-      </c>
       <c r="AC27" s="3">
         <v>0</v>
       </c>
       <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="3">
         <v>600</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,79 +2819,82 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>100</v>
       </c>
       <c r="S32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="T32" s="3">
         <v>-100</v>
       </c>
       <c r="U32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>100</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>200</v>
       </c>
       <c r="AA32" s="3">
         <v>200</v>
@@ -2836,102 +2906,108 @@
         <v>200</v>
       </c>
       <c r="AD32" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE32" s="3">
         <v>-400</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>300</v>
       </c>
       <c r="O33" s="3">
         <v>300</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>200</v>
-      </c>
-      <c r="V33" s="3">
-        <v>100</v>
       </c>
       <c r="W33" s="3">
         <v>100</v>
       </c>
       <c r="X33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>100</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
       <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-100</v>
       </c>
-      <c r="AB33" s="3">
-        <v>0</v>
-      </c>
       <c r="AC33" s="3">
         <v>0</v>
       </c>
       <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="3">
         <v>600</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>300</v>
       </c>
       <c r="O35" s="3">
         <v>300</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>200</v>
-      </c>
-      <c r="V35" s="3">
-        <v>100</v>
       </c>
       <c r="W35" s="3">
         <v>100</v>
       </c>
       <c r="X35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>100</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
       <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-100</v>
       </c>
-      <c r="AB35" s="3">
-        <v>0</v>
-      </c>
       <c r="AC35" s="3">
         <v>0</v>
       </c>
       <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="3">
         <v>600</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E41" s="3">
         <v>6600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1500</v>
-      </c>
-      <c r="N41" s="3">
-        <v>1600</v>
       </c>
       <c r="O41" s="3">
         <v>1600</v>
       </c>
       <c r="P41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q41" s="3">
         <v>2400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4000</v>
-      </c>
-      <c r="S41" s="3">
-        <v>1100</v>
       </c>
       <c r="T41" s="3">
         <v>1100</v>
       </c>
       <c r="U41" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="V41" s="3">
         <v>1500</v>
       </c>
       <c r="W41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X41" s="3">
         <v>1900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2200</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>2100</v>
       </c>
       <c r="Z41" s="3">
         <v>2100</v>
       </c>
       <c r="AA41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="AB41" s="3">
         <v>2500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2800</v>
-      </c>
-      <c r="AC41" s="3">
-        <v>2900</v>
       </c>
       <c r="AD41" s="3">
         <v>2900</v>
       </c>
       <c r="AE41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AF41" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3464,7 +3557,7 @@
         <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -3494,10 +3587,10 @@
         <v>100</v>
       </c>
       <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
-      </c>
-      <c r="S43" s="3">
-        <v>100</v>
       </c>
       <c r="T43" s="3">
         <v>100</v>
@@ -3530,13 +3623,16 @@
         <v>100</v>
       </c>
       <c r="AD43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE43" s="3">
         <v>200</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,28 +3720,31 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>500</v>
       </c>
       <c r="J45" s="3">
         <v>500</v>
@@ -3654,31 +3753,31 @@
         <v>500</v>
       </c>
       <c r="L45" s="3">
+        <v>500</v>
+      </c>
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>600</v>
-      </c>
-      <c r="P45" s="3">
-        <v>400</v>
       </c>
       <c r="Q45" s="3">
         <v>400</v>
       </c>
       <c r="R45" s="3">
+        <v>400</v>
+      </c>
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>500</v>
-      </c>
-      <c r="T45" s="3">
-        <v>300</v>
       </c>
       <c r="U45" s="3">
         <v>300</v>
@@ -3687,34 +3786,37 @@
         <v>300</v>
       </c>
       <c r="W45" s="3">
+        <v>300</v>
+      </c>
+      <c r="X45" s="3">
         <v>400</v>
-      </c>
-      <c r="X45" s="3">
-        <v>300</v>
       </c>
       <c r="Y45" s="3">
         <v>300</v>
       </c>
       <c r="Z45" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA45" s="3">
         <v>200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>300</v>
-      </c>
-      <c r="AB45" s="3">
-        <v>200</v>
       </c>
       <c r="AC45" s="3">
         <v>200</v>
       </c>
       <c r="AD45" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE45" s="3">
         <v>300</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3802,186 +3904,195 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E47" s="3">
         <v>2600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1500</v>
-      </c>
-      <c r="AB47" s="3">
-        <v>1400</v>
       </c>
       <c r="AC47" s="3">
         <v>1400</v>
       </c>
       <c r="AD47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AE47" s="3">
         <v>1500</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E48" s="3">
         <v>56300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>56600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>56900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>57300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>57600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>58000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>58400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>58800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>59100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>59400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>59800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>60200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>60100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>60200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>59800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>53200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>53400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>53500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>53800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>54100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>54400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>54700</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>55000</v>
       </c>
       <c r="AA48" s="3">
         <v>55000</v>
       </c>
       <c r="AB48" s="3">
+        <v>55000</v>
+      </c>
+      <c r="AC48" s="3">
         <v>55300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>55500</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>55800</v>
       </c>
-      <c r="AE48" s="3" t="s">
+      <c r="AF48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4022,16 +4133,16 @@
         <v>700</v>
       </c>
       <c r="P49" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q49" s="3">
         <v>900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1100</v>
-      </c>
-      <c r="S49" s="3">
-        <v>700</v>
       </c>
       <c r="T49" s="3">
         <v>700</v>
@@ -4058,19 +4169,22 @@
         <v>700</v>
       </c>
       <c r="AB49" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC49" s="3">
         <v>800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>1000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4268,19 +4388,19 @@
         <v>300</v>
       </c>
       <c r="I52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J52" s="3">
         <v>400</v>
       </c>
       <c r="K52" s="3">
+        <v>400</v>
+      </c>
+      <c r="L52" s="3">
         <v>500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>300</v>
-      </c>
-      <c r="M52" s="3">
-        <v>500</v>
       </c>
       <c r="N52" s="3">
         <v>500</v>
@@ -4292,7 +4412,7 @@
         <v>500</v>
       </c>
       <c r="Q52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="R52" s="3">
         <v>600</v>
@@ -4307,13 +4427,13 @@
         <v>600</v>
       </c>
       <c r="V52" s="3">
+        <v>600</v>
+      </c>
+      <c r="W52" s="3">
         <v>700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>200</v>
-      </c>
-      <c r="X52" s="3">
-        <v>100</v>
       </c>
       <c r="Y52" s="3">
         <v>100</v>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>66900</v>
+      </c>
+      <c r="E54" s="3">
         <v>67300</v>
-      </c>
-      <c r="E54" s="3">
-        <v>67400</v>
       </c>
       <c r="F54" s="3">
         <v>67400</v>
       </c>
       <c r="G54" s="3">
+        <v>67400</v>
+      </c>
+      <c r="H54" s="3">
         <v>68000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>66900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>66400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>66500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>65800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>71400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>64700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>64900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>65500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>66000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>66800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>67700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>58100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>58000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>58400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>58600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>58900</v>
-      </c>
-      <c r="X54" s="3">
-        <v>59600</v>
       </c>
       <c r="Y54" s="3">
         <v>59600</v>
       </c>
       <c r="Z54" s="3">
+        <v>59600</v>
+      </c>
+      <c r="AA54" s="3">
         <v>59900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>60200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>60700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>61200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>61600</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>60600</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,97 +4710,101 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1600</v>
       </c>
       <c r="I57" s="3">
         <v>1600</v>
       </c>
       <c r="J57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2400</v>
-      </c>
-      <c r="T57" s="3">
-        <v>2300</v>
       </c>
       <c r="U57" s="3">
         <v>2300</v>
       </c>
       <c r="V57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="W57" s="3">
         <v>2100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1900</v>
-      </c>
-      <c r="X57" s="3">
-        <v>2100</v>
       </c>
       <c r="Y57" s="3">
         <v>2100</v>
       </c>
       <c r="Z57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="AA57" s="3">
         <v>2000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1900</v>
-      </c>
-      <c r="AB57" s="3">
-        <v>1800</v>
       </c>
       <c r="AC57" s="3">
         <v>1800</v>
       </c>
       <c r="AD57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AE57" s="3">
         <v>1700</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4758,23 +4892,26 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
+      <c r="D59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
       </c>
       <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
@@ -4808,8 +4945,8 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
+      <c r="S59" s="3">
+        <v>0</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>8</v>
@@ -4823,8 +4960,8 @@
       <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X59" s="3">
-        <v>0</v>
+      <c r="X59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y59" s="3">
         <v>0</v>
@@ -4847,8 +4984,11 @@
       <c r="AE59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4936,70 +5076,73 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E61" s="3">
         <v>17200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>17300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>17400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>17500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>17700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>17800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>17900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>18000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>23300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>23400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>23500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>23600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>23500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>23600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>23800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>19300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>19100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>19200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>19300</v>
-      </c>
-      <c r="W61" s="3">
-        <v>19400</v>
       </c>
       <c r="X61" s="3">
         <v>19400</v>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>19400</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>19400</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,8 +5536,11 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5390,88 +5548,91 @@
         <v>19000</v>
       </c>
       <c r="E66" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F66" s="3">
         <v>18800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>19400</v>
       </c>
       <c r="J66" s="3">
         <v>19400</v>
       </c>
       <c r="K66" s="3">
+        <v>19400</v>
+      </c>
+      <c r="L66" s="3">
         <v>19500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>25000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>24800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>24900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>25200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>25400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>25700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>25600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>21700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>21300</v>
-      </c>
-      <c r="U66" s="3">
-        <v>21400</v>
       </c>
       <c r="V66" s="3">
         <v>21400</v>
       </c>
       <c r="W66" s="3">
+        <v>21400</v>
+      </c>
+      <c r="X66" s="3">
         <v>21300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>21600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>21500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>21400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>21300</v>
-      </c>
-      <c r="AB66" s="3">
-        <v>21200</v>
       </c>
       <c r="AC66" s="3">
         <v>21200</v>
       </c>
       <c r="AD66" s="3">
+        <v>21200</v>
+      </c>
+      <c r="AE66" s="3">
         <v>21100</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>20300</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>200</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-500</v>
       </c>
       <c r="L72" s="3">
         <v>-500</v>
       </c>
       <c r="M72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N72" s="3">
         <v>-700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-200</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
       <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+      <c r="R72" s="3">
         <v>700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>4100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>3700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>4300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>4900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>5400</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>5900</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E76" s="3">
         <v>48400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>48600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>48300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>48600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>47700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>47000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>47100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>46300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>46400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>39900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>40000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>40300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>40500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>41100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>42100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>36400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>36600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>36900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>37200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>37600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>38000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>38100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>38500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>38900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>39500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>40000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>40600</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>300</v>
       </c>
       <c r="O81" s="3">
         <v>300</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>200</v>
-      </c>
-      <c r="V81" s="3">
-        <v>100</v>
       </c>
       <c r="W81" s="3">
         <v>100</v>
       </c>
       <c r="X81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>100</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
       <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-100</v>
       </c>
-      <c r="AB81" s="3">
-        <v>0</v>
-      </c>
       <c r="AC81" s="3">
         <v>0</v>
       </c>
       <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="3">
         <v>600</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6645,7 +6844,7 @@
         <v>400</v>
       </c>
       <c r="N83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O83" s="3">
         <v>500</v>
@@ -6657,7 +6856,7 @@
         <v>500</v>
       </c>
       <c r="R83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S83" s="3">
         <v>400</v>
@@ -6672,7 +6871,7 @@
         <v>400</v>
       </c>
       <c r="W83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X83" s="3">
         <v>300</v>
@@ -6681,25 +6880,28 @@
         <v>300</v>
       </c>
       <c r="Z83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AA83" s="3">
         <v>400</v>
       </c>
       <c r="AB83" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC83" s="3">
         <v>500</v>
-      </c>
-      <c r="AC83" s="3">
-        <v>400</v>
       </c>
       <c r="AD83" s="3">
         <v>400</v>
       </c>
       <c r="AE83" s="3">
+        <v>400</v>
+      </c>
+      <c r="AF83" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E89" s="3">
         <v>1300</v>
-      </c>
-      <c r="E89" s="3">
-        <v>1000</v>
       </c>
       <c r="F89" s="3">
         <v>1000</v>
       </c>
       <c r="G89" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H89" s="3">
         <v>1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1300</v>
-      </c>
-      <c r="I89" s="3">
-        <v>1100</v>
       </c>
       <c r="J89" s="3">
         <v>1100</v>
       </c>
       <c r="K89" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L89" s="3">
         <v>600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>100</v>
-      </c>
-      <c r="S89" s="3">
-        <v>500</v>
       </c>
       <c r="T89" s="3">
         <v>500</v>
       </c>
       <c r="U89" s="3">
+        <v>500</v>
+      </c>
+      <c r="V89" s="3">
         <v>600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>300</v>
-      </c>
-      <c r="X89" s="3">
-        <v>600</v>
       </c>
       <c r="Y89" s="3">
         <v>600</v>
       </c>
       <c r="Z89" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA89" s="3">
         <v>400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>600</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>200</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7274,17 +7495,17 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -7292,29 +7513,29 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
@@ -7337,25 +7558,28 @@
         <v>0</v>
       </c>
       <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>100</v>
-      </c>
-      <c r="AB91" s="3">
-        <v>-100</v>
       </c>
       <c r="AC91" s="3">
         <v>-100</v>
       </c>
       <c r="AD91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE91" s="3">
         <v>-200</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7541,17 +7771,17 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -7559,55 +7789,55 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7300</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-200</v>
       </c>
       <c r="T94" s="3">
         <v>-200</v>
       </c>
       <c r="U94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-300</v>
-      </c>
-      <c r="AA94" s="3">
-        <v>-100</v>
       </c>
       <c r="AB94" s="3">
         <v>-100</v>
@@ -7616,13 +7846,16 @@
         <v>-100</v>
       </c>
       <c r="AD94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE94" s="3">
         <v>-3800</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7672,7 +7906,7 @@
         <v>-800</v>
       </c>
       <c r="H96" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="I96" s="3">
         <v>-700</v>
@@ -7684,7 +7918,7 @@
         <v>-700</v>
       </c>
       <c r="L96" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="M96" s="3">
         <v>-600</v>
@@ -7705,7 +7939,7 @@
         <v>-600</v>
       </c>
       <c r="S96" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="T96" s="3">
         <v>-500</v>
@@ -7741,10 +7975,13 @@
         <v>-500</v>
       </c>
       <c r="AE96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AF96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8025,58 +8271,58 @@
         <v>-900</v>
       </c>
       <c r="G100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5400</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-700</v>
       </c>
       <c r="N100" s="3">
         <v>-700</v>
       </c>
       <c r="O100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P100" s="3">
         <v>-500</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-700</v>
       </c>
       <c r="Q100" s="3">
         <v>-700</v>
       </c>
       <c r="R100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S100" s="3">
         <v>10100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-200</v>
-      </c>
-      <c r="T100" s="3">
-        <v>-600</v>
       </c>
       <c r="U100" s="3">
         <v>-600</v>
       </c>
       <c r="V100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="W100" s="3">
         <v>-1100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-600</v>
-      </c>
-      <c r="X100" s="3">
-        <v>-500</v>
       </c>
       <c r="Y100" s="3">
         <v>-500</v>
@@ -8097,10 +8343,13 @@
         <v>-500</v>
       </c>
       <c r="AE100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AF100" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,93 +8437,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2900</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
         <v>-300</v>
       </c>
       <c r="X102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
-      <c r="AC102" s="3">
-        <v>0</v>
-      </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>-4100</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>7000</v>
       </c>
     </row>
